--- a/DELIVERABLE/EFFORT_LOG/Week16/BSS_EffortLog_TaiNguyen_Week16.xlsx
+++ b/DELIVERABLE/EFFORT_LOG/Week16/BSS_EffortLog_TaiNguyen_Week16.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CapstonProject\CapstonProject\TEMPLATE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Masu\Documents\GitHub\CapstonProject\DELIVERABLE\EFFORT_LOG\Week16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8112"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t xml:space="preserve">EFFORT LOG </t>
   </si>
@@ -49,12 +49,24 @@
   <si>
     <t>Actual Time</t>
   </si>
+  <si>
+    <t>Update static view</t>
+  </si>
+  <si>
+    <t>21/1/2017</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +102,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -105,7 +123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -128,21 +146,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -150,6 +177,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,32 +501,33 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8" style="4" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="4" customWidth="1"/>
-    <col min="9" max="27" width="7.5703125" style="4" customWidth="1"/>
-    <col min="28" max="16384" width="15.140625" style="4"/>
+    <col min="1" max="2" width="8" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" style="3" customWidth="1"/>
+    <col min="9" max="27" width="7.5546875" style="3" customWidth="1"/>
+    <col min="28" max="16384" width="15.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -513,17 +548,17 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -544,7 +579,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -573,56 +608,68 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+    <row r="4" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -643,15 +690,15 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -672,15 +719,15 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -701,15 +748,15 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -730,15 +777,15 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -759,15 +806,15 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -788,15 +835,15 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -817,15 +864,15 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -846,15 +893,15 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -875,15 +922,15 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -904,7 +951,7 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -933,7 +980,7 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -962,7 +1009,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -991,7 +1038,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1020,7 +1067,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1049,7 +1096,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1078,7 +1125,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1107,7 +1154,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1136,7 +1183,7 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1165,7 +1212,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1194,7 +1241,7 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1223,7 +1270,7 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1252,7 +1299,7 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1281,7 +1328,7 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1310,7 +1357,7 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1339,7 +1386,7 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1368,7 +1415,7 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1397,7 +1444,7 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1426,7 +1473,7 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1455,7 +1502,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1484,7 +1531,7 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1513,7 +1560,7 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1542,7 +1589,7 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1571,7 +1618,7 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1600,7 +1647,7 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1629,7 +1676,7 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1658,7 +1705,7 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1687,7 +1734,7 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1716,7 +1763,7 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1745,7 +1792,7 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1774,7 +1821,7 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1803,7 +1850,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1832,7 +1879,7 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1861,7 +1908,7 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1890,7 +1937,7 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1919,7 +1966,7 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1948,7 +1995,7 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1977,7 +2024,7 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2006,7 +2053,7 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2035,7 +2082,7 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2064,7 +2111,7 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2093,7 +2140,7 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2122,7 +2169,7 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2151,7 +2198,7 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2180,7 +2227,7 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2209,7 +2256,7 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2238,7 +2285,7 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2267,7 +2314,7 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2296,7 +2343,7 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2325,7 +2372,7 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2354,7 +2401,7 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2383,7 +2430,7 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2412,7 +2459,7 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2441,7 +2488,7 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2470,7 +2517,7 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2499,7 +2546,7 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2528,7 +2575,7 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2557,7 +2604,7 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2586,7 +2633,7 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2615,7 +2662,7 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2644,7 +2691,7 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2673,7 +2720,7 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2702,7 +2749,7 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2731,7 +2778,7 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2760,7 +2807,7 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2789,7 +2836,7 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2818,7 +2865,7 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2847,7 +2894,7 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2876,7 +2923,7 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2905,7 +2952,7 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2934,7 +2981,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2963,7 +3010,7 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2992,7 +3039,7 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3021,7 +3068,7 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3050,7 +3097,7 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3079,7 +3126,7 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3108,7 +3155,7 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3137,7 +3184,7 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3166,7 +3213,7 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3195,7 +3242,7 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3224,7 +3271,7 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3253,7 +3300,7 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3282,7 +3329,7 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3311,7 +3358,7 @@
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3340,7 +3387,7 @@
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3369,7 +3416,7 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3398,7 +3445,7 @@
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3427,7 +3474,7 @@
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3456,7 +3503,7 @@
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3485,7 +3532,7 @@
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3514,7 +3561,7 @@
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3543,7 +3590,7 @@
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3572,7 +3619,7 @@
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3601,7 +3648,7 @@
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3630,7 +3677,7 @@
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3659,7 +3706,7 @@
       <c r="Z109" s="1"/>
       <c r="AA109" s="1"/>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3688,7 +3735,7 @@
       <c r="Z110" s="1"/>
       <c r="AA110" s="1"/>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3717,7 +3764,7 @@
       <c r="Z111" s="1"/>
       <c r="AA111" s="1"/>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3746,7 +3793,7 @@
       <c r="Z112" s="1"/>
       <c r="AA112" s="1"/>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3775,7 +3822,7 @@
       <c r="Z113" s="1"/>
       <c r="AA113" s="1"/>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3804,7 +3851,7 @@
       <c r="Z114" s="1"/>
       <c r="AA114" s="1"/>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3833,7 +3880,7 @@
       <c r="Z115" s="1"/>
       <c r="AA115" s="1"/>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3862,7 +3909,7 @@
       <c r="Z116" s="1"/>
       <c r="AA116" s="1"/>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3891,7 +3938,7 @@
       <c r="Z117" s="1"/>
       <c r="AA117" s="1"/>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3920,7 +3967,7 @@
       <c r="Z118" s="1"/>
       <c r="AA118" s="1"/>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3949,7 +3996,7 @@
       <c r="Z119" s="1"/>
       <c r="AA119" s="1"/>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3978,7 +4025,7 @@
       <c r="Z120" s="1"/>
       <c r="AA120" s="1"/>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4007,7 +4054,7 @@
       <c r="Z121" s="1"/>
       <c r="AA121" s="1"/>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4036,7 +4083,7 @@
       <c r="Z122" s="1"/>
       <c r="AA122" s="1"/>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4065,7 +4112,7 @@
       <c r="Z123" s="1"/>
       <c r="AA123" s="1"/>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4094,7 +4141,7 @@
       <c r="Z124" s="1"/>
       <c r="AA124" s="1"/>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4123,7 +4170,7 @@
       <c r="Z125" s="1"/>
       <c r="AA125" s="1"/>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4152,7 +4199,7 @@
       <c r="Z126" s="1"/>
       <c r="AA126" s="1"/>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4181,7 +4228,7 @@
       <c r="Z127" s="1"/>
       <c r="AA127" s="1"/>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4210,7 +4257,7 @@
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4239,7 +4286,7 @@
       <c r="Z129" s="1"/>
       <c r="AA129" s="1"/>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4268,7 +4315,7 @@
       <c r="Z130" s="1"/>
       <c r="AA130" s="1"/>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4297,7 +4344,7 @@
       <c r="Z131" s="1"/>
       <c r="AA131" s="1"/>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4326,7 +4373,7 @@
       <c r="Z132" s="1"/>
       <c r="AA132" s="1"/>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4355,7 +4402,7 @@
       <c r="Z133" s="1"/>
       <c r="AA133" s="1"/>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4384,7 +4431,7 @@
       <c r="Z134" s="1"/>
       <c r="AA134" s="1"/>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4413,7 +4460,7 @@
       <c r="Z135" s="1"/>
       <c r="AA135" s="1"/>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4442,7 +4489,7 @@
       <c r="Z136" s="1"/>
       <c r="AA136" s="1"/>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4471,7 +4518,7 @@
       <c r="Z137" s="1"/>
       <c r="AA137" s="1"/>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4500,7 +4547,7 @@
       <c r="Z138" s="1"/>
       <c r="AA138" s="1"/>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4529,7 +4576,7 @@
       <c r="Z139" s="1"/>
       <c r="AA139" s="1"/>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4558,7 +4605,7 @@
       <c r="Z140" s="1"/>
       <c r="AA140" s="1"/>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4587,7 +4634,7 @@
       <c r="Z141" s="1"/>
       <c r="AA141" s="1"/>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4616,7 +4663,7 @@
       <c r="Z142" s="1"/>
       <c r="AA142" s="1"/>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4645,7 +4692,7 @@
       <c r="Z143" s="1"/>
       <c r="AA143" s="1"/>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4674,7 +4721,7 @@
       <c r="Z144" s="1"/>
       <c r="AA144" s="1"/>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4703,7 +4750,7 @@
       <c r="Z145" s="1"/>
       <c r="AA145" s="1"/>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4732,7 +4779,7 @@
       <c r="Z146" s="1"/>
       <c r="AA146" s="1"/>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4761,7 +4808,7 @@
       <c r="Z147" s="1"/>
       <c r="AA147" s="1"/>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4790,7 +4837,7 @@
       <c r="Z148" s="1"/>
       <c r="AA148" s="1"/>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4819,7 +4866,7 @@
       <c r="Z149" s="1"/>
       <c r="AA149" s="1"/>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4848,7 +4895,7 @@
       <c r="Z150" s="1"/>
       <c r="AA150" s="1"/>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4877,7 +4924,7 @@
       <c r="Z151" s="1"/>
       <c r="AA151" s="1"/>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4906,7 +4953,7 @@
       <c r="Z152" s="1"/>
       <c r="AA152" s="1"/>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4935,7 +4982,7 @@
       <c r="Z153" s="1"/>
       <c r="AA153" s="1"/>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4964,7 +5011,7 @@
       <c r="Z154" s="1"/>
       <c r="AA154" s="1"/>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4993,7 +5040,7 @@
       <c r="Z155" s="1"/>
       <c r="AA155" s="1"/>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5022,7 +5069,7 @@
       <c r="Z156" s="1"/>
       <c r="AA156" s="1"/>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5051,7 +5098,7 @@
       <c r="Z157" s="1"/>
       <c r="AA157" s="1"/>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5080,7 +5127,7 @@
       <c r="Z158" s="1"/>
       <c r="AA158" s="1"/>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5109,7 +5156,7 @@
       <c r="Z159" s="1"/>
       <c r="AA159" s="1"/>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5138,7 +5185,7 @@
       <c r="Z160" s="1"/>
       <c r="AA160" s="1"/>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5167,7 +5214,7 @@
       <c r="Z161" s="1"/>
       <c r="AA161" s="1"/>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5196,7 +5243,7 @@
       <c r="Z162" s="1"/>
       <c r="AA162" s="1"/>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5225,7 +5272,7 @@
       <c r="Z163" s="1"/>
       <c r="AA163" s="1"/>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5254,7 +5301,7 @@
       <c r="Z164" s="1"/>
       <c r="AA164" s="1"/>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5283,7 +5330,7 @@
       <c r="Z165" s="1"/>
       <c r="AA165" s="1"/>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5312,7 +5359,7 @@
       <c r="Z166" s="1"/>
       <c r="AA166" s="1"/>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5341,7 +5388,7 @@
       <c r="Z167" s="1"/>
       <c r="AA167" s="1"/>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5370,7 +5417,7 @@
       <c r="Z168" s="1"/>
       <c r="AA168" s="1"/>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5399,7 +5446,7 @@
       <c r="Z169" s="1"/>
       <c r="AA169" s="1"/>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5428,7 +5475,7 @@
       <c r="Z170" s="1"/>
       <c r="AA170" s="1"/>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5457,7 +5504,7 @@
       <c r="Z171" s="1"/>
       <c r="AA171" s="1"/>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5486,7 +5533,7 @@
       <c r="Z172" s="1"/>
       <c r="AA172" s="1"/>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5515,7 +5562,7 @@
       <c r="Z173" s="1"/>
       <c r="AA173" s="1"/>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5544,7 +5591,7 @@
       <c r="Z174" s="1"/>
       <c r="AA174" s="1"/>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5573,7 +5620,7 @@
       <c r="Z175" s="1"/>
       <c r="AA175" s="1"/>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5602,7 +5649,7 @@
       <c r="Z176" s="1"/>
       <c r="AA176" s="1"/>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5631,7 +5678,7 @@
       <c r="Z177" s="1"/>
       <c r="AA177" s="1"/>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5660,7 +5707,7 @@
       <c r="Z178" s="1"/>
       <c r="AA178" s="1"/>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5689,7 +5736,7 @@
       <c r="Z179" s="1"/>
       <c r="AA179" s="1"/>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5718,7 +5765,7 @@
       <c r="Z180" s="1"/>
       <c r="AA180" s="1"/>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5747,7 +5794,7 @@
       <c r="Z181" s="1"/>
       <c r="AA181" s="1"/>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5776,7 +5823,7 @@
       <c r="Z182" s="1"/>
       <c r="AA182" s="1"/>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5805,7 +5852,7 @@
       <c r="Z183" s="1"/>
       <c r="AA183" s="1"/>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5834,7 +5881,7 @@
       <c r="Z184" s="1"/>
       <c r="AA184" s="1"/>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5863,7 +5910,7 @@
       <c r="Z185" s="1"/>
       <c r="AA185" s="1"/>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5892,7 +5939,7 @@
       <c r="Z186" s="1"/>
       <c r="AA186" s="1"/>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5921,7 +5968,7 @@
       <c r="Z187" s="1"/>
       <c r="AA187" s="1"/>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5950,7 +5997,7 @@
       <c r="Z188" s="1"/>
       <c r="AA188" s="1"/>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5979,7 +6026,7 @@
       <c r="Z189" s="1"/>
       <c r="AA189" s="1"/>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -6008,7 +6055,7 @@
       <c r="Z190" s="1"/>
       <c r="AA190" s="1"/>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -6037,7 +6084,7 @@
       <c r="Z191" s="1"/>
       <c r="AA191" s="1"/>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -6066,7 +6113,7 @@
       <c r="Z192" s="1"/>
       <c r="AA192" s="1"/>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -6095,7 +6142,7 @@
       <c r="Z193" s="1"/>
       <c r="AA193" s="1"/>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -6124,7 +6171,7 @@
       <c r="Z194" s="1"/>
       <c r="AA194" s="1"/>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -6153,7 +6200,7 @@
       <c r="Z195" s="1"/>
       <c r="AA195" s="1"/>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -6182,7 +6229,7 @@
       <c r="Z196" s="1"/>
       <c r="AA196" s="1"/>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6211,7 +6258,7 @@
       <c r="Z197" s="1"/>
       <c r="AA197" s="1"/>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6240,7 +6287,7 @@
       <c r="Z198" s="1"/>
       <c r="AA198" s="1"/>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6269,7 +6316,7 @@
       <c r="Z199" s="1"/>
       <c r="AA199" s="1"/>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6298,7 +6345,7 @@
       <c r="Z200" s="1"/>
       <c r="AA200" s="1"/>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6327,7 +6374,7 @@
       <c r="Z201" s="1"/>
       <c r="AA201" s="1"/>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6356,7 +6403,7 @@
       <c r="Z202" s="1"/>
       <c r="AA202" s="1"/>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6385,7 +6432,7 @@
       <c r="Z203" s="1"/>
       <c r="AA203" s="1"/>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6414,7 +6461,7 @@
       <c r="Z204" s="1"/>
       <c r="AA204" s="1"/>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6443,7 +6490,7 @@
       <c r="Z205" s="1"/>
       <c r="AA205" s="1"/>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -6472,7 +6519,7 @@
       <c r="Z206" s="1"/>
       <c r="AA206" s="1"/>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -6501,7 +6548,7 @@
       <c r="Z207" s="1"/>
       <c r="AA207" s="1"/>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -6530,7 +6577,7 @@
       <c r="Z208" s="1"/>
       <c r="AA208" s="1"/>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -6559,7 +6606,7 @@
       <c r="Z209" s="1"/>
       <c r="AA209" s="1"/>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -6588,7 +6635,7 @@
       <c r="Z210" s="1"/>
       <c r="AA210" s="1"/>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -6617,7 +6664,7 @@
       <c r="Z211" s="1"/>
       <c r="AA211" s="1"/>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -6646,7 +6693,7 @@
       <c r="Z212" s="1"/>
       <c r="AA212" s="1"/>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -6675,7 +6722,7 @@
       <c r="Z213" s="1"/>
       <c r="AA213" s="1"/>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -6704,7 +6751,7 @@
       <c r="Z214" s="1"/>
       <c r="AA214" s="1"/>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6733,7 +6780,7 @@
       <c r="Z215" s="1"/>
       <c r="AA215" s="1"/>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -6762,7 +6809,7 @@
       <c r="Z216" s="1"/>
       <c r="AA216" s="1"/>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6791,7 +6838,7 @@
       <c r="Z217" s="1"/>
       <c r="AA217" s="1"/>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6820,7 +6867,7 @@
       <c r="Z218" s="1"/>
       <c r="AA218" s="1"/>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6849,7 +6896,7 @@
       <c r="Z219" s="1"/>
       <c r="AA219" s="1"/>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6878,7 +6925,7 @@
       <c r="Z220" s="1"/>
       <c r="AA220" s="1"/>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6907,7 +6954,7 @@
       <c r="Z221" s="1"/>
       <c r="AA221" s="1"/>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6936,7 +6983,7 @@
       <c r="Z222" s="1"/>
       <c r="AA222" s="1"/>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -6965,7 +7012,7 @@
       <c r="Z223" s="1"/>
       <c r="AA223" s="1"/>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -6994,7 +7041,7 @@
       <c r="Z224" s="1"/>
       <c r="AA224" s="1"/>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -7023,7 +7070,7 @@
       <c r="Z225" s="1"/>
       <c r="AA225" s="1"/>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -7052,7 +7099,7 @@
       <c r="Z226" s="1"/>
       <c r="AA226" s="1"/>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -7081,7 +7128,7 @@
       <c r="Z227" s="1"/>
       <c r="AA227" s="1"/>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -7110,7 +7157,7 @@
       <c r="Z228" s="1"/>
       <c r="AA228" s="1"/>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -7139,7 +7186,7 @@
       <c r="Z229" s="1"/>
       <c r="AA229" s="1"/>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -7168,7 +7215,7 @@
       <c r="Z230" s="1"/>
       <c r="AA230" s="1"/>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -7197,7 +7244,7 @@
       <c r="Z231" s="1"/>
       <c r="AA231" s="1"/>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -7226,7 +7273,7 @@
       <c r="Z232" s="1"/>
       <c r="AA232" s="1"/>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -7255,7 +7302,7 @@
       <c r="Z233" s="1"/>
       <c r="AA233" s="1"/>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -7284,7 +7331,7 @@
       <c r="Z234" s="1"/>
       <c r="AA234" s="1"/>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -7313,7 +7360,7 @@
       <c r="Z235" s="1"/>
       <c r="AA235" s="1"/>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -7342,7 +7389,7 @@
       <c r="Z236" s="1"/>
       <c r="AA236" s="1"/>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -7371,7 +7418,7 @@
       <c r="Z237" s="1"/>
       <c r="AA237" s="1"/>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -7400,7 +7447,7 @@
       <c r="Z238" s="1"/>
       <c r="AA238" s="1"/>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -7429,7 +7476,7 @@
       <c r="Z239" s="1"/>
       <c r="AA239" s="1"/>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -7458,7 +7505,7 @@
       <c r="Z240" s="1"/>
       <c r="AA240" s="1"/>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -7487,7 +7534,7 @@
       <c r="Z241" s="1"/>
       <c r="AA241" s="1"/>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -7516,7 +7563,7 @@
       <c r="Z242" s="1"/>
       <c r="AA242" s="1"/>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -7545,7 +7592,7 @@
       <c r="Z243" s="1"/>
       <c r="AA243" s="1"/>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -7574,7 +7621,7 @@
       <c r="Z244" s="1"/>
       <c r="AA244" s="1"/>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -7603,7 +7650,7 @@
       <c r="Z245" s="1"/>
       <c r="AA245" s="1"/>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -7632,7 +7679,7 @@
       <c r="Z246" s="1"/>
       <c r="AA246" s="1"/>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -7661,7 +7708,7 @@
       <c r="Z247" s="1"/>
       <c r="AA247" s="1"/>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -7690,7 +7737,7 @@
       <c r="Z248" s="1"/>
       <c r="AA248" s="1"/>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -7719,7 +7766,7 @@
       <c r="Z249" s="1"/>
       <c r="AA249" s="1"/>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -7748,7 +7795,7 @@
       <c r="Z250" s="1"/>
       <c r="AA250" s="1"/>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -7777,7 +7824,7 @@
       <c r="Z251" s="1"/>
       <c r="AA251" s="1"/>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -7806,7 +7853,7 @@
       <c r="Z252" s="1"/>
       <c r="AA252" s="1"/>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -7835,7 +7882,7 @@
       <c r="Z253" s="1"/>
       <c r="AA253" s="1"/>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -7864,7 +7911,7 @@
       <c r="Z254" s="1"/>
       <c r="AA254" s="1"/>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -7893,7 +7940,7 @@
       <c r="Z255" s="1"/>
       <c r="AA255" s="1"/>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -7922,7 +7969,7 @@
       <c r="Z256" s="1"/>
       <c r="AA256" s="1"/>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -7951,7 +7998,7 @@
       <c r="Z257" s="1"/>
       <c r="AA257" s="1"/>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -7980,7 +8027,7 @@
       <c r="Z258" s="1"/>
       <c r="AA258" s="1"/>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -8009,7 +8056,7 @@
       <c r="Z259" s="1"/>
       <c r="AA259" s="1"/>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -8038,7 +8085,7 @@
       <c r="Z260" s="1"/>
       <c r="AA260" s="1"/>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -8067,7 +8114,7 @@
       <c r="Z261" s="1"/>
       <c r="AA261" s="1"/>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -8096,7 +8143,7 @@
       <c r="Z262" s="1"/>
       <c r="AA262" s="1"/>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -8125,7 +8172,7 @@
       <c r="Z263" s="1"/>
       <c r="AA263" s="1"/>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -8154,7 +8201,7 @@
       <c r="Z264" s="1"/>
       <c r="AA264" s="1"/>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -8183,7 +8230,7 @@
       <c r="Z265" s="1"/>
       <c r="AA265" s="1"/>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -8212,7 +8259,7 @@
       <c r="Z266" s="1"/>
       <c r="AA266" s="1"/>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -8241,7 +8288,7 @@
       <c r="Z267" s="1"/>
       <c r="AA267" s="1"/>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -8270,7 +8317,7 @@
       <c r="Z268" s="1"/>
       <c r="AA268" s="1"/>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -8299,7 +8346,7 @@
       <c r="Z269" s="1"/>
       <c r="AA269" s="1"/>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -8328,7 +8375,7 @@
       <c r="Z270" s="1"/>
       <c r="AA270" s="1"/>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -8357,7 +8404,7 @@
       <c r="Z271" s="1"/>
       <c r="AA271" s="1"/>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -8386,7 +8433,7 @@
       <c r="Z272" s="1"/>
       <c r="AA272" s="1"/>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -8415,7 +8462,7 @@
       <c r="Z273" s="1"/>
       <c r="AA273" s="1"/>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -8444,7 +8491,7 @@
       <c r="Z274" s="1"/>
       <c r="AA274" s="1"/>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -8473,7 +8520,7 @@
       <c r="Z275" s="1"/>
       <c r="AA275" s="1"/>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -8502,7 +8549,7 @@
       <c r="Z276" s="1"/>
       <c r="AA276" s="1"/>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -8531,7 +8578,7 @@
       <c r="Z277" s="1"/>
       <c r="AA277" s="1"/>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -8560,7 +8607,7 @@
       <c r="Z278" s="1"/>
       <c r="AA278" s="1"/>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -8589,7 +8636,7 @@
       <c r="Z279" s="1"/>
       <c r="AA279" s="1"/>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -8618,7 +8665,7 @@
       <c r="Z280" s="1"/>
       <c r="AA280" s="1"/>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -8647,7 +8694,7 @@
       <c r="Z281" s="1"/>
       <c r="AA281" s="1"/>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -8676,7 +8723,7 @@
       <c r="Z282" s="1"/>
       <c r="AA282" s="1"/>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -8705,7 +8752,7 @@
       <c r="Z283" s="1"/>
       <c r="AA283" s="1"/>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -8734,7 +8781,7 @@
       <c r="Z284" s="1"/>
       <c r="AA284" s="1"/>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -8763,7 +8810,7 @@
       <c r="Z285" s="1"/>
       <c r="AA285" s="1"/>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -8792,7 +8839,7 @@
       <c r="Z286" s="1"/>
       <c r="AA286" s="1"/>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -8821,7 +8868,7 @@
       <c r="Z287" s="1"/>
       <c r="AA287" s="1"/>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -8850,7 +8897,7 @@
       <c r="Z288" s="1"/>
       <c r="AA288" s="1"/>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -8879,7 +8926,7 @@
       <c r="Z289" s="1"/>
       <c r="AA289" s="1"/>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -8908,7 +8955,7 @@
       <c r="Z290" s="1"/>
       <c r="AA290" s="1"/>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -8937,7 +8984,7 @@
       <c r="Z291" s="1"/>
       <c r="AA291" s="1"/>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -8966,7 +9013,7 @@
       <c r="Z292" s="1"/>
       <c r="AA292" s="1"/>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -8995,7 +9042,7 @@
       <c r="Z293" s="1"/>
       <c r="AA293" s="1"/>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -9024,7 +9071,7 @@
       <c r="Z294" s="1"/>
       <c r="AA294" s="1"/>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -9053,7 +9100,7 @@
       <c r="Z295" s="1"/>
       <c r="AA295" s="1"/>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -9082,7 +9129,7 @@
       <c r="Z296" s="1"/>
       <c r="AA296" s="1"/>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -9111,7 +9158,7 @@
       <c r="Z297" s="1"/>
       <c r="AA297" s="1"/>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -9140,7 +9187,7 @@
       <c r="Z298" s="1"/>
       <c r="AA298" s="1"/>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -9169,7 +9216,7 @@
       <c r="Z299" s="1"/>
       <c r="AA299" s="1"/>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -9198,7 +9245,7 @@
       <c r="Z300" s="1"/>
       <c r="AA300" s="1"/>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -9227,7 +9274,7 @@
       <c r="Z301" s="1"/>
       <c r="AA301" s="1"/>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -9256,7 +9303,7 @@
       <c r="Z302" s="1"/>
       <c r="AA302" s="1"/>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -9285,7 +9332,7 @@
       <c r="Z303" s="1"/>
       <c r="AA303" s="1"/>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -9314,7 +9361,7 @@
       <c r="Z304" s="1"/>
       <c r="AA304" s="1"/>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -9343,7 +9390,7 @@
       <c r="Z305" s="1"/>
       <c r="AA305" s="1"/>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -9372,7 +9419,7 @@
       <c r="Z306" s="1"/>
       <c r="AA306" s="1"/>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -9401,7 +9448,7 @@
       <c r="Z307" s="1"/>
       <c r="AA307" s="1"/>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -9430,7 +9477,7 @@
       <c r="Z308" s="1"/>
       <c r="AA308" s="1"/>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -9459,7 +9506,7 @@
       <c r="Z309" s="1"/>
       <c r="AA309" s="1"/>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -9488,7 +9535,7 @@
       <c r="Z310" s="1"/>
       <c r="AA310" s="1"/>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -9517,7 +9564,7 @@
       <c r="Z311" s="1"/>
       <c r="AA311" s="1"/>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -9546,7 +9593,7 @@
       <c r="Z312" s="1"/>
       <c r="AA312" s="1"/>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -9575,7 +9622,7 @@
       <c r="Z313" s="1"/>
       <c r="AA313" s="1"/>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -9604,7 +9651,7 @@
       <c r="Z314" s="1"/>
       <c r="AA314" s="1"/>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -9633,7 +9680,7 @@
       <c r="Z315" s="1"/>
       <c r="AA315" s="1"/>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -9662,7 +9709,7 @@
       <c r="Z316" s="1"/>
       <c r="AA316" s="1"/>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -9691,7 +9738,7 @@
       <c r="Z317" s="1"/>
       <c r="AA317" s="1"/>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -9720,7 +9767,7 @@
       <c r="Z318" s="1"/>
       <c r="AA318" s="1"/>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -9749,7 +9796,7 @@
       <c r="Z319" s="1"/>
       <c r="AA319" s="1"/>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -9778,7 +9825,7 @@
       <c r="Z320" s="1"/>
       <c r="AA320" s="1"/>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -9807,7 +9854,7 @@
       <c r="Z321" s="1"/>
       <c r="AA321" s="1"/>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -9836,7 +9883,7 @@
       <c r="Z322" s="1"/>
       <c r="AA322" s="1"/>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -9865,7 +9912,7 @@
       <c r="Z323" s="1"/>
       <c r="AA323" s="1"/>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -9894,7 +9941,7 @@
       <c r="Z324" s="1"/>
       <c r="AA324" s="1"/>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -9923,7 +9970,7 @@
       <c r="Z325" s="1"/>
       <c r="AA325" s="1"/>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -9952,7 +9999,7 @@
       <c r="Z326" s="1"/>
       <c r="AA326" s="1"/>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -9981,7 +10028,7 @@
       <c r="Z327" s="1"/>
       <c r="AA327" s="1"/>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -10010,7 +10057,7 @@
       <c r="Z328" s="1"/>
       <c r="AA328" s="1"/>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -10039,7 +10086,7 @@
       <c r="Z329" s="1"/>
       <c r="AA329" s="1"/>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -10068,7 +10115,7 @@
       <c r="Z330" s="1"/>
       <c r="AA330" s="1"/>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -10097,7 +10144,7 @@
       <c r="Z331" s="1"/>
       <c r="AA331" s="1"/>
     </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -10126,7 +10173,7 @@
       <c r="Z332" s="1"/>
       <c r="AA332" s="1"/>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -10155,7 +10202,7 @@
       <c r="Z333" s="1"/>
       <c r="AA333" s="1"/>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -10184,7 +10231,7 @@
       <c r="Z334" s="1"/>
       <c r="AA334" s="1"/>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -10213,7 +10260,7 @@
       <c r="Z335" s="1"/>
       <c r="AA335" s="1"/>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -10242,7 +10289,7 @@
       <c r="Z336" s="1"/>
       <c r="AA336" s="1"/>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -10271,7 +10318,7 @@
       <c r="Z337" s="1"/>
       <c r="AA337" s="1"/>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -10300,7 +10347,7 @@
       <c r="Z338" s="1"/>
       <c r="AA338" s="1"/>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -10329,7 +10376,7 @@
       <c r="Z339" s="1"/>
       <c r="AA339" s="1"/>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -10358,7 +10405,7 @@
       <c r="Z340" s="1"/>
       <c r="AA340" s="1"/>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -10387,7 +10434,7 @@
       <c r="Z341" s="1"/>
       <c r="AA341" s="1"/>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -10416,7 +10463,7 @@
       <c r="Z342" s="1"/>
       <c r="AA342" s="1"/>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -10445,7 +10492,7 @@
       <c r="Z343" s="1"/>
       <c r="AA343" s="1"/>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -10474,7 +10521,7 @@
       <c r="Z344" s="1"/>
       <c r="AA344" s="1"/>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -10503,7 +10550,7 @@
       <c r="Z345" s="1"/>
       <c r="AA345" s="1"/>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -10532,7 +10579,7 @@
       <c r="Z346" s="1"/>
       <c r="AA346" s="1"/>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -10561,7 +10608,7 @@
       <c r="Z347" s="1"/>
       <c r="AA347" s="1"/>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -10590,7 +10637,7 @@
       <c r="Z348" s="1"/>
       <c r="AA348" s="1"/>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -10619,7 +10666,7 @@
       <c r="Z349" s="1"/>
       <c r="AA349" s="1"/>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -10648,7 +10695,7 @@
       <c r="Z350" s="1"/>
       <c r="AA350" s="1"/>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -10677,7 +10724,7 @@
       <c r="Z351" s="1"/>
       <c r="AA351" s="1"/>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -10706,7 +10753,7 @@
       <c r="Z352" s="1"/>
       <c r="AA352" s="1"/>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -10735,7 +10782,7 @@
       <c r="Z353" s="1"/>
       <c r="AA353" s="1"/>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -10764,7 +10811,7 @@
       <c r="Z354" s="1"/>
       <c r="AA354" s="1"/>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -10793,7 +10840,7 @@
       <c r="Z355" s="1"/>
       <c r="AA355" s="1"/>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -10822,7 +10869,7 @@
       <c r="Z356" s="1"/>
       <c r="AA356" s="1"/>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -10851,7 +10898,7 @@
       <c r="Z357" s="1"/>
       <c r="AA357" s="1"/>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -10880,7 +10927,7 @@
       <c r="Z358" s="1"/>
       <c r="AA358" s="1"/>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -10909,7 +10956,7 @@
       <c r="Z359" s="1"/>
       <c r="AA359" s="1"/>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -10938,7 +10985,7 @@
       <c r="Z360" s="1"/>
       <c r="AA360" s="1"/>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -10967,7 +11014,7 @@
       <c r="Z361" s="1"/>
       <c r="AA361" s="1"/>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -10996,7 +11043,7 @@
       <c r="Z362" s="1"/>
       <c r="AA362" s="1"/>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -11025,7 +11072,7 @@
       <c r="Z363" s="1"/>
       <c r="AA363" s="1"/>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -11054,7 +11101,7 @@
       <c r="Z364" s="1"/>
       <c r="AA364" s="1"/>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -11083,7 +11130,7 @@
       <c r="Z365" s="1"/>
       <c r="AA365" s="1"/>
     </row>
-    <row r="366" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -11112,7 +11159,7 @@
       <c r="Z366" s="1"/>
       <c r="AA366" s="1"/>
     </row>
-    <row r="367" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -11141,7 +11188,7 @@
       <c r="Z367" s="1"/>
       <c r="AA367" s="1"/>
     </row>
-    <row r="368" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -11170,7 +11217,7 @@
       <c r="Z368" s="1"/>
       <c r="AA368" s="1"/>
     </row>
-    <row r="369" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -11199,7 +11246,7 @@
       <c r="Z369" s="1"/>
       <c r="AA369" s="1"/>
     </row>
-    <row r="370" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -11228,7 +11275,7 @@
       <c r="Z370" s="1"/>
       <c r="AA370" s="1"/>
     </row>
-    <row r="371" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -11257,7 +11304,7 @@
       <c r="Z371" s="1"/>
       <c r="AA371" s="1"/>
     </row>
-    <row r="372" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -11286,7 +11333,7 @@
       <c r="Z372" s="1"/>
       <c r="AA372" s="1"/>
     </row>
-    <row r="373" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -11315,7 +11362,7 @@
       <c r="Z373" s="1"/>
       <c r="AA373" s="1"/>
     </row>
-    <row r="374" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -11344,7 +11391,7 @@
       <c r="Z374" s="1"/>
       <c r="AA374" s="1"/>
     </row>
-    <row r="375" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -11373,7 +11420,7 @@
       <c r="Z375" s="1"/>
       <c r="AA375" s="1"/>
     </row>
-    <row r="376" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -11402,7 +11449,7 @@
       <c r="Z376" s="1"/>
       <c r="AA376" s="1"/>
     </row>
-    <row r="377" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -11431,7 +11478,7 @@
       <c r="Z377" s="1"/>
       <c r="AA377" s="1"/>
     </row>
-    <row r="378" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -11460,7 +11507,7 @@
       <c r="Z378" s="1"/>
       <c r="AA378" s="1"/>
     </row>
-    <row r="379" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -11489,7 +11536,7 @@
       <c r="Z379" s="1"/>
       <c r="AA379" s="1"/>
     </row>
-    <row r="380" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -11518,7 +11565,7 @@
       <c r="Z380" s="1"/>
       <c r="AA380" s="1"/>
     </row>
-    <row r="381" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -11547,7 +11594,7 @@
       <c r="Z381" s="1"/>
       <c r="AA381" s="1"/>
     </row>
-    <row r="382" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -11576,7 +11623,7 @@
       <c r="Z382" s="1"/>
       <c r="AA382" s="1"/>
     </row>
-    <row r="383" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -11605,7 +11652,7 @@
       <c r="Z383" s="1"/>
       <c r="AA383" s="1"/>
     </row>
-    <row r="384" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -11634,7 +11681,7 @@
       <c r="Z384" s="1"/>
       <c r="AA384" s="1"/>
     </row>
-    <row r="385" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -11663,7 +11710,7 @@
       <c r="Z385" s="1"/>
       <c r="AA385" s="1"/>
     </row>
-    <row r="386" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -11692,7 +11739,7 @@
       <c r="Z386" s="1"/>
       <c r="AA386" s="1"/>
     </row>
-    <row r="387" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -11721,7 +11768,7 @@
       <c r="Z387" s="1"/>
       <c r="AA387" s="1"/>
     </row>
-    <row r="388" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -11750,7 +11797,7 @@
       <c r="Z388" s="1"/>
       <c r="AA388" s="1"/>
     </row>
-    <row r="389" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -11779,7 +11826,7 @@
       <c r="Z389" s="1"/>
       <c r="AA389" s="1"/>
     </row>
-    <row r="390" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -11808,7 +11855,7 @@
       <c r="Z390" s="1"/>
       <c r="AA390" s="1"/>
     </row>
-    <row r="391" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -11837,7 +11884,7 @@
       <c r="Z391" s="1"/>
       <c r="AA391" s="1"/>
     </row>
-    <row r="392" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -11866,7 +11913,7 @@
       <c r="Z392" s="1"/>
       <c r="AA392" s="1"/>
     </row>
-    <row r="393" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -11895,7 +11942,7 @@
       <c r="Z393" s="1"/>
       <c r="AA393" s="1"/>
     </row>
-    <row r="394" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -11924,7 +11971,7 @@
       <c r="Z394" s="1"/>
       <c r="AA394" s="1"/>
     </row>
-    <row r="395" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -11953,7 +12000,7 @@
       <c r="Z395" s="1"/>
       <c r="AA395" s="1"/>
     </row>
-    <row r="396" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -11982,7 +12029,7 @@
       <c r="Z396" s="1"/>
       <c r="AA396" s="1"/>
     </row>
-    <row r="397" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -12011,7 +12058,7 @@
       <c r="Z397" s="1"/>
       <c r="AA397" s="1"/>
     </row>
-    <row r="398" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -12040,7 +12087,7 @@
       <c r="Z398" s="1"/>
       <c r="AA398" s="1"/>
     </row>
-    <row r="399" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -12069,7 +12116,7 @@
       <c r="Z399" s="1"/>
       <c r="AA399" s="1"/>
     </row>
-    <row r="400" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -12098,7 +12145,7 @@
       <c r="Z400" s="1"/>
       <c r="AA400" s="1"/>
     </row>
-    <row r="401" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -12127,7 +12174,7 @@
       <c r="Z401" s="1"/>
       <c r="AA401" s="1"/>
     </row>
-    <row r="402" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -12156,7 +12203,7 @@
       <c r="Z402" s="1"/>
       <c r="AA402" s="1"/>
     </row>
-    <row r="403" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -12185,7 +12232,7 @@
       <c r="Z403" s="1"/>
       <c r="AA403" s="1"/>
     </row>
-    <row r="404" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -12214,7 +12261,7 @@
       <c r="Z404" s="1"/>
       <c r="AA404" s="1"/>
     </row>
-    <row r="405" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -12243,7 +12290,7 @@
       <c r="Z405" s="1"/>
       <c r="AA405" s="1"/>
     </row>
-    <row r="406" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -12272,7 +12319,7 @@
       <c r="Z406" s="1"/>
       <c r="AA406" s="1"/>
     </row>
-    <row r="407" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -12301,7 +12348,7 @@
       <c r="Z407" s="1"/>
       <c r="AA407" s="1"/>
     </row>
-    <row r="408" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -12330,7 +12377,7 @@
       <c r="Z408" s="1"/>
       <c r="AA408" s="1"/>
     </row>
-    <row r="409" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -12359,7 +12406,7 @@
       <c r="Z409" s="1"/>
       <c r="AA409" s="1"/>
     </row>
-    <row r="410" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -12388,7 +12435,7 @@
       <c r="Z410" s="1"/>
       <c r="AA410" s="1"/>
     </row>
-    <row r="411" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -12417,7 +12464,7 @@
       <c r="Z411" s="1"/>
       <c r="AA411" s="1"/>
     </row>
-    <row r="412" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -12446,7 +12493,7 @@
       <c r="Z412" s="1"/>
       <c r="AA412" s="1"/>
     </row>
-    <row r="413" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -12475,7 +12522,7 @@
       <c r="Z413" s="1"/>
       <c r="AA413" s="1"/>
     </row>
-    <row r="414" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -12504,7 +12551,7 @@
       <c r="Z414" s="1"/>
       <c r="AA414" s="1"/>
     </row>
-    <row r="415" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -12533,7 +12580,7 @@
       <c r="Z415" s="1"/>
       <c r="AA415" s="1"/>
     </row>
-    <row r="416" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -12562,7 +12609,7 @@
       <c r="Z416" s="1"/>
       <c r="AA416" s="1"/>
     </row>
-    <row r="417" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -12591,7 +12638,7 @@
       <c r="Z417" s="1"/>
       <c r="AA417" s="1"/>
     </row>
-    <row r="418" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -12620,7 +12667,7 @@
       <c r="Z418" s="1"/>
       <c r="AA418" s="1"/>
     </row>
-    <row r="419" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -12649,7 +12696,7 @@
       <c r="Z419" s="1"/>
       <c r="AA419" s="1"/>
     </row>
-    <row r="420" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -12678,7 +12725,7 @@
       <c r="Z420" s="1"/>
       <c r="AA420" s="1"/>
     </row>
-    <row r="421" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -12707,7 +12754,7 @@
       <c r="Z421" s="1"/>
       <c r="AA421" s="1"/>
     </row>
-    <row r="422" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -12736,7 +12783,7 @@
       <c r="Z422" s="1"/>
       <c r="AA422" s="1"/>
     </row>
-    <row r="423" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -12765,7 +12812,7 @@
       <c r="Z423" s="1"/>
       <c r="AA423" s="1"/>
     </row>
-    <row r="424" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -12794,7 +12841,7 @@
       <c r="Z424" s="1"/>
       <c r="AA424" s="1"/>
     </row>
-    <row r="425" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -12823,7 +12870,7 @@
       <c r="Z425" s="1"/>
       <c r="AA425" s="1"/>
     </row>
-    <row r="426" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -12852,7 +12899,7 @@
       <c r="Z426" s="1"/>
       <c r="AA426" s="1"/>
     </row>
-    <row r="427" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -12881,7 +12928,7 @@
       <c r="Z427" s="1"/>
       <c r="AA427" s="1"/>
     </row>
-    <row r="428" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -12910,7 +12957,7 @@
       <c r="Z428" s="1"/>
       <c r="AA428" s="1"/>
     </row>
-    <row r="429" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -12939,7 +12986,7 @@
       <c r="Z429" s="1"/>
       <c r="AA429" s="1"/>
     </row>
-    <row r="430" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -12968,7 +13015,7 @@
       <c r="Z430" s="1"/>
       <c r="AA430" s="1"/>
     </row>
-    <row r="431" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -12997,7 +13044,7 @@
       <c r="Z431" s="1"/>
       <c r="AA431" s="1"/>
     </row>
-    <row r="432" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -13026,7 +13073,7 @@
       <c r="Z432" s="1"/>
       <c r="AA432" s="1"/>
     </row>
-    <row r="433" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -13055,7 +13102,7 @@
       <c r="Z433" s="1"/>
       <c r="AA433" s="1"/>
     </row>
-    <row r="434" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -13084,7 +13131,7 @@
       <c r="Z434" s="1"/>
       <c r="AA434" s="1"/>
     </row>
-    <row r="435" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -13113,7 +13160,7 @@
       <c r="Z435" s="1"/>
       <c r="AA435" s="1"/>
     </row>
-    <row r="436" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -13142,7 +13189,7 @@
       <c r="Z436" s="1"/>
       <c r="AA436" s="1"/>
     </row>
-    <row r="437" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -13171,7 +13218,7 @@
       <c r="Z437" s="1"/>
       <c r="AA437" s="1"/>
     </row>
-    <row r="438" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -13200,7 +13247,7 @@
       <c r="Z438" s="1"/>
       <c r="AA438" s="1"/>
     </row>
-    <row r="439" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -13229,7 +13276,7 @@
       <c r="Z439" s="1"/>
       <c r="AA439" s="1"/>
     </row>
-    <row r="440" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -13258,7 +13305,7 @@
       <c r="Z440" s="1"/>
       <c r="AA440" s="1"/>
     </row>
-    <row r="441" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -13287,7 +13334,7 @@
       <c r="Z441" s="1"/>
       <c r="AA441" s="1"/>
     </row>
-    <row r="442" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -13316,7 +13363,7 @@
       <c r="Z442" s="1"/>
       <c r="AA442" s="1"/>
     </row>
-    <row r="443" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -13345,7 +13392,7 @@
       <c r="Z443" s="1"/>
       <c r="AA443" s="1"/>
     </row>
-    <row r="444" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -13374,7 +13421,7 @@
       <c r="Z444" s="1"/>
       <c r="AA444" s="1"/>
     </row>
-    <row r="445" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -13403,7 +13450,7 @@
       <c r="Z445" s="1"/>
       <c r="AA445" s="1"/>
     </row>
-    <row r="446" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -13432,7 +13479,7 @@
       <c r="Z446" s="1"/>
       <c r="AA446" s="1"/>
     </row>
-    <row r="447" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -13461,7 +13508,7 @@
       <c r="Z447" s="1"/>
       <c r="AA447" s="1"/>
     </row>
-    <row r="448" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -13490,7 +13537,7 @@
       <c r="Z448" s="1"/>
       <c r="AA448" s="1"/>
     </row>
-    <row r="449" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -13519,7 +13566,7 @@
       <c r="Z449" s="1"/>
       <c r="AA449" s="1"/>
     </row>
-    <row r="450" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -13548,7 +13595,7 @@
       <c r="Z450" s="1"/>
       <c r="AA450" s="1"/>
     </row>
-    <row r="451" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -13577,7 +13624,7 @@
       <c r="Z451" s="1"/>
       <c r="AA451" s="1"/>
     </row>
-    <row r="452" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -13606,7 +13653,7 @@
       <c r="Z452" s="1"/>
       <c r="AA452" s="1"/>
     </row>
-    <row r="453" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -13635,7 +13682,7 @@
       <c r="Z453" s="1"/>
       <c r="AA453" s="1"/>
     </row>
-    <row r="454" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -13664,7 +13711,7 @@
       <c r="Z454" s="1"/>
       <c r="AA454" s="1"/>
     </row>
-    <row r="455" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -13693,7 +13740,7 @@
       <c r="Z455" s="1"/>
       <c r="AA455" s="1"/>
     </row>
-    <row r="456" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -13722,7 +13769,7 @@
       <c r="Z456" s="1"/>
       <c r="AA456" s="1"/>
     </row>
-    <row r="457" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -13751,7 +13798,7 @@
       <c r="Z457" s="1"/>
       <c r="AA457" s="1"/>
     </row>
-    <row r="458" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -13780,7 +13827,7 @@
       <c r="Z458" s="1"/>
       <c r="AA458" s="1"/>
     </row>
-    <row r="459" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -13809,7 +13856,7 @@
       <c r="Z459" s="1"/>
       <c r="AA459" s="1"/>
     </row>
-    <row r="460" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -13838,7 +13885,7 @@
       <c r="Z460" s="1"/>
       <c r="AA460" s="1"/>
     </row>
-    <row r="461" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -13867,7 +13914,7 @@
       <c r="Z461" s="1"/>
       <c r="AA461" s="1"/>
     </row>
-    <row r="462" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -13896,7 +13943,7 @@
       <c r="Z462" s="1"/>
       <c r="AA462" s="1"/>
     </row>
-    <row r="463" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -13925,7 +13972,7 @@
       <c r="Z463" s="1"/>
       <c r="AA463" s="1"/>
     </row>
-    <row r="464" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -13954,7 +14001,7 @@
       <c r="Z464" s="1"/>
       <c r="AA464" s="1"/>
     </row>
-    <row r="465" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -13983,7 +14030,7 @@
       <c r="Z465" s="1"/>
       <c r="AA465" s="1"/>
     </row>
-    <row r="466" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -14012,7 +14059,7 @@
       <c r="Z466" s="1"/>
       <c r="AA466" s="1"/>
     </row>
-    <row r="467" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -14041,7 +14088,7 @@
       <c r="Z467" s="1"/>
       <c r="AA467" s="1"/>
     </row>
-    <row r="468" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -14070,7 +14117,7 @@
       <c r="Z468" s="1"/>
       <c r="AA468" s="1"/>
     </row>
-    <row r="469" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -14099,7 +14146,7 @@
       <c r="Z469" s="1"/>
       <c r="AA469" s="1"/>
     </row>
-    <row r="470" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -14128,7 +14175,7 @@
       <c r="Z470" s="1"/>
       <c r="AA470" s="1"/>
     </row>
-    <row r="471" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -14157,7 +14204,7 @@
       <c r="Z471" s="1"/>
       <c r="AA471" s="1"/>
     </row>
-    <row r="472" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -14186,7 +14233,7 @@
       <c r="Z472" s="1"/>
       <c r="AA472" s="1"/>
     </row>
-    <row r="473" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -14215,7 +14262,7 @@
       <c r="Z473" s="1"/>
       <c r="AA473" s="1"/>
     </row>
-    <row r="474" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -14244,7 +14291,7 @@
       <c r="Z474" s="1"/>
       <c r="AA474" s="1"/>
     </row>
-    <row r="475" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -14273,7 +14320,7 @@
       <c r="Z475" s="1"/>
       <c r="AA475" s="1"/>
     </row>
-    <row r="476" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -14302,7 +14349,7 @@
       <c r="Z476" s="1"/>
       <c r="AA476" s="1"/>
     </row>
-    <row r="477" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -14331,7 +14378,7 @@
       <c r="Z477" s="1"/>
       <c r="AA477" s="1"/>
     </row>
-    <row r="478" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -14360,7 +14407,7 @@
       <c r="Z478" s="1"/>
       <c r="AA478" s="1"/>
     </row>
-    <row r="479" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -14389,7 +14436,7 @@
       <c r="Z479" s="1"/>
       <c r="AA479" s="1"/>
     </row>
-    <row r="480" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -14418,7 +14465,7 @@
       <c r="Z480" s="1"/>
       <c r="AA480" s="1"/>
     </row>
-    <row r="481" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -14447,7 +14494,7 @@
       <c r="Z481" s="1"/>
       <c r="AA481" s="1"/>
     </row>
-    <row r="482" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -14476,7 +14523,7 @@
       <c r="Z482" s="1"/>
       <c r="AA482" s="1"/>
     </row>
-    <row r="483" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -14505,7 +14552,7 @@
       <c r="Z483" s="1"/>
       <c r="AA483" s="1"/>
     </row>
-    <row r="484" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -14534,7 +14581,7 @@
       <c r="Z484" s="1"/>
       <c r="AA484" s="1"/>
     </row>
-    <row r="485" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -14563,7 +14610,7 @@
       <c r="Z485" s="1"/>
       <c r="AA485" s="1"/>
     </row>
-    <row r="486" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -14592,7 +14639,7 @@
       <c r="Z486" s="1"/>
       <c r="AA486" s="1"/>
     </row>
-    <row r="487" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -14621,7 +14668,7 @@
       <c r="Z487" s="1"/>
       <c r="AA487" s="1"/>
     </row>
-    <row r="488" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -14650,7 +14697,7 @@
       <c r="Z488" s="1"/>
       <c r="AA488" s="1"/>
     </row>
-    <row r="489" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -14679,7 +14726,7 @@
       <c r="Z489" s="1"/>
       <c r="AA489" s="1"/>
     </row>
-    <row r="490" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -14708,7 +14755,7 @@
       <c r="Z490" s="1"/>
       <c r="AA490" s="1"/>
     </row>
-    <row r="491" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -14737,7 +14784,7 @@
       <c r="Z491" s="1"/>
       <c r="AA491" s="1"/>
     </row>
-    <row r="492" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -14766,7 +14813,7 @@
       <c r="Z492" s="1"/>
       <c r="AA492" s="1"/>
     </row>
-    <row r="493" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -14795,7 +14842,7 @@
       <c r="Z493" s="1"/>
       <c r="AA493" s="1"/>
     </row>
-    <row r="494" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -14824,7 +14871,7 @@
       <c r="Z494" s="1"/>
       <c r="AA494" s="1"/>
     </row>
-    <row r="495" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -14853,7 +14900,7 @@
       <c r="Z495" s="1"/>
       <c r="AA495" s="1"/>
     </row>
-    <row r="496" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -14882,7 +14929,7 @@
       <c r="Z496" s="1"/>
       <c r="AA496" s="1"/>
     </row>
-    <row r="497" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -14911,7 +14958,7 @@
       <c r="Z497" s="1"/>
       <c r="AA497" s="1"/>
     </row>
-    <row r="498" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -14940,7 +14987,7 @@
       <c r="Z498" s="1"/>
       <c r="AA498" s="1"/>
     </row>
-    <row r="499" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -14969,7 +15016,7 @@
       <c r="Z499" s="1"/>
       <c r="AA499" s="1"/>
     </row>
-    <row r="500" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -14998,7 +15045,7 @@
       <c r="Z500" s="1"/>
       <c r="AA500" s="1"/>
     </row>
-    <row r="501" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -15027,7 +15074,7 @@
       <c r="Z501" s="1"/>
       <c r="AA501" s="1"/>
     </row>
-    <row r="502" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -15056,7 +15103,7 @@
       <c r="Z502" s="1"/>
       <c r="AA502" s="1"/>
     </row>
-    <row r="503" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -15085,7 +15132,7 @@
       <c r="Z503" s="1"/>
       <c r="AA503" s="1"/>
     </row>
-    <row r="504" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -15114,7 +15161,7 @@
       <c r="Z504" s="1"/>
       <c r="AA504" s="1"/>
     </row>
-    <row r="505" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -15143,7 +15190,7 @@
       <c r="Z505" s="1"/>
       <c r="AA505" s="1"/>
     </row>
-    <row r="506" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -15172,7 +15219,7 @@
       <c r="Z506" s="1"/>
       <c r="AA506" s="1"/>
     </row>
-    <row r="507" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -15201,7 +15248,7 @@
       <c r="Z507" s="1"/>
       <c r="AA507" s="1"/>
     </row>
-    <row r="508" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -15230,7 +15277,7 @@
       <c r="Z508" s="1"/>
       <c r="AA508" s="1"/>
     </row>
-    <row r="509" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -15259,7 +15306,7 @@
       <c r="Z509" s="1"/>
       <c r="AA509" s="1"/>
     </row>
-    <row r="510" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -15288,7 +15335,7 @@
       <c r="Z510" s="1"/>
       <c r="AA510" s="1"/>
     </row>
-    <row r="511" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -15317,7 +15364,7 @@
       <c r="Z511" s="1"/>
       <c r="AA511" s="1"/>
     </row>
-    <row r="512" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -15346,7 +15393,7 @@
       <c r="Z512" s="1"/>
       <c r="AA512" s="1"/>
     </row>
-    <row r="513" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -15375,7 +15422,7 @@
       <c r="Z513" s="1"/>
       <c r="AA513" s="1"/>
     </row>
-    <row r="514" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -15404,7 +15451,7 @@
       <c r="Z514" s="1"/>
       <c r="AA514" s="1"/>
     </row>
-    <row r="515" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -15433,7 +15480,7 @@
       <c r="Z515" s="1"/>
       <c r="AA515" s="1"/>
     </row>
-    <row r="516" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -15462,7 +15509,7 @@
       <c r="Z516" s="1"/>
       <c r="AA516" s="1"/>
     </row>
-    <row r="517" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -15491,7 +15538,7 @@
       <c r="Z517" s="1"/>
       <c r="AA517" s="1"/>
     </row>
-    <row r="518" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -15520,7 +15567,7 @@
       <c r="Z518" s="1"/>
       <c r="AA518" s="1"/>
     </row>
-    <row r="519" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -15549,7 +15596,7 @@
       <c r="Z519" s="1"/>
       <c r="AA519" s="1"/>
     </row>
-    <row r="520" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -15578,7 +15625,7 @@
       <c r="Z520" s="1"/>
       <c r="AA520" s="1"/>
     </row>
-    <row r="521" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -15607,7 +15654,7 @@
       <c r="Z521" s="1"/>
       <c r="AA521" s="1"/>
     </row>
-    <row r="522" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -15636,7 +15683,7 @@
       <c r="Z522" s="1"/>
       <c r="AA522" s="1"/>
     </row>
-    <row r="523" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -15665,7 +15712,7 @@
       <c r="Z523" s="1"/>
       <c r="AA523" s="1"/>
     </row>
-    <row r="524" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -15694,7 +15741,7 @@
       <c r="Z524" s="1"/>
       <c r="AA524" s="1"/>
     </row>
-    <row r="525" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -15723,7 +15770,7 @@
       <c r="Z525" s="1"/>
       <c r="AA525" s="1"/>
     </row>
-    <row r="526" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -15752,7 +15799,7 @@
       <c r="Z526" s="1"/>
       <c r="AA526" s="1"/>
     </row>
-    <row r="527" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -15781,7 +15828,7 @@
       <c r="Z527" s="1"/>
       <c r="AA527" s="1"/>
     </row>
-    <row r="528" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -15810,7 +15857,7 @@
       <c r="Z528" s="1"/>
       <c r="AA528" s="1"/>
     </row>
-    <row r="529" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -15839,7 +15886,7 @@
       <c r="Z529" s="1"/>
       <c r="AA529" s="1"/>
     </row>
-    <row r="530" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -15868,7 +15915,7 @@
       <c r="Z530" s="1"/>
       <c r="AA530" s="1"/>
     </row>
-    <row r="531" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -15897,7 +15944,7 @@
       <c r="Z531" s="1"/>
       <c r="AA531" s="1"/>
     </row>
-    <row r="532" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -15926,7 +15973,7 @@
       <c r="Z532" s="1"/>
       <c r="AA532" s="1"/>
     </row>
-    <row r="533" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -15955,7 +16002,7 @@
       <c r="Z533" s="1"/>
       <c r="AA533" s="1"/>
     </row>
-    <row r="534" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -15984,7 +16031,7 @@
       <c r="Z534" s="1"/>
       <c r="AA534" s="1"/>
     </row>
-    <row r="535" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -16013,7 +16060,7 @@
       <c r="Z535" s="1"/>
       <c r="AA535" s="1"/>
     </row>
-    <row r="536" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -16042,7 +16089,7 @@
       <c r="Z536" s="1"/>
       <c r="AA536" s="1"/>
     </row>
-    <row r="537" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -16071,7 +16118,7 @@
       <c r="Z537" s="1"/>
       <c r="AA537" s="1"/>
     </row>
-    <row r="538" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -16100,7 +16147,7 @@
       <c r="Z538" s="1"/>
       <c r="AA538" s="1"/>
     </row>
-    <row r="539" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -16129,7 +16176,7 @@
       <c r="Z539" s="1"/>
       <c r="AA539" s="1"/>
     </row>
-    <row r="540" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -16158,7 +16205,7 @@
       <c r="Z540" s="1"/>
       <c r="AA540" s="1"/>
     </row>
-    <row r="541" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -16187,7 +16234,7 @@
       <c r="Z541" s="1"/>
       <c r="AA541" s="1"/>
     </row>
-    <row r="542" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -16216,7 +16263,7 @@
       <c r="Z542" s="1"/>
       <c r="AA542" s="1"/>
     </row>
-    <row r="543" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -16245,7 +16292,7 @@
       <c r="Z543" s="1"/>
       <c r="AA543" s="1"/>
     </row>
-    <row r="544" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -16274,7 +16321,7 @@
       <c r="Z544" s="1"/>
       <c r="AA544" s="1"/>
     </row>
-    <row r="545" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -16303,7 +16350,7 @@
       <c r="Z545" s="1"/>
       <c r="AA545" s="1"/>
     </row>
-    <row r="546" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -16332,7 +16379,7 @@
       <c r="Z546" s="1"/>
       <c r="AA546" s="1"/>
     </row>
-    <row r="547" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -16361,7 +16408,7 @@
       <c r="Z547" s="1"/>
       <c r="AA547" s="1"/>
     </row>
-    <row r="548" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -16390,7 +16437,7 @@
       <c r="Z548" s="1"/>
       <c r="AA548" s="1"/>
     </row>
-    <row r="549" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -16419,7 +16466,7 @@
       <c r="Z549" s="1"/>
       <c r="AA549" s="1"/>
     </row>
-    <row r="550" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -16448,7 +16495,7 @@
       <c r="Z550" s="1"/>
       <c r="AA550" s="1"/>
     </row>
-    <row r="551" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -16477,7 +16524,7 @@
       <c r="Z551" s="1"/>
       <c r="AA551" s="1"/>
     </row>
-    <row r="552" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -16506,7 +16553,7 @@
       <c r="Z552" s="1"/>
       <c r="AA552" s="1"/>
     </row>
-    <row r="553" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -16535,7 +16582,7 @@
       <c r="Z553" s="1"/>
       <c r="AA553" s="1"/>
     </row>
-    <row r="554" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -16564,7 +16611,7 @@
       <c r="Z554" s="1"/>
       <c r="AA554" s="1"/>
     </row>
-    <row r="555" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -16593,7 +16640,7 @@
       <c r="Z555" s="1"/>
       <c r="AA555" s="1"/>
     </row>
-    <row r="556" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -16622,7 +16669,7 @@
       <c r="Z556" s="1"/>
       <c r="AA556" s="1"/>
     </row>
-    <row r="557" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -16651,7 +16698,7 @@
       <c r="Z557" s="1"/>
       <c r="AA557" s="1"/>
     </row>
-    <row r="558" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -16680,7 +16727,7 @@
       <c r="Z558" s="1"/>
       <c r="AA558" s="1"/>
     </row>
-    <row r="559" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -16709,7 +16756,7 @@
       <c r="Z559" s="1"/>
       <c r="AA559" s="1"/>
     </row>
-    <row r="560" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -16738,7 +16785,7 @@
       <c r="Z560" s="1"/>
       <c r="AA560" s="1"/>
     </row>
-    <row r="561" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -16767,7 +16814,7 @@
       <c r="Z561" s="1"/>
       <c r="AA561" s="1"/>
     </row>
-    <row r="562" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -16796,7 +16843,7 @@
       <c r="Z562" s="1"/>
       <c r="AA562" s="1"/>
     </row>
-    <row r="563" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -16825,7 +16872,7 @@
       <c r="Z563" s="1"/>
       <c r="AA563" s="1"/>
     </row>
-    <row r="564" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -16854,7 +16901,7 @@
       <c r="Z564" s="1"/>
       <c r="AA564" s="1"/>
     </row>
-    <row r="565" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -16883,7 +16930,7 @@
       <c r="Z565" s="1"/>
       <c r="AA565" s="1"/>
     </row>
-    <row r="566" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -16912,7 +16959,7 @@
       <c r="Z566" s="1"/>
       <c r="AA566" s="1"/>
     </row>
-    <row r="567" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -16941,7 +16988,7 @@
       <c r="Z567" s="1"/>
       <c r="AA567" s="1"/>
     </row>
-    <row r="568" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -16970,7 +17017,7 @@
       <c r="Z568" s="1"/>
       <c r="AA568" s="1"/>
     </row>
-    <row r="569" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -16999,7 +17046,7 @@
       <c r="Z569" s="1"/>
       <c r="AA569" s="1"/>
     </row>
-    <row r="570" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -17028,7 +17075,7 @@
       <c r="Z570" s="1"/>
       <c r="AA570" s="1"/>
     </row>
-    <row r="571" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -17057,7 +17104,7 @@
       <c r="Z571" s="1"/>
       <c r="AA571" s="1"/>
     </row>
-    <row r="572" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -17086,7 +17133,7 @@
       <c r="Z572" s="1"/>
       <c r="AA572" s="1"/>
     </row>
-    <row r="573" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -17115,7 +17162,7 @@
       <c r="Z573" s="1"/>
       <c r="AA573" s="1"/>
     </row>
-    <row r="574" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -17144,7 +17191,7 @@
       <c r="Z574" s="1"/>
       <c r="AA574" s="1"/>
     </row>
-    <row r="575" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -17173,7 +17220,7 @@
       <c r="Z575" s="1"/>
       <c r="AA575" s="1"/>
     </row>
-    <row r="576" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -17202,7 +17249,7 @@
       <c r="Z576" s="1"/>
       <c r="AA576" s="1"/>
     </row>
-    <row r="577" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -17231,7 +17278,7 @@
       <c r="Z577" s="1"/>
       <c r="AA577" s="1"/>
     </row>
-    <row r="578" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -17260,7 +17307,7 @@
       <c r="Z578" s="1"/>
       <c r="AA578" s="1"/>
     </row>
-    <row r="579" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -17289,7 +17336,7 @@
       <c r="Z579" s="1"/>
       <c r="AA579" s="1"/>
     </row>
-    <row r="580" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -17318,7 +17365,7 @@
       <c r="Z580" s="1"/>
       <c r="AA580" s="1"/>
     </row>
-    <row r="581" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -17347,7 +17394,7 @@
       <c r="Z581" s="1"/>
       <c r="AA581" s="1"/>
     </row>
-    <row r="582" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -17376,7 +17423,7 @@
       <c r="Z582" s="1"/>
       <c r="AA582" s="1"/>
     </row>
-    <row r="583" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -17405,7 +17452,7 @@
       <c r="Z583" s="1"/>
       <c r="AA583" s="1"/>
     </row>
-    <row r="584" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -17434,7 +17481,7 @@
       <c r="Z584" s="1"/>
       <c r="AA584" s="1"/>
     </row>
-    <row r="585" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -17463,7 +17510,7 @@
       <c r="Z585" s="1"/>
       <c r="AA585" s="1"/>
     </row>
-    <row r="586" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -17492,7 +17539,7 @@
       <c r="Z586" s="1"/>
       <c r="AA586" s="1"/>
     </row>
-    <row r="587" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -17521,7 +17568,7 @@
       <c r="Z587" s="1"/>
       <c r="AA587" s="1"/>
     </row>
-    <row r="588" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -17550,7 +17597,7 @@
       <c r="Z588" s="1"/>
       <c r="AA588" s="1"/>
     </row>
-    <row r="589" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -17579,7 +17626,7 @@
       <c r="Z589" s="1"/>
       <c r="AA589" s="1"/>
     </row>
-    <row r="590" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -17608,7 +17655,7 @@
       <c r="Z590" s="1"/>
       <c r="AA590" s="1"/>
     </row>
-    <row r="591" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -17637,7 +17684,7 @@
       <c r="Z591" s="1"/>
       <c r="AA591" s="1"/>
     </row>
-    <row r="592" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -17666,7 +17713,7 @@
       <c r="Z592" s="1"/>
       <c r="AA592" s="1"/>
     </row>
-    <row r="593" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -17695,7 +17742,7 @@
       <c r="Z593" s="1"/>
       <c r="AA593" s="1"/>
     </row>
-    <row r="594" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -17724,7 +17771,7 @@
       <c r="Z594" s="1"/>
       <c r="AA594" s="1"/>
     </row>
-    <row r="595" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -17753,7 +17800,7 @@
       <c r="Z595" s="1"/>
       <c r="AA595" s="1"/>
     </row>
-    <row r="596" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -17782,7 +17829,7 @@
       <c r="Z596" s="1"/>
       <c r="AA596" s="1"/>
     </row>
-    <row r="597" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -17811,7 +17858,7 @@
       <c r="Z597" s="1"/>
       <c r="AA597" s="1"/>
     </row>
-    <row r="598" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -17840,7 +17887,7 @@
       <c r="Z598" s="1"/>
       <c r="AA598" s="1"/>
     </row>
-    <row r="599" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -17869,7 +17916,7 @@
       <c r="Z599" s="1"/>
       <c r="AA599" s="1"/>
     </row>
-    <row r="600" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -17898,7 +17945,7 @@
       <c r="Z600" s="1"/>
       <c r="AA600" s="1"/>
     </row>
-    <row r="601" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -17927,7 +17974,7 @@
       <c r="Z601" s="1"/>
       <c r="AA601" s="1"/>
     </row>
-    <row r="602" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -17956,7 +18003,7 @@
       <c r="Z602" s="1"/>
       <c r="AA602" s="1"/>
     </row>
-    <row r="603" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -17985,7 +18032,7 @@
       <c r="Z603" s="1"/>
       <c r="AA603" s="1"/>
     </row>
-    <row r="604" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -18014,7 +18061,7 @@
       <c r="Z604" s="1"/>
       <c r="AA604" s="1"/>
     </row>
-    <row r="605" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -18043,7 +18090,7 @@
       <c r="Z605" s="1"/>
       <c r="AA605" s="1"/>
     </row>
-    <row r="606" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -18072,7 +18119,7 @@
       <c r="Z606" s="1"/>
       <c r="AA606" s="1"/>
     </row>
-    <row r="607" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -18101,7 +18148,7 @@
       <c r="Z607" s="1"/>
       <c r="AA607" s="1"/>
     </row>
-    <row r="608" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -18130,7 +18177,7 @@
       <c r="Z608" s="1"/>
       <c r="AA608" s="1"/>
     </row>
-    <row r="609" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -18159,7 +18206,7 @@
       <c r="Z609" s="1"/>
       <c r="AA609" s="1"/>
     </row>
-    <row r="610" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -18188,7 +18235,7 @@
       <c r="Z610" s="1"/>
       <c r="AA610" s="1"/>
     </row>
-    <row r="611" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -18217,7 +18264,7 @@
       <c r="Z611" s="1"/>
       <c r="AA611" s="1"/>
     </row>
-    <row r="612" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -18246,7 +18293,7 @@
       <c r="Z612" s="1"/>
       <c r="AA612" s="1"/>
     </row>
-    <row r="613" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -18275,7 +18322,7 @@
       <c r="Z613" s="1"/>
       <c r="AA613" s="1"/>
     </row>
-    <row r="614" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -18304,7 +18351,7 @@
       <c r="Z614" s="1"/>
       <c r="AA614" s="1"/>
     </row>
-    <row r="615" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -18333,7 +18380,7 @@
       <c r="Z615" s="1"/>
       <c r="AA615" s="1"/>
     </row>
-    <row r="616" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -18362,7 +18409,7 @@
       <c r="Z616" s="1"/>
       <c r="AA616" s="1"/>
     </row>
-    <row r="617" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -18391,7 +18438,7 @@
       <c r="Z617" s="1"/>
       <c r="AA617" s="1"/>
     </row>
-    <row r="618" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -18420,7 +18467,7 @@
       <c r="Z618" s="1"/>
       <c r="AA618" s="1"/>
     </row>
-    <row r="619" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -18449,7 +18496,7 @@
       <c r="Z619" s="1"/>
       <c r="AA619" s="1"/>
     </row>
-    <row r="620" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -18478,7 +18525,7 @@
       <c r="Z620" s="1"/>
       <c r="AA620" s="1"/>
     </row>
-    <row r="621" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -18507,7 +18554,7 @@
       <c r="Z621" s="1"/>
       <c r="AA621" s="1"/>
     </row>
-    <row r="622" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -18536,7 +18583,7 @@
       <c r="Z622" s="1"/>
       <c r="AA622" s="1"/>
     </row>
-    <row r="623" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -18565,7 +18612,7 @@
       <c r="Z623" s="1"/>
       <c r="AA623" s="1"/>
     </row>
-    <row r="624" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -18594,7 +18641,7 @@
       <c r="Z624" s="1"/>
       <c r="AA624" s="1"/>
     </row>
-    <row r="625" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -18623,7 +18670,7 @@
       <c r="Z625" s="1"/>
       <c r="AA625" s="1"/>
     </row>
-    <row r="626" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -18652,7 +18699,7 @@
       <c r="Z626" s="1"/>
       <c r="AA626" s="1"/>
     </row>
-    <row r="627" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -18681,7 +18728,7 @@
       <c r="Z627" s="1"/>
       <c r="AA627" s="1"/>
     </row>
-    <row r="628" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -18710,7 +18757,7 @@
       <c r="Z628" s="1"/>
       <c r="AA628" s="1"/>
     </row>
-    <row r="629" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -18739,7 +18786,7 @@
       <c r="Z629" s="1"/>
       <c r="AA629" s="1"/>
     </row>
-    <row r="630" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -18768,7 +18815,7 @@
       <c r="Z630" s="1"/>
       <c r="AA630" s="1"/>
     </row>
-    <row r="631" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -18797,7 +18844,7 @@
       <c r="Z631" s="1"/>
       <c r="AA631" s="1"/>
     </row>
-    <row r="632" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -18826,7 +18873,7 @@
       <c r="Z632" s="1"/>
       <c r="AA632" s="1"/>
     </row>
-    <row r="633" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -18855,7 +18902,7 @@
       <c r="Z633" s="1"/>
       <c r="AA633" s="1"/>
     </row>
-    <row r="634" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -18884,7 +18931,7 @@
       <c r="Z634" s="1"/>
       <c r="AA634" s="1"/>
     </row>
-    <row r="635" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -18913,7 +18960,7 @@
       <c r="Z635" s="1"/>
       <c r="AA635" s="1"/>
     </row>
-    <row r="636" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -18942,7 +18989,7 @@
       <c r="Z636" s="1"/>
       <c r="AA636" s="1"/>
     </row>
-    <row r="637" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -18971,7 +19018,7 @@
       <c r="Z637" s="1"/>
       <c r="AA637" s="1"/>
     </row>
-    <row r="638" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -19000,7 +19047,7 @@
       <c r="Z638" s="1"/>
       <c r="AA638" s="1"/>
     </row>
-    <row r="639" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -19029,7 +19076,7 @@
       <c r="Z639" s="1"/>
       <c r="AA639" s="1"/>
     </row>
-    <row r="640" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -19058,7 +19105,7 @@
       <c r="Z640" s="1"/>
       <c r="AA640" s="1"/>
     </row>
-    <row r="641" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -19087,7 +19134,7 @@
       <c r="Z641" s="1"/>
       <c r="AA641" s="1"/>
     </row>
-    <row r="642" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -19116,7 +19163,7 @@
       <c r="Z642" s="1"/>
       <c r="AA642" s="1"/>
     </row>
-    <row r="643" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -19145,7 +19192,7 @@
       <c r="Z643" s="1"/>
       <c r="AA643" s="1"/>
     </row>
-    <row r="644" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -19174,7 +19221,7 @@
       <c r="Z644" s="1"/>
       <c r="AA644" s="1"/>
     </row>
-    <row r="645" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -19203,7 +19250,7 @@
       <c r="Z645" s="1"/>
       <c r="AA645" s="1"/>
     </row>
-    <row r="646" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -19232,7 +19279,7 @@
       <c r="Z646" s="1"/>
       <c r="AA646" s="1"/>
     </row>
-    <row r="647" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -19261,7 +19308,7 @@
       <c r="Z647" s="1"/>
       <c r="AA647" s="1"/>
     </row>
-    <row r="648" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -19290,7 +19337,7 @@
       <c r="Z648" s="1"/>
       <c r="AA648" s="1"/>
     </row>
-    <row r="649" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -19319,7 +19366,7 @@
       <c r="Z649" s="1"/>
       <c r="AA649" s="1"/>
     </row>
-    <row r="650" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -19348,7 +19395,7 @@
       <c r="Z650" s="1"/>
       <c r="AA650" s="1"/>
     </row>
-    <row r="651" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -19377,7 +19424,7 @@
       <c r="Z651" s="1"/>
       <c r="AA651" s="1"/>
     </row>
-    <row r="652" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -19406,7 +19453,7 @@
       <c r="Z652" s="1"/>
       <c r="AA652" s="1"/>
     </row>
-    <row r="653" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -19435,7 +19482,7 @@
       <c r="Z653" s="1"/>
       <c r="AA653" s="1"/>
     </row>
-    <row r="654" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -19464,7 +19511,7 @@
       <c r="Z654" s="1"/>
       <c r="AA654" s="1"/>
     </row>
-    <row r="655" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -19493,7 +19540,7 @@
       <c r="Z655" s="1"/>
       <c r="AA655" s="1"/>
     </row>
-    <row r="656" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -19522,7 +19569,7 @@
       <c r="Z656" s="1"/>
       <c r="AA656" s="1"/>
     </row>
-    <row r="657" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -19551,7 +19598,7 @@
       <c r="Z657" s="1"/>
       <c r="AA657" s="1"/>
     </row>
-    <row r="658" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -19580,7 +19627,7 @@
       <c r="Z658" s="1"/>
       <c r="AA658" s="1"/>
     </row>
-    <row r="659" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -19609,7 +19656,7 @@
       <c r="Z659" s="1"/>
       <c r="AA659" s="1"/>
     </row>
-    <row r="660" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -19638,7 +19685,7 @@
       <c r="Z660" s="1"/>
       <c r="AA660" s="1"/>
     </row>
-    <row r="661" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -19667,7 +19714,7 @@
       <c r="Z661" s="1"/>
       <c r="AA661" s="1"/>
     </row>
-    <row r="662" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -19696,7 +19743,7 @@
       <c r="Z662" s="1"/>
       <c r="AA662" s="1"/>
     </row>
-    <row r="663" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -19725,7 +19772,7 @@
       <c r="Z663" s="1"/>
       <c r="AA663" s="1"/>
     </row>
-    <row r="664" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -19754,7 +19801,7 @@
       <c r="Z664" s="1"/>
       <c r="AA664" s="1"/>
     </row>
-    <row r="665" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -19783,7 +19830,7 @@
       <c r="Z665" s="1"/>
       <c r="AA665" s="1"/>
     </row>
-    <row r="666" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -19812,7 +19859,7 @@
       <c r="Z666" s="1"/>
       <c r="AA666" s="1"/>
     </row>
-    <row r="667" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -19841,7 +19888,7 @@
       <c r="Z667" s="1"/>
       <c r="AA667" s="1"/>
     </row>
-    <row r="668" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -19870,7 +19917,7 @@
       <c r="Z668" s="1"/>
       <c r="AA668" s="1"/>
     </row>
-    <row r="669" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -19899,7 +19946,7 @@
       <c r="Z669" s="1"/>
       <c r="AA669" s="1"/>
     </row>
-    <row r="670" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -19928,7 +19975,7 @@
       <c r="Z670" s="1"/>
       <c r="AA670" s="1"/>
     </row>
-    <row r="671" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -19957,7 +20004,7 @@
       <c r="Z671" s="1"/>
       <c r="AA671" s="1"/>
     </row>
-    <row r="672" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -19986,7 +20033,7 @@
       <c r="Z672" s="1"/>
       <c r="AA672" s="1"/>
     </row>
-    <row r="673" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -20015,7 +20062,7 @@
       <c r="Z673" s="1"/>
       <c r="AA673" s="1"/>
     </row>
-    <row r="674" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -20044,7 +20091,7 @@
       <c r="Z674" s="1"/>
       <c r="AA674" s="1"/>
     </row>
-    <row r="675" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -20073,7 +20120,7 @@
       <c r="Z675" s="1"/>
       <c r="AA675" s="1"/>
     </row>
-    <row r="676" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -20102,7 +20149,7 @@
       <c r="Z676" s="1"/>
       <c r="AA676" s="1"/>
     </row>
-    <row r="677" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -20131,7 +20178,7 @@
       <c r="Z677" s="1"/>
       <c r="AA677" s="1"/>
     </row>
-    <row r="678" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -20160,7 +20207,7 @@
       <c r="Z678" s="1"/>
       <c r="AA678" s="1"/>
     </row>
-    <row r="679" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -20189,7 +20236,7 @@
       <c r="Z679" s="1"/>
       <c r="AA679" s="1"/>
     </row>
-    <row r="680" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -20218,7 +20265,7 @@
       <c r="Z680" s="1"/>
       <c r="AA680" s="1"/>
     </row>
-    <row r="681" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -20247,7 +20294,7 @@
       <c r="Z681" s="1"/>
       <c r="AA681" s="1"/>
     </row>
-    <row r="682" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -20276,7 +20323,7 @@
       <c r="Z682" s="1"/>
       <c r="AA682" s="1"/>
     </row>
-    <row r="683" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -20305,7 +20352,7 @@
       <c r="Z683" s="1"/>
       <c r="AA683" s="1"/>
     </row>
-    <row r="684" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -20334,7 +20381,7 @@
       <c r="Z684" s="1"/>
       <c r="AA684" s="1"/>
     </row>
-    <row r="685" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -20363,7 +20410,7 @@
       <c r="Z685" s="1"/>
       <c r="AA685" s="1"/>
     </row>
-    <row r="686" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -20392,7 +20439,7 @@
       <c r="Z686" s="1"/>
       <c r="AA686" s="1"/>
     </row>
-    <row r="687" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -20421,7 +20468,7 @@
       <c r="Z687" s="1"/>
       <c r="AA687" s="1"/>
     </row>
-    <row r="688" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -20450,7 +20497,7 @@
       <c r="Z688" s="1"/>
       <c r="AA688" s="1"/>
     </row>
-    <row r="689" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -20479,7 +20526,7 @@
       <c r="Z689" s="1"/>
       <c r="AA689" s="1"/>
     </row>
-    <row r="690" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -20508,7 +20555,7 @@
       <c r="Z690" s="1"/>
       <c r="AA690" s="1"/>
     </row>
-    <row r="691" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -20537,7 +20584,7 @@
       <c r="Z691" s="1"/>
       <c r="AA691" s="1"/>
     </row>
-    <row r="692" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -20566,7 +20613,7 @@
       <c r="Z692" s="1"/>
       <c r="AA692" s="1"/>
     </row>
-    <row r="693" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -20595,7 +20642,7 @@
       <c r="Z693" s="1"/>
       <c r="AA693" s="1"/>
     </row>
-    <row r="694" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -20624,7 +20671,7 @@
       <c r="Z694" s="1"/>
       <c r="AA694" s="1"/>
     </row>
-    <row r="695" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -20653,7 +20700,7 @@
       <c r="Z695" s="1"/>
       <c r="AA695" s="1"/>
     </row>
-    <row r="696" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -20682,7 +20729,7 @@
       <c r="Z696" s="1"/>
       <c r="AA696" s="1"/>
     </row>
-    <row r="697" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -20711,7 +20758,7 @@
       <c r="Z697" s="1"/>
       <c r="AA697" s="1"/>
     </row>
-    <row r="698" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -20740,7 +20787,7 @@
       <c r="Z698" s="1"/>
       <c r="AA698" s="1"/>
     </row>
-    <row r="699" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -20769,7 +20816,7 @@
       <c r="Z699" s="1"/>
       <c r="AA699" s="1"/>
     </row>
-    <row r="700" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -20798,7 +20845,7 @@
       <c r="Z700" s="1"/>
       <c r="AA700" s="1"/>
     </row>
-    <row r="701" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -20827,7 +20874,7 @@
       <c r="Z701" s="1"/>
       <c r="AA701" s="1"/>
     </row>
-    <row r="702" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -20856,7 +20903,7 @@
       <c r="Z702" s="1"/>
       <c r="AA702" s="1"/>
     </row>
-    <row r="703" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -20885,7 +20932,7 @@
       <c r="Z703" s="1"/>
       <c r="AA703" s="1"/>
     </row>
-    <row r="704" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -20914,7 +20961,7 @@
       <c r="Z704" s="1"/>
       <c r="AA704" s="1"/>
     </row>
-    <row r="705" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -20943,7 +20990,7 @@
       <c r="Z705" s="1"/>
       <c r="AA705" s="1"/>
     </row>
-    <row r="706" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -20972,7 +21019,7 @@
       <c r="Z706" s="1"/>
       <c r="AA706" s="1"/>
     </row>
-    <row r="707" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -21001,7 +21048,7 @@
       <c r="Z707" s="1"/>
       <c r="AA707" s="1"/>
     </row>
-    <row r="708" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -21030,7 +21077,7 @@
       <c r="Z708" s="1"/>
       <c r="AA708" s="1"/>
     </row>
-    <row r="709" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -21059,7 +21106,7 @@
       <c r="Z709" s="1"/>
       <c r="AA709" s="1"/>
     </row>
-    <row r="710" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -21088,7 +21135,7 @@
       <c r="Z710" s="1"/>
       <c r="AA710" s="1"/>
     </row>
-    <row r="711" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -21117,7 +21164,7 @@
       <c r="Z711" s="1"/>
       <c r="AA711" s="1"/>
     </row>
-    <row r="712" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -21146,7 +21193,7 @@
       <c r="Z712" s="1"/>
       <c r="AA712" s="1"/>
     </row>
-    <row r="713" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -21175,7 +21222,7 @@
       <c r="Z713" s="1"/>
       <c r="AA713" s="1"/>
     </row>
-    <row r="714" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -21204,7 +21251,7 @@
       <c r="Z714" s="1"/>
       <c r="AA714" s="1"/>
     </row>
-    <row r="715" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -21233,7 +21280,7 @@
       <c r="Z715" s="1"/>
       <c r="AA715" s="1"/>
     </row>
-    <row r="716" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -21262,7 +21309,7 @@
       <c r="Z716" s="1"/>
       <c r="AA716" s="1"/>
     </row>
-    <row r="717" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -21291,7 +21338,7 @@
       <c r="Z717" s="1"/>
       <c r="AA717" s="1"/>
     </row>
-    <row r="718" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -21320,7 +21367,7 @@
       <c r="Z718" s="1"/>
       <c r="AA718" s="1"/>
     </row>
-    <row r="719" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -21349,7 +21396,7 @@
       <c r="Z719" s="1"/>
       <c r="AA719" s="1"/>
     </row>
-    <row r="720" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -21378,7 +21425,7 @@
       <c r="Z720" s="1"/>
       <c r="AA720" s="1"/>
     </row>
-    <row r="721" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -21407,7 +21454,7 @@
       <c r="Z721" s="1"/>
       <c r="AA721" s="1"/>
     </row>
-    <row r="722" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -21436,7 +21483,7 @@
       <c r="Z722" s="1"/>
       <c r="AA722" s="1"/>
     </row>
-    <row r="723" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -21465,7 +21512,7 @@
       <c r="Z723" s="1"/>
       <c r="AA723" s="1"/>
     </row>
-    <row r="724" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -21494,7 +21541,7 @@
       <c r="Z724" s="1"/>
       <c r="AA724" s="1"/>
     </row>
-    <row r="725" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -21523,7 +21570,7 @@
       <c r="Z725" s="1"/>
       <c r="AA725" s="1"/>
     </row>
-    <row r="726" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -21552,7 +21599,7 @@
       <c r="Z726" s="1"/>
       <c r="AA726" s="1"/>
     </row>
-    <row r="727" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -21581,7 +21628,7 @@
       <c r="Z727" s="1"/>
       <c r="AA727" s="1"/>
     </row>
-    <row r="728" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -21610,7 +21657,7 @@
       <c r="Z728" s="1"/>
       <c r="AA728" s="1"/>
     </row>
-    <row r="729" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -21639,7 +21686,7 @@
       <c r="Z729" s="1"/>
       <c r="AA729" s="1"/>
     </row>
-    <row r="730" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -21668,7 +21715,7 @@
       <c r="Z730" s="1"/>
       <c r="AA730" s="1"/>
     </row>
-    <row r="731" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -21697,7 +21744,7 @@
       <c r="Z731" s="1"/>
       <c r="AA731" s="1"/>
     </row>
-    <row r="732" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -21726,7 +21773,7 @@
       <c r="Z732" s="1"/>
       <c r="AA732" s="1"/>
     </row>
-    <row r="733" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -21755,7 +21802,7 @@
       <c r="Z733" s="1"/>
       <c r="AA733" s="1"/>
     </row>
-    <row r="734" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -21784,7 +21831,7 @@
       <c r="Z734" s="1"/>
       <c r="AA734" s="1"/>
     </row>
-    <row r="735" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -21813,7 +21860,7 @@
       <c r="Z735" s="1"/>
       <c r="AA735" s="1"/>
     </row>
-    <row r="736" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -21842,7 +21889,7 @@
       <c r="Z736" s="1"/>
       <c r="AA736" s="1"/>
     </row>
-    <row r="737" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -21871,7 +21918,7 @@
       <c r="Z737" s="1"/>
       <c r="AA737" s="1"/>
     </row>
-    <row r="738" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -21900,7 +21947,7 @@
       <c r="Z738" s="1"/>
       <c r="AA738" s="1"/>
     </row>
-    <row r="739" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -21929,7 +21976,7 @@
       <c r="Z739" s="1"/>
       <c r="AA739" s="1"/>
     </row>
-    <row r="740" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -21958,7 +22005,7 @@
       <c r="Z740" s="1"/>
       <c r="AA740" s="1"/>
     </row>
-    <row r="741" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -21987,7 +22034,7 @@
       <c r="Z741" s="1"/>
       <c r="AA741" s="1"/>
     </row>
-    <row r="742" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -22016,7 +22063,7 @@
       <c r="Z742" s="1"/>
       <c r="AA742" s="1"/>
     </row>
-    <row r="743" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -22045,7 +22092,7 @@
       <c r="Z743" s="1"/>
       <c r="AA743" s="1"/>
     </row>
-    <row r="744" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -22074,7 +22121,7 @@
       <c r="Z744" s="1"/>
       <c r="AA744" s="1"/>
     </row>
-    <row r="745" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -22103,7 +22150,7 @@
       <c r="Z745" s="1"/>
       <c r="AA745" s="1"/>
     </row>
-    <row r="746" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -22132,7 +22179,7 @@
       <c r="Z746" s="1"/>
       <c r="AA746" s="1"/>
     </row>
-    <row r="747" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -22161,7 +22208,7 @@
       <c r="Z747" s="1"/>
       <c r="AA747" s="1"/>
     </row>
-    <row r="748" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -22190,7 +22237,7 @@
       <c r="Z748" s="1"/>
       <c r="AA748" s="1"/>
     </row>
-    <row r="749" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -22219,7 +22266,7 @@
       <c r="Z749" s="1"/>
       <c r="AA749" s="1"/>
     </row>
-    <row r="750" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -22248,7 +22295,7 @@
       <c r="Z750" s="1"/>
       <c r="AA750" s="1"/>
     </row>
-    <row r="751" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -22277,7 +22324,7 @@
       <c r="Z751" s="1"/>
       <c r="AA751" s="1"/>
     </row>
-    <row r="752" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -22306,7 +22353,7 @@
       <c r="Z752" s="1"/>
       <c r="AA752" s="1"/>
     </row>
-    <row r="753" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -22335,7 +22382,7 @@
       <c r="Z753" s="1"/>
       <c r="AA753" s="1"/>
     </row>
-    <row r="754" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -22364,7 +22411,7 @@
       <c r="Z754" s="1"/>
       <c r="AA754" s="1"/>
     </row>
-    <row r="755" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -22393,7 +22440,7 @@
       <c r="Z755" s="1"/>
       <c r="AA755" s="1"/>
     </row>
-    <row r="756" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -22422,7 +22469,7 @@
       <c r="Z756" s="1"/>
       <c r="AA756" s="1"/>
     </row>
-    <row r="757" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -22451,7 +22498,7 @@
       <c r="Z757" s="1"/>
       <c r="AA757" s="1"/>
     </row>
-    <row r="758" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -22480,7 +22527,7 @@
       <c r="Z758" s="1"/>
       <c r="AA758" s="1"/>
     </row>
-    <row r="759" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -22509,7 +22556,7 @@
       <c r="Z759" s="1"/>
       <c r="AA759" s="1"/>
     </row>
-    <row r="760" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -22538,7 +22585,7 @@
       <c r="Z760" s="1"/>
       <c r="AA760" s="1"/>
     </row>
-    <row r="761" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -22567,7 +22614,7 @@
       <c r="Z761" s="1"/>
       <c r="AA761" s="1"/>
     </row>
-    <row r="762" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -22596,7 +22643,7 @@
       <c r="Z762" s="1"/>
       <c r="AA762" s="1"/>
     </row>
-    <row r="763" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -22625,7 +22672,7 @@
       <c r="Z763" s="1"/>
       <c r="AA763" s="1"/>
     </row>
-    <row r="764" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -22654,7 +22701,7 @@
       <c r="Z764" s="1"/>
       <c r="AA764" s="1"/>
     </row>
-    <row r="765" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -22683,7 +22730,7 @@
       <c r="Z765" s="1"/>
       <c r="AA765" s="1"/>
     </row>
-    <row r="766" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -22712,7 +22759,7 @@
       <c r="Z766" s="1"/>
       <c r="AA766" s="1"/>
     </row>
-    <row r="767" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -22741,7 +22788,7 @@
       <c r="Z767" s="1"/>
       <c r="AA767" s="1"/>
     </row>
-    <row r="768" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -22770,7 +22817,7 @@
       <c r="Z768" s="1"/>
       <c r="AA768" s="1"/>
     </row>
-    <row r="769" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -22799,7 +22846,7 @@
       <c r="Z769" s="1"/>
       <c r="AA769" s="1"/>
     </row>
-    <row r="770" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -22828,7 +22875,7 @@
       <c r="Z770" s="1"/>
       <c r="AA770" s="1"/>
     </row>
-    <row r="771" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -22857,7 +22904,7 @@
       <c r="Z771" s="1"/>
       <c r="AA771" s="1"/>
     </row>
-    <row r="772" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -22886,7 +22933,7 @@
       <c r="Z772" s="1"/>
       <c r="AA772" s="1"/>
     </row>
-    <row r="773" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -22915,7 +22962,7 @@
       <c r="Z773" s="1"/>
       <c r="AA773" s="1"/>
     </row>
-    <row r="774" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -22944,7 +22991,7 @@
       <c r="Z774" s="1"/>
       <c r="AA774" s="1"/>
     </row>
-    <row r="775" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -22973,7 +23020,7 @@
       <c r="Z775" s="1"/>
       <c r="AA775" s="1"/>
     </row>
-    <row r="776" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -23002,7 +23049,7 @@
       <c r="Z776" s="1"/>
       <c r="AA776" s="1"/>
     </row>
-    <row r="777" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -23031,7 +23078,7 @@
       <c r="Z777" s="1"/>
       <c r="AA777" s="1"/>
     </row>
-    <row r="778" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -23060,7 +23107,7 @@
       <c r="Z778" s="1"/>
       <c r="AA778" s="1"/>
     </row>
-    <row r="779" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -23089,7 +23136,7 @@
       <c r="Z779" s="1"/>
       <c r="AA779" s="1"/>
     </row>
-    <row r="780" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -23118,7 +23165,7 @@
       <c r="Z780" s="1"/>
       <c r="AA780" s="1"/>
     </row>
-    <row r="781" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -23147,7 +23194,7 @@
       <c r="Z781" s="1"/>
       <c r="AA781" s="1"/>
     </row>
-    <row r="782" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -23176,7 +23223,7 @@
       <c r="Z782" s="1"/>
       <c r="AA782" s="1"/>
     </row>
-    <row r="783" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -23205,7 +23252,7 @@
       <c r="Z783" s="1"/>
       <c r="AA783" s="1"/>
     </row>
-    <row r="784" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -23234,7 +23281,7 @@
       <c r="Z784" s="1"/>
       <c r="AA784" s="1"/>
     </row>
-    <row r="785" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -23263,7 +23310,7 @@
       <c r="Z785" s="1"/>
       <c r="AA785" s="1"/>
     </row>
-    <row r="786" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -23292,7 +23339,7 @@
       <c r="Z786" s="1"/>
       <c r="AA786" s="1"/>
     </row>
-    <row r="787" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -23321,7 +23368,7 @@
       <c r="Z787" s="1"/>
       <c r="AA787" s="1"/>
     </row>
-    <row r="788" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -23350,7 +23397,7 @@
       <c r="Z788" s="1"/>
       <c r="AA788" s="1"/>
     </row>
-    <row r="789" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -23379,7 +23426,7 @@
       <c r="Z789" s="1"/>
       <c r="AA789" s="1"/>
     </row>
-    <row r="790" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -23408,7 +23455,7 @@
       <c r="Z790" s="1"/>
       <c r="AA790" s="1"/>
     </row>
-    <row r="791" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -23437,7 +23484,7 @@
       <c r="Z791" s="1"/>
       <c r="AA791" s="1"/>
     </row>
-    <row r="792" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -23466,7 +23513,7 @@
       <c r="Z792" s="1"/>
       <c r="AA792" s="1"/>
     </row>
-    <row r="793" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -23495,7 +23542,7 @@
       <c r="Z793" s="1"/>
       <c r="AA793" s="1"/>
     </row>
-    <row r="794" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -23524,7 +23571,7 @@
       <c r="Z794" s="1"/>
       <c r="AA794" s="1"/>
     </row>
-    <row r="795" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -23553,7 +23600,7 @@
       <c r="Z795" s="1"/>
       <c r="AA795" s="1"/>
     </row>
-    <row r="796" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -23582,7 +23629,7 @@
       <c r="Z796" s="1"/>
       <c r="AA796" s="1"/>
     </row>
-    <row r="797" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -23611,7 +23658,7 @@
       <c r="Z797" s="1"/>
       <c r="AA797" s="1"/>
     </row>
-    <row r="798" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -23640,7 +23687,7 @@
       <c r="Z798" s="1"/>
       <c r="AA798" s="1"/>
     </row>
-    <row r="799" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -23669,7 +23716,7 @@
       <c r="Z799" s="1"/>
       <c r="AA799" s="1"/>
     </row>
-    <row r="800" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -23698,7 +23745,7 @@
       <c r="Z800" s="1"/>
       <c r="AA800" s="1"/>
     </row>
-    <row r="801" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -23727,7 +23774,7 @@
       <c r="Z801" s="1"/>
       <c r="AA801" s="1"/>
     </row>
-    <row r="802" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -23756,7 +23803,7 @@
       <c r="Z802" s="1"/>
       <c r="AA802" s="1"/>
     </row>
-    <row r="803" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -23785,7 +23832,7 @@
       <c r="Z803" s="1"/>
       <c r="AA803" s="1"/>
     </row>
-    <row r="804" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -23814,7 +23861,7 @@
       <c r="Z804" s="1"/>
       <c r="AA804" s="1"/>
     </row>
-    <row r="805" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -23843,7 +23890,7 @@
       <c r="Z805" s="1"/>
       <c r="AA805" s="1"/>
     </row>
-    <row r="806" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -23872,7 +23919,7 @@
       <c r="Z806" s="1"/>
       <c r="AA806" s="1"/>
     </row>
-    <row r="807" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -23901,7 +23948,7 @@
       <c r="Z807" s="1"/>
       <c r="AA807" s="1"/>
     </row>
-    <row r="808" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -23930,7 +23977,7 @@
       <c r="Z808" s="1"/>
       <c r="AA808" s="1"/>
     </row>
-    <row r="809" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -23959,7 +24006,7 @@
       <c r="Z809" s="1"/>
       <c r="AA809" s="1"/>
     </row>
-    <row r="810" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -23988,7 +24035,7 @@
       <c r="Z810" s="1"/>
       <c r="AA810" s="1"/>
     </row>
-    <row r="811" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -24017,7 +24064,7 @@
       <c r="Z811" s="1"/>
       <c r="AA811" s="1"/>
     </row>
-    <row r="812" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -24046,7 +24093,7 @@
       <c r="Z812" s="1"/>
       <c r="AA812" s="1"/>
     </row>
-    <row r="813" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -24075,7 +24122,7 @@
       <c r="Z813" s="1"/>
       <c r="AA813" s="1"/>
     </row>
-    <row r="814" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -24104,7 +24151,7 @@
       <c r="Z814" s="1"/>
       <c r="AA814" s="1"/>
     </row>
-    <row r="815" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -24133,7 +24180,7 @@
       <c r="Z815" s="1"/>
       <c r="AA815" s="1"/>
     </row>
-    <row r="816" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -24162,7 +24209,7 @@
       <c r="Z816" s="1"/>
       <c r="AA816" s="1"/>
     </row>
-    <row r="817" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -24191,7 +24238,7 @@
       <c r="Z817" s="1"/>
       <c r="AA817" s="1"/>
     </row>
-    <row r="818" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -24220,7 +24267,7 @@
       <c r="Z818" s="1"/>
       <c r="AA818" s="1"/>
     </row>
-    <row r="819" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -24249,7 +24296,7 @@
       <c r="Z819" s="1"/>
       <c r="AA819" s="1"/>
     </row>
-    <row r="820" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -24278,7 +24325,7 @@
       <c r="Z820" s="1"/>
       <c r="AA820" s="1"/>
     </row>
-    <row r="821" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -24307,7 +24354,7 @@
       <c r="Z821" s="1"/>
       <c r="AA821" s="1"/>
     </row>
-    <row r="822" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -24336,7 +24383,7 @@
       <c r="Z822" s="1"/>
       <c r="AA822" s="1"/>
     </row>
-    <row r="823" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -24365,7 +24412,7 @@
       <c r="Z823" s="1"/>
       <c r="AA823" s="1"/>
     </row>
-    <row r="824" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -24394,7 +24441,7 @@
       <c r="Z824" s="1"/>
       <c r="AA824" s="1"/>
     </row>
-    <row r="825" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -24423,7 +24470,7 @@
       <c r="Z825" s="1"/>
       <c r="AA825" s="1"/>
     </row>
-    <row r="826" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -24452,7 +24499,7 @@
       <c r="Z826" s="1"/>
       <c r="AA826" s="1"/>
     </row>
-    <row r="827" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -24481,7 +24528,7 @@
       <c r="Z827" s="1"/>
       <c r="AA827" s="1"/>
     </row>
-    <row r="828" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -24510,7 +24557,7 @@
       <c r="Z828" s="1"/>
       <c r="AA828" s="1"/>
     </row>
-    <row r="829" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -24539,7 +24586,7 @@
       <c r="Z829" s="1"/>
       <c r="AA829" s="1"/>
     </row>
-    <row r="830" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -24568,7 +24615,7 @@
       <c r="Z830" s="1"/>
       <c r="AA830" s="1"/>
     </row>
-    <row r="831" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -24597,7 +24644,7 @@
       <c r="Z831" s="1"/>
       <c r="AA831" s="1"/>
     </row>
-    <row r="832" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -24626,7 +24673,7 @@
       <c r="Z832" s="1"/>
       <c r="AA832" s="1"/>
     </row>
-    <row r="833" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -24655,7 +24702,7 @@
       <c r="Z833" s="1"/>
       <c r="AA833" s="1"/>
     </row>
-    <row r="834" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -24684,7 +24731,7 @@
       <c r="Z834" s="1"/>
       <c r="AA834" s="1"/>
     </row>
-    <row r="835" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -24713,7 +24760,7 @@
       <c r="Z835" s="1"/>
       <c r="AA835" s="1"/>
     </row>
-    <row r="836" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -24742,7 +24789,7 @@
       <c r="Z836" s="1"/>
       <c r="AA836" s="1"/>
     </row>
-    <row r="837" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -24771,7 +24818,7 @@
       <c r="Z837" s="1"/>
       <c r="AA837" s="1"/>
     </row>
-    <row r="838" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -24800,7 +24847,7 @@
       <c r="Z838" s="1"/>
       <c r="AA838" s="1"/>
     </row>
-    <row r="839" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -24829,7 +24876,7 @@
       <c r="Z839" s="1"/>
       <c r="AA839" s="1"/>
     </row>
-    <row r="840" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -24858,7 +24905,7 @@
       <c r="Z840" s="1"/>
       <c r="AA840" s="1"/>
     </row>
-    <row r="841" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -24887,7 +24934,7 @@
       <c r="Z841" s="1"/>
       <c r="AA841" s="1"/>
     </row>
-    <row r="842" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -24916,7 +24963,7 @@
       <c r="Z842" s="1"/>
       <c r="AA842" s="1"/>
     </row>
-    <row r="843" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -24945,7 +24992,7 @@
       <c r="Z843" s="1"/>
       <c r="AA843" s="1"/>
     </row>
-    <row r="844" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -24974,7 +25021,7 @@
       <c r="Z844" s="1"/>
       <c r="AA844" s="1"/>
     </row>
-    <row r="845" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -25003,7 +25050,7 @@
       <c r="Z845" s="1"/>
       <c r="AA845" s="1"/>
     </row>
-    <row r="846" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -25032,7 +25079,7 @@
       <c r="Z846" s="1"/>
       <c r="AA846" s="1"/>
     </row>
-    <row r="847" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -25061,7 +25108,7 @@
       <c r="Z847" s="1"/>
       <c r="AA847" s="1"/>
     </row>
-    <row r="848" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -25090,7 +25137,7 @@
       <c r="Z848" s="1"/>
       <c r="AA848" s="1"/>
     </row>
-    <row r="849" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -25119,7 +25166,7 @@
       <c r="Z849" s="1"/>
       <c r="AA849" s="1"/>
     </row>
-    <row r="850" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -25148,7 +25195,7 @@
       <c r="Z850" s="1"/>
       <c r="AA850" s="1"/>
     </row>
-    <row r="851" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -25177,7 +25224,7 @@
       <c r="Z851" s="1"/>
       <c r="AA851" s="1"/>
     </row>
-    <row r="852" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -25206,7 +25253,7 @@
       <c r="Z852" s="1"/>
       <c r="AA852" s="1"/>
     </row>
-    <row r="853" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -25235,7 +25282,7 @@
       <c r="Z853" s="1"/>
       <c r="AA853" s="1"/>
     </row>
-    <row r="854" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -25264,7 +25311,7 @@
       <c r="Z854" s="1"/>
       <c r="AA854" s="1"/>
     </row>
-    <row r="855" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -25293,7 +25340,7 @@
       <c r="Z855" s="1"/>
       <c r="AA855" s="1"/>
     </row>
-    <row r="856" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -25322,7 +25369,7 @@
       <c r="Z856" s="1"/>
       <c r="AA856" s="1"/>
     </row>
-    <row r="857" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -25351,7 +25398,7 @@
       <c r="Z857" s="1"/>
       <c r="AA857" s="1"/>
     </row>
-    <row r="858" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -25380,7 +25427,7 @@
       <c r="Z858" s="1"/>
       <c r="AA858" s="1"/>
     </row>
-    <row r="859" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -25409,7 +25456,7 @@
       <c r="Z859" s="1"/>
       <c r="AA859" s="1"/>
     </row>
-    <row r="860" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -25438,7 +25485,7 @@
       <c r="Z860" s="1"/>
       <c r="AA860" s="1"/>
     </row>
-    <row r="861" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -25467,7 +25514,7 @@
       <c r="Z861" s="1"/>
       <c r="AA861" s="1"/>
     </row>
-    <row r="862" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -25496,7 +25543,7 @@
       <c r="Z862" s="1"/>
       <c r="AA862" s="1"/>
     </row>
-    <row r="863" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -25525,7 +25572,7 @@
       <c r="Z863" s="1"/>
       <c r="AA863" s="1"/>
     </row>
-    <row r="864" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -25554,7 +25601,7 @@
       <c r="Z864" s="1"/>
       <c r="AA864" s="1"/>
     </row>
-    <row r="865" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -25583,7 +25630,7 @@
       <c r="Z865" s="1"/>
       <c r="AA865" s="1"/>
     </row>
-    <row r="866" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -25612,7 +25659,7 @@
       <c r="Z866" s="1"/>
       <c r="AA866" s="1"/>
     </row>
-    <row r="867" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -25641,7 +25688,7 @@
       <c r="Z867" s="1"/>
       <c r="AA867" s="1"/>
     </row>
-    <row r="868" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -25670,7 +25717,7 @@
       <c r="Z868" s="1"/>
       <c r="AA868" s="1"/>
     </row>
-    <row r="869" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -25699,7 +25746,7 @@
       <c r="Z869" s="1"/>
       <c r="AA869" s="1"/>
     </row>
-    <row r="870" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -25728,7 +25775,7 @@
       <c r="Z870" s="1"/>
       <c r="AA870" s="1"/>
     </row>
-    <row r="871" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -25757,7 +25804,7 @@
       <c r="Z871" s="1"/>
       <c r="AA871" s="1"/>
     </row>
-    <row r="872" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -25786,7 +25833,7 @@
       <c r="Z872" s="1"/>
       <c r="AA872" s="1"/>
     </row>
-    <row r="873" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -25815,7 +25862,7 @@
       <c r="Z873" s="1"/>
       <c r="AA873" s="1"/>
     </row>
-    <row r="874" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -25844,7 +25891,7 @@
       <c r="Z874" s="1"/>
       <c r="AA874" s="1"/>
     </row>
-    <row r="875" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -25873,7 +25920,7 @@
       <c r="Z875" s="1"/>
       <c r="AA875" s="1"/>
     </row>
-    <row r="876" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -25902,7 +25949,7 @@
       <c r="Z876" s="1"/>
       <c r="AA876" s="1"/>
     </row>
-    <row r="877" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -25931,7 +25978,7 @@
       <c r="Z877" s="1"/>
       <c r="AA877" s="1"/>
     </row>
-    <row r="878" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -25960,7 +26007,7 @@
       <c r="Z878" s="1"/>
       <c r="AA878" s="1"/>
     </row>
-    <row r="879" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -25989,7 +26036,7 @@
       <c r="Z879" s="1"/>
       <c r="AA879" s="1"/>
     </row>
-    <row r="880" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -26018,7 +26065,7 @@
       <c r="Z880" s="1"/>
       <c r="AA880" s="1"/>
     </row>
-    <row r="881" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -26047,7 +26094,7 @@
       <c r="Z881" s="1"/>
       <c r="AA881" s="1"/>
     </row>
-    <row r="882" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -26076,7 +26123,7 @@
       <c r="Z882" s="1"/>
       <c r="AA882" s="1"/>
     </row>
-    <row r="883" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -26105,7 +26152,7 @@
       <c r="Z883" s="1"/>
       <c r="AA883" s="1"/>
     </row>
-    <row r="884" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -26134,7 +26181,7 @@
       <c r="Z884" s="1"/>
       <c r="AA884" s="1"/>
     </row>
-    <row r="885" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -26163,7 +26210,7 @@
       <c r="Z885" s="1"/>
       <c r="AA885" s="1"/>
     </row>
-    <row r="886" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -26192,7 +26239,7 @@
       <c r="Z886" s="1"/>
       <c r="AA886" s="1"/>
     </row>
-    <row r="887" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -26221,7 +26268,7 @@
       <c r="Z887" s="1"/>
       <c r="AA887" s="1"/>
     </row>
-    <row r="888" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -26250,7 +26297,7 @@
       <c r="Z888" s="1"/>
       <c r="AA888" s="1"/>
     </row>
-    <row r="889" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -26279,7 +26326,7 @@
       <c r="Z889" s="1"/>
       <c r="AA889" s="1"/>
     </row>
-    <row r="890" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -26308,7 +26355,7 @@
       <c r="Z890" s="1"/>
       <c r="AA890" s="1"/>
     </row>
-    <row r="891" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -26337,7 +26384,7 @@
       <c r="Z891" s="1"/>
       <c r="AA891" s="1"/>
     </row>
-    <row r="892" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -26366,7 +26413,7 @@
       <c r="Z892" s="1"/>
       <c r="AA892" s="1"/>
     </row>
-    <row r="893" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -26395,7 +26442,7 @@
       <c r="Z893" s="1"/>
       <c r="AA893" s="1"/>
     </row>
-    <row r="894" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -26424,7 +26471,7 @@
       <c r="Z894" s="1"/>
       <c r="AA894" s="1"/>
     </row>
-    <row r="895" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -26453,7 +26500,7 @@
       <c r="Z895" s="1"/>
       <c r="AA895" s="1"/>
     </row>
-    <row r="896" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -26482,7 +26529,7 @@
       <c r="Z896" s="1"/>
       <c r="AA896" s="1"/>
     </row>
-    <row r="897" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -26511,7 +26558,7 @@
       <c r="Z897" s="1"/>
       <c r="AA897" s="1"/>
     </row>
-    <row r="898" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -26540,7 +26587,7 @@
       <c r="Z898" s="1"/>
       <c r="AA898" s="1"/>
     </row>
-    <row r="899" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -26569,7 +26616,7 @@
       <c r="Z899" s="1"/>
       <c r="AA899" s="1"/>
     </row>
-    <row r="900" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -26598,7 +26645,7 @@
       <c r="Z900" s="1"/>
       <c r="AA900" s="1"/>
     </row>
-    <row r="901" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -26627,7 +26674,7 @@
       <c r="Z901" s="1"/>
       <c r="AA901" s="1"/>
     </row>
-    <row r="902" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -26656,7 +26703,7 @@
       <c r="Z902" s="1"/>
       <c r="AA902" s="1"/>
     </row>
-    <row r="903" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -26685,7 +26732,7 @@
       <c r="Z903" s="1"/>
       <c r="AA903" s="1"/>
     </row>
-    <row r="904" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -26714,7 +26761,7 @@
       <c r="Z904" s="1"/>
       <c r="AA904" s="1"/>
     </row>
-    <row r="905" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -26743,7 +26790,7 @@
       <c r="Z905" s="1"/>
       <c r="AA905" s="1"/>
     </row>
-    <row r="906" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -26772,7 +26819,7 @@
       <c r="Z906" s="1"/>
       <c r="AA906" s="1"/>
     </row>
-    <row r="907" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -26801,7 +26848,7 @@
       <c r="Z907" s="1"/>
       <c r="AA907" s="1"/>
     </row>
-    <row r="908" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -26830,7 +26877,7 @@
       <c r="Z908" s="1"/>
       <c r="AA908" s="1"/>
     </row>
-    <row r="909" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -26859,7 +26906,7 @@
       <c r="Z909" s="1"/>
       <c r="AA909" s="1"/>
     </row>
-    <row r="910" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -26888,7 +26935,7 @@
       <c r="Z910" s="1"/>
       <c r="AA910" s="1"/>
     </row>
-    <row r="911" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -26917,7 +26964,7 @@
       <c r="Z911" s="1"/>
       <c r="AA911" s="1"/>
     </row>
-    <row r="912" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -26946,7 +26993,7 @@
       <c r="Z912" s="1"/>
       <c r="AA912" s="1"/>
     </row>
-    <row r="913" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -26975,7 +27022,7 @@
       <c r="Z913" s="1"/>
       <c r="AA913" s="1"/>
     </row>
-    <row r="914" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -27004,7 +27051,7 @@
       <c r="Z914" s="1"/>
       <c r="AA914" s="1"/>
     </row>
-    <row r="915" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -27033,7 +27080,7 @@
       <c r="Z915" s="1"/>
       <c r="AA915" s="1"/>
     </row>
-    <row r="916" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -27062,7 +27109,7 @@
       <c r="Z916" s="1"/>
       <c r="AA916" s="1"/>
     </row>
-    <row r="917" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -27091,7 +27138,7 @@
       <c r="Z917" s="1"/>
       <c r="AA917" s="1"/>
     </row>
-    <row r="918" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -27120,7 +27167,7 @@
       <c r="Z918" s="1"/>
       <c r="AA918" s="1"/>
     </row>
-    <row r="919" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -27149,7 +27196,7 @@
       <c r="Z919" s="1"/>
       <c r="AA919" s="1"/>
     </row>
-    <row r="920" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -27178,7 +27225,7 @@
       <c r="Z920" s="1"/>
       <c r="AA920" s="1"/>
     </row>
-    <row r="921" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -27207,7 +27254,7 @@
       <c r="Z921" s="1"/>
       <c r="AA921" s="1"/>
     </row>
-    <row r="922" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -27236,7 +27283,7 @@
       <c r="Z922" s="1"/>
       <c r="AA922" s="1"/>
     </row>
-    <row r="923" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -27265,7 +27312,7 @@
       <c r="Z923" s="1"/>
       <c r="AA923" s="1"/>
     </row>
-    <row r="924" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -27294,7 +27341,7 @@
       <c r="Z924" s="1"/>
       <c r="AA924" s="1"/>
     </row>
-    <row r="925" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -27323,7 +27370,7 @@
       <c r="Z925" s="1"/>
       <c r="AA925" s="1"/>
     </row>
-    <row r="926" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -27352,7 +27399,7 @@
       <c r="Z926" s="1"/>
       <c r="AA926" s="1"/>
     </row>
-    <row r="927" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -27381,7 +27428,7 @@
       <c r="Z927" s="1"/>
       <c r="AA927" s="1"/>
     </row>
-    <row r="928" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -27410,7 +27457,7 @@
       <c r="Z928" s="1"/>
       <c r="AA928" s="1"/>
     </row>
-    <row r="929" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -27439,7 +27486,7 @@
       <c r="Z929" s="1"/>
       <c r="AA929" s="1"/>
     </row>
-    <row r="930" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -27468,7 +27515,7 @@
       <c r="Z930" s="1"/>
       <c r="AA930" s="1"/>
     </row>
-    <row r="931" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -27497,7 +27544,7 @@
       <c r="Z931" s="1"/>
       <c r="AA931" s="1"/>
     </row>
-    <row r="932" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -27526,7 +27573,7 @@
       <c r="Z932" s="1"/>
       <c r="AA932" s="1"/>
     </row>
-    <row r="933" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -27555,7 +27602,7 @@
       <c r="Z933" s="1"/>
       <c r="AA933" s="1"/>
     </row>
-    <row r="934" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -27584,7 +27631,7 @@
       <c r="Z934" s="1"/>
       <c r="AA934" s="1"/>
     </row>
-    <row r="935" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -27613,7 +27660,7 @@
       <c r="Z935" s="1"/>
       <c r="AA935" s="1"/>
     </row>
-    <row r="936" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -27642,7 +27689,7 @@
       <c r="Z936" s="1"/>
       <c r="AA936" s="1"/>
     </row>
-    <row r="937" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -27671,7 +27718,7 @@
       <c r="Z937" s="1"/>
       <c r="AA937" s="1"/>
     </row>
-    <row r="938" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -27700,7 +27747,7 @@
       <c r="Z938" s="1"/>
       <c r="AA938" s="1"/>
     </row>
-    <row r="939" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -27729,7 +27776,7 @@
       <c r="Z939" s="1"/>
       <c r="AA939" s="1"/>
     </row>
-    <row r="940" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -27758,7 +27805,7 @@
       <c r="Z940" s="1"/>
       <c r="AA940" s="1"/>
     </row>
-    <row r="941" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -27787,7 +27834,7 @@
       <c r="Z941" s="1"/>
       <c r="AA941" s="1"/>
     </row>
-    <row r="942" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -27816,7 +27863,7 @@
       <c r="Z942" s="1"/>
       <c r="AA942" s="1"/>
     </row>
-    <row r="943" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -27845,7 +27892,7 @@
       <c r="Z943" s="1"/>
       <c r="AA943" s="1"/>
     </row>
-    <row r="944" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -27874,7 +27921,7 @@
       <c r="Z944" s="1"/>
       <c r="AA944" s="1"/>
     </row>
-    <row r="945" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -27903,7 +27950,7 @@
       <c r="Z945" s="1"/>
       <c r="AA945" s="1"/>
     </row>
-    <row r="946" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -27932,7 +27979,7 @@
       <c r="Z946" s="1"/>
       <c r="AA946" s="1"/>
     </row>
-    <row r="947" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -27961,7 +28008,7 @@
       <c r="Z947" s="1"/>
       <c r="AA947" s="1"/>
     </row>
-    <row r="948" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -27990,7 +28037,7 @@
       <c r="Z948" s="1"/>
       <c r="AA948" s="1"/>
     </row>
-    <row r="949" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -28019,7 +28066,7 @@
       <c r="Z949" s="1"/>
       <c r="AA949" s="1"/>
     </row>
-    <row r="950" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -28048,7 +28095,7 @@
       <c r="Z950" s="1"/>
       <c r="AA950" s="1"/>
     </row>
-    <row r="951" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -28077,7 +28124,7 @@
       <c r="Z951" s="1"/>
       <c r="AA951" s="1"/>
     </row>
-    <row r="952" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -28106,7 +28153,7 @@
       <c r="Z952" s="1"/>
       <c r="AA952" s="1"/>
     </row>
-    <row r="953" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -28135,7 +28182,7 @@
       <c r="Z953" s="1"/>
       <c r="AA953" s="1"/>
     </row>
-    <row r="954" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -28164,7 +28211,7 @@
       <c r="Z954" s="1"/>
       <c r="AA954" s="1"/>
     </row>
-    <row r="955" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -28193,7 +28240,7 @@
       <c r="Z955" s="1"/>
       <c r="AA955" s="1"/>
     </row>
-    <row r="956" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -28222,7 +28269,7 @@
       <c r="Z956" s="1"/>
       <c r="AA956" s="1"/>
     </row>
-    <row r="957" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -28251,7 +28298,7 @@
       <c r="Z957" s="1"/>
       <c r="AA957" s="1"/>
     </row>
-    <row r="958" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -28280,7 +28327,7 @@
       <c r="Z958" s="1"/>
       <c r="AA958" s="1"/>
     </row>
-    <row r="959" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -28309,7 +28356,7 @@
       <c r="Z959" s="1"/>
       <c r="AA959" s="1"/>
     </row>
-    <row r="960" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -28338,7 +28385,7 @@
       <c r="Z960" s="1"/>
       <c r="AA960" s="1"/>
     </row>
-    <row r="961" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -28367,7 +28414,7 @@
       <c r="Z961" s="1"/>
       <c r="AA961" s="1"/>
     </row>
-    <row r="962" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -28396,7 +28443,7 @@
       <c r="Z962" s="1"/>
       <c r="AA962" s="1"/>
     </row>
-    <row r="963" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -28425,7 +28472,7 @@
       <c r="Z963" s="1"/>
       <c r="AA963" s="1"/>
     </row>
-    <row r="964" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -28454,7 +28501,7 @@
       <c r="Z964" s="1"/>
       <c r="AA964" s="1"/>
     </row>
-    <row r="965" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -28483,7 +28530,7 @@
       <c r="Z965" s="1"/>
       <c r="AA965" s="1"/>
     </row>
-    <row r="966" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -28512,7 +28559,7 @@
       <c r="Z966" s="1"/>
       <c r="AA966" s="1"/>
     </row>
-    <row r="967" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -28541,7 +28588,7 @@
       <c r="Z967" s="1"/>
       <c r="AA967" s="1"/>
     </row>
-    <row r="968" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -28570,7 +28617,7 @@
       <c r="Z968" s="1"/>
       <c r="AA968" s="1"/>
     </row>
-    <row r="969" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -28599,7 +28646,7 @@
       <c r="Z969" s="1"/>
       <c r="AA969" s="1"/>
     </row>
-    <row r="970" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -28628,7 +28675,7 @@
       <c r="Z970" s="1"/>
       <c r="AA970" s="1"/>
     </row>
-    <row r="971" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -28657,7 +28704,7 @@
       <c r="Z971" s="1"/>
       <c r="AA971" s="1"/>
     </row>
-    <row r="972" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -28686,7 +28733,7 @@
       <c r="Z972" s="1"/>
       <c r="AA972" s="1"/>
     </row>
-    <row r="973" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -28715,7 +28762,7 @@
       <c r="Z973" s="1"/>
       <c r="AA973" s="1"/>
     </row>
-    <row r="974" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -28744,7 +28791,7 @@
       <c r="Z974" s="1"/>
       <c r="AA974" s="1"/>
     </row>
-    <row r="975" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -28773,7 +28820,7 @@
       <c r="Z975" s="1"/>
       <c r="AA975" s="1"/>
     </row>
-    <row r="976" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -28802,7 +28849,7 @@
       <c r="Z976" s="1"/>
       <c r="AA976" s="1"/>
     </row>
-    <row r="977" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -28831,7 +28878,7 @@
       <c r="Z977" s="1"/>
       <c r="AA977" s="1"/>
     </row>
-    <row r="978" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -28860,7 +28907,7 @@
       <c r="Z978" s="1"/>
       <c r="AA978" s="1"/>
     </row>
-    <row r="979" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -28889,7 +28936,7 @@
       <c r="Z979" s="1"/>
       <c r="AA979" s="1"/>
     </row>
-    <row r="980" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -28918,7 +28965,7 @@
       <c r="Z980" s="1"/>
       <c r="AA980" s="1"/>
     </row>
-    <row r="981" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -28947,7 +28994,7 @@
       <c r="Z981" s="1"/>
       <c r="AA981" s="1"/>
     </row>
-    <row r="982" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -28976,7 +29023,7 @@
       <c r="Z982" s="1"/>
       <c r="AA982" s="1"/>
     </row>
-    <row r="983" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -29005,7 +29052,7 @@
       <c r="Z983" s="1"/>
       <c r="AA983" s="1"/>
     </row>
-    <row r="984" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -29034,7 +29081,7 @@
       <c r="Z984" s="1"/>
       <c r="AA984" s="1"/>
     </row>
-    <row r="985" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -29063,7 +29110,7 @@
       <c r="Z985" s="1"/>
       <c r="AA985" s="1"/>
     </row>
-    <row r="986" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -29092,7 +29139,7 @@
       <c r="Z986" s="1"/>
       <c r="AA986" s="1"/>
     </row>
-    <row r="987" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -29121,7 +29168,7 @@
       <c r="Z987" s="1"/>
       <c r="AA987" s="1"/>
     </row>
-    <row r="988" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -29150,7 +29197,7 @@
       <c r="Z988" s="1"/>
       <c r="AA988" s="1"/>
     </row>
-    <row r="989" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -29179,7 +29226,7 @@
       <c r="Z989" s="1"/>
       <c r="AA989" s="1"/>
     </row>
-    <row r="990" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -29208,7 +29255,7 @@
       <c r="Z990" s="1"/>
       <c r="AA990" s="1"/>
     </row>
-    <row r="991" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -29237,7 +29284,7 @@
       <c r="Z991" s="1"/>
       <c r="AA991" s="1"/>
     </row>
-    <row r="992" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -29266,7 +29313,7 @@
       <c r="Z992" s="1"/>
       <c r="AA992" s="1"/>
     </row>
-    <row r="993" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -29295,7 +29342,7 @@
       <c r="Z993" s="1"/>
       <c r="AA993" s="1"/>
     </row>
-    <row r="994" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -29324,7 +29371,7 @@
       <c r="Z994" s="1"/>
       <c r="AA994" s="1"/>
     </row>
-    <row r="995" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -29353,7 +29400,7 @@
       <c r="Z995" s="1"/>
       <c r="AA995" s="1"/>
     </row>
-    <row r="996" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -29382,7 +29429,7 @@
       <c r="Z996" s="1"/>
       <c r="AA996" s="1"/>
     </row>
-    <row r="997" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -29411,7 +29458,7 @@
       <c r="Z997" s="1"/>
       <c r="AA997" s="1"/>
     </row>
-    <row r="998" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -29440,7 +29487,7 @@
       <c r="Z998" s="1"/>
       <c r="AA998" s="1"/>
     </row>
-    <row r="999" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -29469,7 +29516,7 @@
       <c r="Z999" s="1"/>
       <c r="AA999" s="1"/>
     </row>
-    <row r="1000" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>

--- a/DELIVERABLE/EFFORT_LOG/Week16/BSS_EffortLog_TaiNguyen_Week16.xlsx
+++ b/DELIVERABLE/EFFORT_LOG/Week16/BSS_EffortLog_TaiNguyen_Week16.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Masu\Documents\GitHub\CapstonProject\DELIVERABLE\EFFORT_LOG\Week16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CapstonProject\CapstonProject\DELIVERABLE\EFFORT_LOG\Week16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8112"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t xml:space="preserve">EFFORT LOG </t>
   </si>
@@ -56,16 +56,22 @@
     <t>21/1/2017</t>
   </si>
   <si>
-    <t>4h</t>
+    <t>Demo index data into mongo db</t>
   </si>
   <si>
-    <t>6h</t>
+    <t>16/1/2017</t>
+  </si>
+  <si>
+    <t>18/1/2017</t>
+  </si>
+  <si>
+    <t>Demo connect relastic search with mongo db</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,15 +181,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,23 +509,22 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8" style="3" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" style="3" customWidth="1"/>
-    <col min="9" max="27" width="7.5546875" style="3" customWidth="1"/>
-    <col min="28" max="16384" width="15.109375" style="3"/>
+    <col min="3" max="3" width="5.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="27" width="7.5703125" style="3" customWidth="1"/>
+    <col min="28" max="16384" width="15.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="9" t="s">
@@ -548,7 +555,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="10" t="s">
@@ -579,7 +586,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -608,7 +615,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
@@ -649,13 +656,13 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -664,11 +671,11 @@
       <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>10</v>
+      <c r="G5" s="6">
+        <v>4</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>11</v>
+      <c r="H5" s="6">
+        <v>6</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -690,15 +697,27 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6">
+        <v>4</v>
+      </c>
+      <c r="H6" s="6">
+        <v>3</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -719,15 +738,27 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -748,15 +779,15 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -777,15 +808,15 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -806,15 +837,15 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -835,15 +866,15 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -864,15 +895,15 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -893,15 +924,15 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -922,15 +953,15 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -951,7 +982,7 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -980,7 +1011,7 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1009,7 +1040,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1038,7 +1069,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1067,7 +1098,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1096,7 +1127,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1125,7 +1156,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1154,7 +1185,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1183,7 +1214,7 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1212,7 +1243,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1241,7 +1272,7 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1270,7 +1301,7 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1299,7 +1330,7 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1328,7 +1359,7 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1357,7 +1388,7 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1386,7 +1417,7 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1415,7 +1446,7 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1444,7 +1475,7 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1473,7 +1504,7 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1502,7 +1533,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1531,7 +1562,7 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1560,7 +1591,7 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1589,7 +1620,7 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1618,7 +1649,7 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1647,7 +1678,7 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1676,7 +1707,7 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1705,7 +1736,7 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1734,7 +1765,7 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1763,7 +1794,7 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1792,7 +1823,7 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1821,7 +1852,7 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1850,7 +1881,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1879,7 +1910,7 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1908,7 +1939,7 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1937,7 +1968,7 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1966,7 +1997,7 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1995,7 +2026,7 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2024,7 +2055,7 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2053,7 +2084,7 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2082,7 +2113,7 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2111,7 +2142,7 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2140,7 +2171,7 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2169,7 +2200,7 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2198,7 +2229,7 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2227,7 +2258,7 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2256,7 +2287,7 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2285,7 +2316,7 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2314,7 +2345,7 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2343,7 +2374,7 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2372,7 +2403,7 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2401,7 +2432,7 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2430,7 +2461,7 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2459,7 +2490,7 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2488,7 +2519,7 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2517,7 +2548,7 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2546,7 +2577,7 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2575,7 +2606,7 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2604,7 +2635,7 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2633,7 +2664,7 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2662,7 +2693,7 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2691,7 +2722,7 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2720,7 +2751,7 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2749,7 +2780,7 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2778,7 +2809,7 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2807,7 +2838,7 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2836,7 +2867,7 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2865,7 +2896,7 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2894,7 +2925,7 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2923,7 +2954,7 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2952,7 +2983,7 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2981,7 +3012,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3010,7 +3041,7 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3039,7 +3070,7 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3068,7 +3099,7 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3097,7 +3128,7 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3126,7 +3157,7 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3155,7 +3186,7 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3184,7 +3215,7 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3213,7 +3244,7 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3242,7 +3273,7 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3271,7 +3302,7 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3300,7 +3331,7 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3329,7 +3360,7 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3358,7 +3389,7 @@
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3387,7 +3418,7 @@
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3416,7 +3447,7 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3445,7 +3476,7 @@
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3474,7 +3505,7 @@
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3503,7 +3534,7 @@
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3532,7 +3563,7 @@
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3561,7 +3592,7 @@
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3590,7 +3621,7 @@
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3619,7 +3650,7 @@
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3648,7 +3679,7 @@
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3677,7 +3708,7 @@
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3706,7 +3737,7 @@
       <c r="Z109" s="1"/>
       <c r="AA109" s="1"/>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3735,7 +3766,7 @@
       <c r="Z110" s="1"/>
       <c r="AA110" s="1"/>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3764,7 +3795,7 @@
       <c r="Z111" s="1"/>
       <c r="AA111" s="1"/>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3793,7 +3824,7 @@
       <c r="Z112" s="1"/>
       <c r="AA112" s="1"/>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3822,7 +3853,7 @@
       <c r="Z113" s="1"/>
       <c r="AA113" s="1"/>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3851,7 +3882,7 @@
       <c r="Z114" s="1"/>
       <c r="AA114" s="1"/>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3880,7 +3911,7 @@
       <c r="Z115" s="1"/>
       <c r="AA115" s="1"/>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3909,7 +3940,7 @@
       <c r="Z116" s="1"/>
       <c r="AA116" s="1"/>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3938,7 +3969,7 @@
       <c r="Z117" s="1"/>
       <c r="AA117" s="1"/>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3967,7 +3998,7 @@
       <c r="Z118" s="1"/>
       <c r="AA118" s="1"/>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3996,7 +4027,7 @@
       <c r="Z119" s="1"/>
       <c r="AA119" s="1"/>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4025,7 +4056,7 @@
       <c r="Z120" s="1"/>
       <c r="AA120" s="1"/>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4054,7 +4085,7 @@
       <c r="Z121" s="1"/>
       <c r="AA121" s="1"/>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4083,7 +4114,7 @@
       <c r="Z122" s="1"/>
       <c r="AA122" s="1"/>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4112,7 +4143,7 @@
       <c r="Z123" s="1"/>
       <c r="AA123" s="1"/>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4141,7 +4172,7 @@
       <c r="Z124" s="1"/>
       <c r="AA124" s="1"/>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4170,7 +4201,7 @@
       <c r="Z125" s="1"/>
       <c r="AA125" s="1"/>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4199,7 +4230,7 @@
       <c r="Z126" s="1"/>
       <c r="AA126" s="1"/>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4228,7 +4259,7 @@
       <c r="Z127" s="1"/>
       <c r="AA127" s="1"/>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4257,7 +4288,7 @@
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4286,7 +4317,7 @@
       <c r="Z129" s="1"/>
       <c r="AA129" s="1"/>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4315,7 +4346,7 @@
       <c r="Z130" s="1"/>
       <c r="AA130" s="1"/>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4344,7 +4375,7 @@
       <c r="Z131" s="1"/>
       <c r="AA131" s="1"/>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4373,7 +4404,7 @@
       <c r="Z132" s="1"/>
       <c r="AA132" s="1"/>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4402,7 +4433,7 @@
       <c r="Z133" s="1"/>
       <c r="AA133" s="1"/>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4431,7 +4462,7 @@
       <c r="Z134" s="1"/>
       <c r="AA134" s="1"/>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4460,7 +4491,7 @@
       <c r="Z135" s="1"/>
       <c r="AA135" s="1"/>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4489,7 +4520,7 @@
       <c r="Z136" s="1"/>
       <c r="AA136" s="1"/>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4518,7 +4549,7 @@
       <c r="Z137" s="1"/>
       <c r="AA137" s="1"/>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4547,7 +4578,7 @@
       <c r="Z138" s="1"/>
       <c r="AA138" s="1"/>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4576,7 +4607,7 @@
       <c r="Z139" s="1"/>
       <c r="AA139" s="1"/>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4605,7 +4636,7 @@
       <c r="Z140" s="1"/>
       <c r="AA140" s="1"/>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4634,7 +4665,7 @@
       <c r="Z141" s="1"/>
       <c r="AA141" s="1"/>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4663,7 +4694,7 @@
       <c r="Z142" s="1"/>
       <c r="AA142" s="1"/>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4692,7 +4723,7 @@
       <c r="Z143" s="1"/>
       <c r="AA143" s="1"/>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4721,7 +4752,7 @@
       <c r="Z144" s="1"/>
       <c r="AA144" s="1"/>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4750,7 +4781,7 @@
       <c r="Z145" s="1"/>
       <c r="AA145" s="1"/>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4779,7 +4810,7 @@
       <c r="Z146" s="1"/>
       <c r="AA146" s="1"/>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4808,7 +4839,7 @@
       <c r="Z147" s="1"/>
       <c r="AA147" s="1"/>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4837,7 +4868,7 @@
       <c r="Z148" s="1"/>
       <c r="AA148" s="1"/>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4866,7 +4897,7 @@
       <c r="Z149" s="1"/>
       <c r="AA149" s="1"/>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4895,7 +4926,7 @@
       <c r="Z150" s="1"/>
       <c r="AA150" s="1"/>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4924,7 +4955,7 @@
       <c r="Z151" s="1"/>
       <c r="AA151" s="1"/>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4953,7 +4984,7 @@
       <c r="Z152" s="1"/>
       <c r="AA152" s="1"/>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4982,7 +5013,7 @@
       <c r="Z153" s="1"/>
       <c r="AA153" s="1"/>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -5011,7 +5042,7 @@
       <c r="Z154" s="1"/>
       <c r="AA154" s="1"/>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -5040,7 +5071,7 @@
       <c r="Z155" s="1"/>
       <c r="AA155" s="1"/>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5069,7 +5100,7 @@
       <c r="Z156" s="1"/>
       <c r="AA156" s="1"/>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5098,7 +5129,7 @@
       <c r="Z157" s="1"/>
       <c r="AA157" s="1"/>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5127,7 +5158,7 @@
       <c r="Z158" s="1"/>
       <c r="AA158" s="1"/>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5156,7 +5187,7 @@
       <c r="Z159" s="1"/>
       <c r="AA159" s="1"/>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5185,7 +5216,7 @@
       <c r="Z160" s="1"/>
       <c r="AA160" s="1"/>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5214,7 +5245,7 @@
       <c r="Z161" s="1"/>
       <c r="AA161" s="1"/>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5243,7 +5274,7 @@
       <c r="Z162" s="1"/>
       <c r="AA162" s="1"/>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5272,7 +5303,7 @@
       <c r="Z163" s="1"/>
       <c r="AA163" s="1"/>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5301,7 +5332,7 @@
       <c r="Z164" s="1"/>
       <c r="AA164" s="1"/>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5330,7 +5361,7 @@
       <c r="Z165" s="1"/>
       <c r="AA165" s="1"/>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5359,7 +5390,7 @@
       <c r="Z166" s="1"/>
       <c r="AA166" s="1"/>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5388,7 +5419,7 @@
       <c r="Z167" s="1"/>
       <c r="AA167" s="1"/>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5417,7 +5448,7 @@
       <c r="Z168" s="1"/>
       <c r="AA168" s="1"/>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5446,7 +5477,7 @@
       <c r="Z169" s="1"/>
       <c r="AA169" s="1"/>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5475,7 +5506,7 @@
       <c r="Z170" s="1"/>
       <c r="AA170" s="1"/>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5504,7 +5535,7 @@
       <c r="Z171" s="1"/>
       <c r="AA171" s="1"/>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5533,7 +5564,7 @@
       <c r="Z172" s="1"/>
       <c r="AA172" s="1"/>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5562,7 +5593,7 @@
       <c r="Z173" s="1"/>
       <c r="AA173" s="1"/>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5591,7 +5622,7 @@
       <c r="Z174" s="1"/>
       <c r="AA174" s="1"/>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5620,7 +5651,7 @@
       <c r="Z175" s="1"/>
       <c r="AA175" s="1"/>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5649,7 +5680,7 @@
       <c r="Z176" s="1"/>
       <c r="AA176" s="1"/>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5678,7 +5709,7 @@
       <c r="Z177" s="1"/>
       <c r="AA177" s="1"/>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5707,7 +5738,7 @@
       <c r="Z178" s="1"/>
       <c r="AA178" s="1"/>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5736,7 +5767,7 @@
       <c r="Z179" s="1"/>
       <c r="AA179" s="1"/>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5765,7 +5796,7 @@
       <c r="Z180" s="1"/>
       <c r="AA180" s="1"/>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5794,7 +5825,7 @@
       <c r="Z181" s="1"/>
       <c r="AA181" s="1"/>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5823,7 +5854,7 @@
       <c r="Z182" s="1"/>
       <c r="AA182" s="1"/>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5852,7 +5883,7 @@
       <c r="Z183" s="1"/>
       <c r="AA183" s="1"/>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5881,7 +5912,7 @@
       <c r="Z184" s="1"/>
       <c r="AA184" s="1"/>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5910,7 +5941,7 @@
       <c r="Z185" s="1"/>
       <c r="AA185" s="1"/>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5939,7 +5970,7 @@
       <c r="Z186" s="1"/>
       <c r="AA186" s="1"/>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5968,7 +5999,7 @@
       <c r="Z187" s="1"/>
       <c r="AA187" s="1"/>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5997,7 +6028,7 @@
       <c r="Z188" s="1"/>
       <c r="AA188" s="1"/>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -6026,7 +6057,7 @@
       <c r="Z189" s="1"/>
       <c r="AA189" s="1"/>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -6055,7 +6086,7 @@
       <c r="Z190" s="1"/>
       <c r="AA190" s="1"/>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -6084,7 +6115,7 @@
       <c r="Z191" s="1"/>
       <c r="AA191" s="1"/>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -6113,7 +6144,7 @@
       <c r="Z192" s="1"/>
       <c r="AA192" s="1"/>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -6142,7 +6173,7 @@
       <c r="Z193" s="1"/>
       <c r="AA193" s="1"/>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -6171,7 +6202,7 @@
       <c r="Z194" s="1"/>
       <c r="AA194" s="1"/>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -6200,7 +6231,7 @@
       <c r="Z195" s="1"/>
       <c r="AA195" s="1"/>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -6229,7 +6260,7 @@
       <c r="Z196" s="1"/>
       <c r="AA196" s="1"/>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6258,7 +6289,7 @@
       <c r="Z197" s="1"/>
       <c r="AA197" s="1"/>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6287,7 +6318,7 @@
       <c r="Z198" s="1"/>
       <c r="AA198" s="1"/>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6316,7 +6347,7 @@
       <c r="Z199" s="1"/>
       <c r="AA199" s="1"/>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6345,7 +6376,7 @@
       <c r="Z200" s="1"/>
       <c r="AA200" s="1"/>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6374,7 +6405,7 @@
       <c r="Z201" s="1"/>
       <c r="AA201" s="1"/>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6403,7 +6434,7 @@
       <c r="Z202" s="1"/>
       <c r="AA202" s="1"/>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6432,7 +6463,7 @@
       <c r="Z203" s="1"/>
       <c r="AA203" s="1"/>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6461,7 +6492,7 @@
       <c r="Z204" s="1"/>
       <c r="AA204" s="1"/>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6490,7 +6521,7 @@
       <c r="Z205" s="1"/>
       <c r="AA205" s="1"/>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -6519,7 +6550,7 @@
       <c r="Z206" s="1"/>
       <c r="AA206" s="1"/>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -6548,7 +6579,7 @@
       <c r="Z207" s="1"/>
       <c r="AA207" s="1"/>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -6577,7 +6608,7 @@
       <c r="Z208" s="1"/>
       <c r="AA208" s="1"/>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -6606,7 +6637,7 @@
       <c r="Z209" s="1"/>
       <c r="AA209" s="1"/>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -6635,7 +6666,7 @@
       <c r="Z210" s="1"/>
       <c r="AA210" s="1"/>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -6664,7 +6695,7 @@
       <c r="Z211" s="1"/>
       <c r="AA211" s="1"/>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -6693,7 +6724,7 @@
       <c r="Z212" s="1"/>
       <c r="AA212" s="1"/>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -6722,7 +6753,7 @@
       <c r="Z213" s="1"/>
       <c r="AA213" s="1"/>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -6751,7 +6782,7 @@
       <c r="Z214" s="1"/>
       <c r="AA214" s="1"/>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6780,7 +6811,7 @@
       <c r="Z215" s="1"/>
       <c r="AA215" s="1"/>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -6809,7 +6840,7 @@
       <c r="Z216" s="1"/>
       <c r="AA216" s="1"/>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6838,7 +6869,7 @@
       <c r="Z217" s="1"/>
       <c r="AA217" s="1"/>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6867,7 +6898,7 @@
       <c r="Z218" s="1"/>
       <c r="AA218" s="1"/>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6896,7 +6927,7 @@
       <c r="Z219" s="1"/>
       <c r="AA219" s="1"/>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6925,7 +6956,7 @@
       <c r="Z220" s="1"/>
       <c r="AA220" s="1"/>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6954,7 +6985,7 @@
       <c r="Z221" s="1"/>
       <c r="AA221" s="1"/>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6983,7 +7014,7 @@
       <c r="Z222" s="1"/>
       <c r="AA222" s="1"/>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -7012,7 +7043,7 @@
       <c r="Z223" s="1"/>
       <c r="AA223" s="1"/>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -7041,7 +7072,7 @@
       <c r="Z224" s="1"/>
       <c r="AA224" s="1"/>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -7070,7 +7101,7 @@
       <c r="Z225" s="1"/>
       <c r="AA225" s="1"/>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -7099,7 +7130,7 @@
       <c r="Z226" s="1"/>
       <c r="AA226" s="1"/>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -7128,7 +7159,7 @@
       <c r="Z227" s="1"/>
       <c r="AA227" s="1"/>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -7157,7 +7188,7 @@
       <c r="Z228" s="1"/>
       <c r="AA228" s="1"/>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -7186,7 +7217,7 @@
       <c r="Z229" s="1"/>
       <c r="AA229" s="1"/>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -7215,7 +7246,7 @@
       <c r="Z230" s="1"/>
       <c r="AA230" s="1"/>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -7244,7 +7275,7 @@
       <c r="Z231" s="1"/>
       <c r="AA231" s="1"/>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -7273,7 +7304,7 @@
       <c r="Z232" s="1"/>
       <c r="AA232" s="1"/>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -7302,7 +7333,7 @@
       <c r="Z233" s="1"/>
       <c r="AA233" s="1"/>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -7331,7 +7362,7 @@
       <c r="Z234" s="1"/>
       <c r="AA234" s="1"/>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -7360,7 +7391,7 @@
       <c r="Z235" s="1"/>
       <c r="AA235" s="1"/>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -7389,7 +7420,7 @@
       <c r="Z236" s="1"/>
       <c r="AA236" s="1"/>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -7418,7 +7449,7 @@
       <c r="Z237" s="1"/>
       <c r="AA237" s="1"/>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -7447,7 +7478,7 @@
       <c r="Z238" s="1"/>
       <c r="AA238" s="1"/>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -7476,7 +7507,7 @@
       <c r="Z239" s="1"/>
       <c r="AA239" s="1"/>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -7505,7 +7536,7 @@
       <c r="Z240" s="1"/>
       <c r="AA240" s="1"/>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -7534,7 +7565,7 @@
       <c r="Z241" s="1"/>
       <c r="AA241" s="1"/>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -7563,7 +7594,7 @@
       <c r="Z242" s="1"/>
       <c r="AA242" s="1"/>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -7592,7 +7623,7 @@
       <c r="Z243" s="1"/>
       <c r="AA243" s="1"/>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -7621,7 +7652,7 @@
       <c r="Z244" s="1"/>
       <c r="AA244" s="1"/>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -7650,7 +7681,7 @@
       <c r="Z245" s="1"/>
       <c r="AA245" s="1"/>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -7679,7 +7710,7 @@
       <c r="Z246" s="1"/>
       <c r="AA246" s="1"/>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -7708,7 +7739,7 @@
       <c r="Z247" s="1"/>
       <c r="AA247" s="1"/>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -7737,7 +7768,7 @@
       <c r="Z248" s="1"/>
       <c r="AA248" s="1"/>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -7766,7 +7797,7 @@
       <c r="Z249" s="1"/>
       <c r="AA249" s="1"/>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -7795,7 +7826,7 @@
       <c r="Z250" s="1"/>
       <c r="AA250" s="1"/>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -7824,7 +7855,7 @@
       <c r="Z251" s="1"/>
       <c r="AA251" s="1"/>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -7853,7 +7884,7 @@
       <c r="Z252" s="1"/>
       <c r="AA252" s="1"/>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -7882,7 +7913,7 @@
       <c r="Z253" s="1"/>
       <c r="AA253" s="1"/>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -7911,7 +7942,7 @@
       <c r="Z254" s="1"/>
       <c r="AA254" s="1"/>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -7940,7 +7971,7 @@
       <c r="Z255" s="1"/>
       <c r="AA255" s="1"/>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -7969,7 +8000,7 @@
       <c r="Z256" s="1"/>
       <c r="AA256" s="1"/>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -7998,7 +8029,7 @@
       <c r="Z257" s="1"/>
       <c r="AA257" s="1"/>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -8027,7 +8058,7 @@
       <c r="Z258" s="1"/>
       <c r="AA258" s="1"/>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -8056,7 +8087,7 @@
       <c r="Z259" s="1"/>
       <c r="AA259" s="1"/>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -8085,7 +8116,7 @@
       <c r="Z260" s="1"/>
       <c r="AA260" s="1"/>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -8114,7 +8145,7 @@
       <c r="Z261" s="1"/>
       <c r="AA261" s="1"/>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -8143,7 +8174,7 @@
       <c r="Z262" s="1"/>
       <c r="AA262" s="1"/>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -8172,7 +8203,7 @@
       <c r="Z263" s="1"/>
       <c r="AA263" s="1"/>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -8201,7 +8232,7 @@
       <c r="Z264" s="1"/>
       <c r="AA264" s="1"/>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -8230,7 +8261,7 @@
       <c r="Z265" s="1"/>
       <c r="AA265" s="1"/>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -8259,7 +8290,7 @@
       <c r="Z266" s="1"/>
       <c r="AA266" s="1"/>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -8288,7 +8319,7 @@
       <c r="Z267" s="1"/>
       <c r="AA267" s="1"/>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -8317,7 +8348,7 @@
       <c r="Z268" s="1"/>
       <c r="AA268" s="1"/>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -8346,7 +8377,7 @@
       <c r="Z269" s="1"/>
       <c r="AA269" s="1"/>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -8375,7 +8406,7 @@
       <c r="Z270" s="1"/>
       <c r="AA270" s="1"/>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -8404,7 +8435,7 @@
       <c r="Z271" s="1"/>
       <c r="AA271" s="1"/>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -8433,7 +8464,7 @@
       <c r="Z272" s="1"/>
       <c r="AA272" s="1"/>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -8462,7 +8493,7 @@
       <c r="Z273" s="1"/>
       <c r="AA273" s="1"/>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -8491,7 +8522,7 @@
       <c r="Z274" s="1"/>
       <c r="AA274" s="1"/>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -8520,7 +8551,7 @@
       <c r="Z275" s="1"/>
       <c r="AA275" s="1"/>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -8549,7 +8580,7 @@
       <c r="Z276" s="1"/>
       <c r="AA276" s="1"/>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -8578,7 +8609,7 @@
       <c r="Z277" s="1"/>
       <c r="AA277" s="1"/>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -8607,7 +8638,7 @@
       <c r="Z278" s="1"/>
       <c r="AA278" s="1"/>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -8636,7 +8667,7 @@
       <c r="Z279" s="1"/>
       <c r="AA279" s="1"/>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -8665,7 +8696,7 @@
       <c r="Z280" s="1"/>
       <c r="AA280" s="1"/>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -8694,7 +8725,7 @@
       <c r="Z281" s="1"/>
       <c r="AA281" s="1"/>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -8723,7 +8754,7 @@
       <c r="Z282" s="1"/>
       <c r="AA282" s="1"/>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -8752,7 +8783,7 @@
       <c r="Z283" s="1"/>
       <c r="AA283" s="1"/>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -8781,7 +8812,7 @@
       <c r="Z284" s="1"/>
       <c r="AA284" s="1"/>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -8810,7 +8841,7 @@
       <c r="Z285" s="1"/>
       <c r="AA285" s="1"/>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -8839,7 +8870,7 @@
       <c r="Z286" s="1"/>
       <c r="AA286" s="1"/>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -8868,7 +8899,7 @@
       <c r="Z287" s="1"/>
       <c r="AA287" s="1"/>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -8897,7 +8928,7 @@
       <c r="Z288" s="1"/>
       <c r="AA288" s="1"/>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -8926,7 +8957,7 @@
       <c r="Z289" s="1"/>
       <c r="AA289" s="1"/>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -8955,7 +8986,7 @@
       <c r="Z290" s="1"/>
       <c r="AA290" s="1"/>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -8984,7 +9015,7 @@
       <c r="Z291" s="1"/>
       <c r="AA291" s="1"/>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -9013,7 +9044,7 @@
       <c r="Z292" s="1"/>
       <c r="AA292" s="1"/>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -9042,7 +9073,7 @@
       <c r="Z293" s="1"/>
       <c r="AA293" s="1"/>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -9071,7 +9102,7 @@
       <c r="Z294" s="1"/>
       <c r="AA294" s="1"/>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -9100,7 +9131,7 @@
       <c r="Z295" s="1"/>
       <c r="AA295" s="1"/>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -9129,7 +9160,7 @@
       <c r="Z296" s="1"/>
       <c r="AA296" s="1"/>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -9158,7 +9189,7 @@
       <c r="Z297" s="1"/>
       <c r="AA297" s="1"/>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -9187,7 +9218,7 @@
       <c r="Z298" s="1"/>
       <c r="AA298" s="1"/>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -9216,7 +9247,7 @@
       <c r="Z299" s="1"/>
       <c r="AA299" s="1"/>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -9245,7 +9276,7 @@
       <c r="Z300" s="1"/>
       <c r="AA300" s="1"/>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -9274,7 +9305,7 @@
       <c r="Z301" s="1"/>
       <c r="AA301" s="1"/>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -9303,7 +9334,7 @@
       <c r="Z302" s="1"/>
       <c r="AA302" s="1"/>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -9332,7 +9363,7 @@
       <c r="Z303" s="1"/>
       <c r="AA303" s="1"/>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -9361,7 +9392,7 @@
       <c r="Z304" s="1"/>
       <c r="AA304" s="1"/>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -9390,7 +9421,7 @@
       <c r="Z305" s="1"/>
       <c r="AA305" s="1"/>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -9419,7 +9450,7 @@
       <c r="Z306" s="1"/>
       <c r="AA306" s="1"/>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -9448,7 +9479,7 @@
       <c r="Z307" s="1"/>
       <c r="AA307" s="1"/>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -9477,7 +9508,7 @@
       <c r="Z308" s="1"/>
       <c r="AA308" s="1"/>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -9506,7 +9537,7 @@
       <c r="Z309" s="1"/>
       <c r="AA309" s="1"/>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -9535,7 +9566,7 @@
       <c r="Z310" s="1"/>
       <c r="AA310" s="1"/>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -9564,7 +9595,7 @@
       <c r="Z311" s="1"/>
       <c r="AA311" s="1"/>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -9593,7 +9624,7 @@
       <c r="Z312" s="1"/>
       <c r="AA312" s="1"/>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -9622,7 +9653,7 @@
       <c r="Z313" s="1"/>
       <c r="AA313" s="1"/>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -9651,7 +9682,7 @@
       <c r="Z314" s="1"/>
       <c r="AA314" s="1"/>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -9680,7 +9711,7 @@
       <c r="Z315" s="1"/>
       <c r="AA315" s="1"/>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -9709,7 +9740,7 @@
       <c r="Z316" s="1"/>
       <c r="AA316" s="1"/>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -9738,7 +9769,7 @@
       <c r="Z317" s="1"/>
       <c r="AA317" s="1"/>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -9767,7 +9798,7 @@
       <c r="Z318" s="1"/>
       <c r="AA318" s="1"/>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -9796,7 +9827,7 @@
       <c r="Z319" s="1"/>
       <c r="AA319" s="1"/>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -9825,7 +9856,7 @@
       <c r="Z320" s="1"/>
       <c r="AA320" s="1"/>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -9854,7 +9885,7 @@
       <c r="Z321" s="1"/>
       <c r="AA321" s="1"/>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -9883,7 +9914,7 @@
       <c r="Z322" s="1"/>
       <c r="AA322" s="1"/>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -9912,7 +9943,7 @@
       <c r="Z323" s="1"/>
       <c r="AA323" s="1"/>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -9941,7 +9972,7 @@
       <c r="Z324" s="1"/>
       <c r="AA324" s="1"/>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -9970,7 +10001,7 @@
       <c r="Z325" s="1"/>
       <c r="AA325" s="1"/>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -9999,7 +10030,7 @@
       <c r="Z326" s="1"/>
       <c r="AA326" s="1"/>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -10028,7 +10059,7 @@
       <c r="Z327" s="1"/>
       <c r="AA327" s="1"/>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -10057,7 +10088,7 @@
       <c r="Z328" s="1"/>
       <c r="AA328" s="1"/>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -10086,7 +10117,7 @@
       <c r="Z329" s="1"/>
       <c r="AA329" s="1"/>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -10115,7 +10146,7 @@
       <c r="Z330" s="1"/>
       <c r="AA330" s="1"/>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -10144,7 +10175,7 @@
       <c r="Z331" s="1"/>
       <c r="AA331" s="1"/>
     </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -10173,7 +10204,7 @@
       <c r="Z332" s="1"/>
       <c r="AA332" s="1"/>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -10202,7 +10233,7 @@
       <c r="Z333" s="1"/>
       <c r="AA333" s="1"/>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -10231,7 +10262,7 @@
       <c r="Z334" s="1"/>
       <c r="AA334" s="1"/>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -10260,7 +10291,7 @@
       <c r="Z335" s="1"/>
       <c r="AA335" s="1"/>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -10289,7 +10320,7 @@
       <c r="Z336" s="1"/>
       <c r="AA336" s="1"/>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -10318,7 +10349,7 @@
       <c r="Z337" s="1"/>
       <c r="AA337" s="1"/>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -10347,7 +10378,7 @@
       <c r="Z338" s="1"/>
       <c r="AA338" s="1"/>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -10376,7 +10407,7 @@
       <c r="Z339" s="1"/>
       <c r="AA339" s="1"/>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -10405,7 +10436,7 @@
       <c r="Z340" s="1"/>
       <c r="AA340" s="1"/>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -10434,7 +10465,7 @@
       <c r="Z341" s="1"/>
       <c r="AA341" s="1"/>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -10463,7 +10494,7 @@
       <c r="Z342" s="1"/>
       <c r="AA342" s="1"/>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -10492,7 +10523,7 @@
       <c r="Z343" s="1"/>
       <c r="AA343" s="1"/>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -10521,7 +10552,7 @@
       <c r="Z344" s="1"/>
       <c r="AA344" s="1"/>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -10550,7 +10581,7 @@
       <c r="Z345" s="1"/>
       <c r="AA345" s="1"/>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -10579,7 +10610,7 @@
       <c r="Z346" s="1"/>
       <c r="AA346" s="1"/>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -10608,7 +10639,7 @@
       <c r="Z347" s="1"/>
       <c r="AA347" s="1"/>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -10637,7 +10668,7 @@
       <c r="Z348" s="1"/>
       <c r="AA348" s="1"/>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -10666,7 +10697,7 @@
       <c r="Z349" s="1"/>
       <c r="AA349" s="1"/>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -10695,7 +10726,7 @@
       <c r="Z350" s="1"/>
       <c r="AA350" s="1"/>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -10724,7 +10755,7 @@
       <c r="Z351" s="1"/>
       <c r="AA351" s="1"/>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -10753,7 +10784,7 @@
       <c r="Z352" s="1"/>
       <c r="AA352" s="1"/>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -10782,7 +10813,7 @@
       <c r="Z353" s="1"/>
       <c r="AA353" s="1"/>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -10811,7 +10842,7 @@
       <c r="Z354" s="1"/>
       <c r="AA354" s="1"/>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -10840,7 +10871,7 @@
       <c r="Z355" s="1"/>
       <c r="AA355" s="1"/>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -10869,7 +10900,7 @@
       <c r="Z356" s="1"/>
       <c r="AA356" s="1"/>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -10898,7 +10929,7 @@
       <c r="Z357" s="1"/>
       <c r="AA357" s="1"/>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -10927,7 +10958,7 @@
       <c r="Z358" s="1"/>
       <c r="AA358" s="1"/>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -10956,7 +10987,7 @@
       <c r="Z359" s="1"/>
       <c r="AA359" s="1"/>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -10985,7 +11016,7 @@
       <c r="Z360" s="1"/>
       <c r="AA360" s="1"/>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -11014,7 +11045,7 @@
       <c r="Z361" s="1"/>
       <c r="AA361" s="1"/>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -11043,7 +11074,7 @@
       <c r="Z362" s="1"/>
       <c r="AA362" s="1"/>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -11072,7 +11103,7 @@
       <c r="Z363" s="1"/>
       <c r="AA363" s="1"/>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -11101,7 +11132,7 @@
       <c r="Z364" s="1"/>
       <c r="AA364" s="1"/>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -11130,7 +11161,7 @@
       <c r="Z365" s="1"/>
       <c r="AA365" s="1"/>
     </row>
-    <row r="366" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -11159,7 +11190,7 @@
       <c r="Z366" s="1"/>
       <c r="AA366" s="1"/>
     </row>
-    <row r="367" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -11188,7 +11219,7 @@
       <c r="Z367" s="1"/>
       <c r="AA367" s="1"/>
     </row>
-    <row r="368" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -11217,7 +11248,7 @@
       <c r="Z368" s="1"/>
       <c r="AA368" s="1"/>
     </row>
-    <row r="369" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -11246,7 +11277,7 @@
       <c r="Z369" s="1"/>
       <c r="AA369" s="1"/>
     </row>
-    <row r="370" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -11275,7 +11306,7 @@
       <c r="Z370" s="1"/>
       <c r="AA370" s="1"/>
     </row>
-    <row r="371" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -11304,7 +11335,7 @@
       <c r="Z371" s="1"/>
       <c r="AA371" s="1"/>
     </row>
-    <row r="372" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -11333,7 +11364,7 @@
       <c r="Z372" s="1"/>
       <c r="AA372" s="1"/>
     </row>
-    <row r="373" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -11362,7 +11393,7 @@
       <c r="Z373" s="1"/>
       <c r="AA373" s="1"/>
     </row>
-    <row r="374" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -11391,7 +11422,7 @@
       <c r="Z374" s="1"/>
       <c r="AA374" s="1"/>
     </row>
-    <row r="375" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -11420,7 +11451,7 @@
       <c r="Z375" s="1"/>
       <c r="AA375" s="1"/>
     </row>
-    <row r="376" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -11449,7 +11480,7 @@
       <c r="Z376" s="1"/>
       <c r="AA376" s="1"/>
     </row>
-    <row r="377" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -11478,7 +11509,7 @@
       <c r="Z377" s="1"/>
       <c r="AA377" s="1"/>
     </row>
-    <row r="378" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -11507,7 +11538,7 @@
       <c r="Z378" s="1"/>
       <c r="AA378" s="1"/>
     </row>
-    <row r="379" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -11536,7 +11567,7 @@
       <c r="Z379" s="1"/>
       <c r="AA379" s="1"/>
     </row>
-    <row r="380" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -11565,7 +11596,7 @@
       <c r="Z380" s="1"/>
       <c r="AA380" s="1"/>
     </row>
-    <row r="381" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -11594,7 +11625,7 @@
       <c r="Z381" s="1"/>
       <c r="AA381" s="1"/>
     </row>
-    <row r="382" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -11623,7 +11654,7 @@
       <c r="Z382" s="1"/>
       <c r="AA382" s="1"/>
     </row>
-    <row r="383" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -11652,7 +11683,7 @@
       <c r="Z383" s="1"/>
       <c r="AA383" s="1"/>
     </row>
-    <row r="384" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -11681,7 +11712,7 @@
       <c r="Z384" s="1"/>
       <c r="AA384" s="1"/>
     </row>
-    <row r="385" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -11710,7 +11741,7 @@
       <c r="Z385" s="1"/>
       <c r="AA385" s="1"/>
     </row>
-    <row r="386" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -11739,7 +11770,7 @@
       <c r="Z386" s="1"/>
       <c r="AA386" s="1"/>
     </row>
-    <row r="387" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -11768,7 +11799,7 @@
       <c r="Z387" s="1"/>
       <c r="AA387" s="1"/>
     </row>
-    <row r="388" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -11797,7 +11828,7 @@
       <c r="Z388" s="1"/>
       <c r="AA388" s="1"/>
     </row>
-    <row r="389" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -11826,7 +11857,7 @@
       <c r="Z389" s="1"/>
       <c r="AA389" s="1"/>
     </row>
-    <row r="390" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -11855,7 +11886,7 @@
       <c r="Z390" s="1"/>
       <c r="AA390" s="1"/>
     </row>
-    <row r="391" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -11884,7 +11915,7 @@
       <c r="Z391" s="1"/>
       <c r="AA391" s="1"/>
     </row>
-    <row r="392" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -11913,7 +11944,7 @@
       <c r="Z392" s="1"/>
       <c r="AA392" s="1"/>
     </row>
-    <row r="393" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -11942,7 +11973,7 @@
       <c r="Z393" s="1"/>
       <c r="AA393" s="1"/>
     </row>
-    <row r="394" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -11971,7 +12002,7 @@
       <c r="Z394" s="1"/>
       <c r="AA394" s="1"/>
     </row>
-    <row r="395" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -12000,7 +12031,7 @@
       <c r="Z395" s="1"/>
       <c r="AA395" s="1"/>
     </row>
-    <row r="396" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -12029,7 +12060,7 @@
       <c r="Z396" s="1"/>
       <c r="AA396" s="1"/>
     </row>
-    <row r="397" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -12058,7 +12089,7 @@
       <c r="Z397" s="1"/>
       <c r="AA397" s="1"/>
     </row>
-    <row r="398" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -12087,7 +12118,7 @@
       <c r="Z398" s="1"/>
       <c r="AA398" s="1"/>
     </row>
-    <row r="399" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -12116,7 +12147,7 @@
       <c r="Z399" s="1"/>
       <c r="AA399" s="1"/>
     </row>
-    <row r="400" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -12145,7 +12176,7 @@
       <c r="Z400" s="1"/>
       <c r="AA400" s="1"/>
     </row>
-    <row r="401" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -12174,7 +12205,7 @@
       <c r="Z401" s="1"/>
       <c r="AA401" s="1"/>
     </row>
-    <row r="402" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -12203,7 +12234,7 @@
       <c r="Z402" s="1"/>
       <c r="AA402" s="1"/>
     </row>
-    <row r="403" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -12232,7 +12263,7 @@
       <c r="Z403" s="1"/>
       <c r="AA403" s="1"/>
     </row>
-    <row r="404" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -12261,7 +12292,7 @@
       <c r="Z404" s="1"/>
       <c r="AA404" s="1"/>
     </row>
-    <row r="405" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -12290,7 +12321,7 @@
       <c r="Z405" s="1"/>
       <c r="AA405" s="1"/>
     </row>
-    <row r="406" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -12319,7 +12350,7 @@
       <c r="Z406" s="1"/>
       <c r="AA406" s="1"/>
     </row>
-    <row r="407" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -12348,7 +12379,7 @@
       <c r="Z407" s="1"/>
       <c r="AA407" s="1"/>
     </row>
-    <row r="408" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -12377,7 +12408,7 @@
       <c r="Z408" s="1"/>
       <c r="AA408" s="1"/>
     </row>
-    <row r="409" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -12406,7 +12437,7 @@
       <c r="Z409" s="1"/>
       <c r="AA409" s="1"/>
     </row>
-    <row r="410" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -12435,7 +12466,7 @@
       <c r="Z410" s="1"/>
       <c r="AA410" s="1"/>
     </row>
-    <row r="411" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -12464,7 +12495,7 @@
       <c r="Z411" s="1"/>
       <c r="AA411" s="1"/>
     </row>
-    <row r="412" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -12493,7 +12524,7 @@
       <c r="Z412" s="1"/>
       <c r="AA412" s="1"/>
     </row>
-    <row r="413" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -12522,7 +12553,7 @@
       <c r="Z413" s="1"/>
       <c r="AA413" s="1"/>
     </row>
-    <row r="414" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -12551,7 +12582,7 @@
       <c r="Z414" s="1"/>
       <c r="AA414" s="1"/>
     </row>
-    <row r="415" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -12580,7 +12611,7 @@
       <c r="Z415" s="1"/>
       <c r="AA415" s="1"/>
     </row>
-    <row r="416" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -12609,7 +12640,7 @@
       <c r="Z416" s="1"/>
       <c r="AA416" s="1"/>
     </row>
-    <row r="417" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -12638,7 +12669,7 @@
       <c r="Z417" s="1"/>
       <c r="AA417" s="1"/>
     </row>
-    <row r="418" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -12667,7 +12698,7 @@
       <c r="Z418" s="1"/>
       <c r="AA418" s="1"/>
     </row>
-    <row r="419" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -12696,7 +12727,7 @@
       <c r="Z419" s="1"/>
       <c r="AA419" s="1"/>
     </row>
-    <row r="420" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -12725,7 +12756,7 @@
       <c r="Z420" s="1"/>
       <c r="AA420" s="1"/>
     </row>
-    <row r="421" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -12754,7 +12785,7 @@
       <c r="Z421" s="1"/>
       <c r="AA421" s="1"/>
     </row>
-    <row r="422" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -12783,7 +12814,7 @@
       <c r="Z422" s="1"/>
       <c r="AA422" s="1"/>
     </row>
-    <row r="423" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -12812,7 +12843,7 @@
       <c r="Z423" s="1"/>
       <c r="AA423" s="1"/>
     </row>
-    <row r="424" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -12841,7 +12872,7 @@
       <c r="Z424" s="1"/>
       <c r="AA424" s="1"/>
     </row>
-    <row r="425" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -12870,7 +12901,7 @@
       <c r="Z425" s="1"/>
       <c r="AA425" s="1"/>
     </row>
-    <row r="426" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -12899,7 +12930,7 @@
       <c r="Z426" s="1"/>
       <c r="AA426" s="1"/>
     </row>
-    <row r="427" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -12928,7 +12959,7 @@
       <c r="Z427" s="1"/>
       <c r="AA427" s="1"/>
     </row>
-    <row r="428" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -12957,7 +12988,7 @@
       <c r="Z428" s="1"/>
       <c r="AA428" s="1"/>
     </row>
-    <row r="429" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -12986,7 +13017,7 @@
       <c r="Z429" s="1"/>
       <c r="AA429" s="1"/>
     </row>
-    <row r="430" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -13015,7 +13046,7 @@
       <c r="Z430" s="1"/>
       <c r="AA430" s="1"/>
     </row>
-    <row r="431" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -13044,7 +13075,7 @@
       <c r="Z431" s="1"/>
       <c r="AA431" s="1"/>
     </row>
-    <row r="432" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -13073,7 +13104,7 @@
       <c r="Z432" s="1"/>
       <c r="AA432" s="1"/>
     </row>
-    <row r="433" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -13102,7 +13133,7 @@
       <c r="Z433" s="1"/>
       <c r="AA433" s="1"/>
     </row>
-    <row r="434" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -13131,7 +13162,7 @@
       <c r="Z434" s="1"/>
       <c r="AA434" s="1"/>
     </row>
-    <row r="435" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -13160,7 +13191,7 @@
       <c r="Z435" s="1"/>
       <c r="AA435" s="1"/>
     </row>
-    <row r="436" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -13189,7 +13220,7 @@
       <c r="Z436" s="1"/>
       <c r="AA436" s="1"/>
     </row>
-    <row r="437" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -13218,7 +13249,7 @@
       <c r="Z437" s="1"/>
       <c r="AA437" s="1"/>
     </row>
-    <row r="438" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -13247,7 +13278,7 @@
       <c r="Z438" s="1"/>
       <c r="AA438" s="1"/>
     </row>
-    <row r="439" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -13276,7 +13307,7 @@
       <c r="Z439" s="1"/>
       <c r="AA439" s="1"/>
     </row>
-    <row r="440" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -13305,7 +13336,7 @@
       <c r="Z440" s="1"/>
       <c r="AA440" s="1"/>
     </row>
-    <row r="441" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -13334,7 +13365,7 @@
       <c r="Z441" s="1"/>
       <c r="AA441" s="1"/>
     </row>
-    <row r="442" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -13363,7 +13394,7 @@
       <c r="Z442" s="1"/>
       <c r="AA442" s="1"/>
     </row>
-    <row r="443" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -13392,7 +13423,7 @@
       <c r="Z443" s="1"/>
       <c r="AA443" s="1"/>
     </row>
-    <row r="444" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -13421,7 +13452,7 @@
       <c r="Z444" s="1"/>
       <c r="AA444" s="1"/>
     </row>
-    <row r="445" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -13450,7 +13481,7 @@
       <c r="Z445" s="1"/>
       <c r="AA445" s="1"/>
     </row>
-    <row r="446" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -13479,7 +13510,7 @@
       <c r="Z446" s="1"/>
       <c r="AA446" s="1"/>
     </row>
-    <row r="447" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -13508,7 +13539,7 @@
       <c r="Z447" s="1"/>
       <c r="AA447" s="1"/>
     </row>
-    <row r="448" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -13537,7 +13568,7 @@
       <c r="Z448" s="1"/>
       <c r="AA448" s="1"/>
     </row>
-    <row r="449" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -13566,7 +13597,7 @@
       <c r="Z449" s="1"/>
       <c r="AA449" s="1"/>
     </row>
-    <row r="450" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -13595,7 +13626,7 @@
       <c r="Z450" s="1"/>
       <c r="AA450" s="1"/>
     </row>
-    <row r="451" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -13624,7 +13655,7 @@
       <c r="Z451" s="1"/>
       <c r="AA451" s="1"/>
     </row>
-    <row r="452" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -13653,7 +13684,7 @@
       <c r="Z452" s="1"/>
       <c r="AA452" s="1"/>
     </row>
-    <row r="453" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -13682,7 +13713,7 @@
       <c r="Z453" s="1"/>
       <c r="AA453" s="1"/>
     </row>
-    <row r="454" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -13711,7 +13742,7 @@
       <c r="Z454" s="1"/>
       <c r="AA454" s="1"/>
     </row>
-    <row r="455" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -13740,7 +13771,7 @@
       <c r="Z455" s="1"/>
       <c r="AA455" s="1"/>
     </row>
-    <row r="456" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -13769,7 +13800,7 @@
       <c r="Z456" s="1"/>
       <c r="AA456" s="1"/>
     </row>
-    <row r="457" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -13798,7 +13829,7 @@
       <c r="Z457" s="1"/>
       <c r="AA457" s="1"/>
     </row>
-    <row r="458" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -13827,7 +13858,7 @@
       <c r="Z458" s="1"/>
       <c r="AA458" s="1"/>
     </row>
-    <row r="459" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -13856,7 +13887,7 @@
       <c r="Z459" s="1"/>
       <c r="AA459" s="1"/>
     </row>
-    <row r="460" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -13885,7 +13916,7 @@
       <c r="Z460" s="1"/>
       <c r="AA460" s="1"/>
     </row>
-    <row r="461" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -13914,7 +13945,7 @@
       <c r="Z461" s="1"/>
       <c r="AA461" s="1"/>
     </row>
-    <row r="462" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -13943,7 +13974,7 @@
       <c r="Z462" s="1"/>
       <c r="AA462" s="1"/>
     </row>
-    <row r="463" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -13972,7 +14003,7 @@
       <c r="Z463" s="1"/>
       <c r="AA463" s="1"/>
     </row>
-    <row r="464" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -14001,7 +14032,7 @@
       <c r="Z464" s="1"/>
       <c r="AA464" s="1"/>
     </row>
-    <row r="465" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -14030,7 +14061,7 @@
       <c r="Z465" s="1"/>
       <c r="AA465" s="1"/>
     </row>
-    <row r="466" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -14059,7 +14090,7 @@
       <c r="Z466" s="1"/>
       <c r="AA466" s="1"/>
     </row>
-    <row r="467" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -14088,7 +14119,7 @@
       <c r="Z467" s="1"/>
       <c r="AA467" s="1"/>
     </row>
-    <row r="468" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -14117,7 +14148,7 @@
       <c r="Z468" s="1"/>
       <c r="AA468" s="1"/>
     </row>
-    <row r="469" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -14146,7 +14177,7 @@
       <c r="Z469" s="1"/>
       <c r="AA469" s="1"/>
     </row>
-    <row r="470" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -14175,7 +14206,7 @@
       <c r="Z470" s="1"/>
       <c r="AA470" s="1"/>
     </row>
-    <row r="471" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -14204,7 +14235,7 @@
       <c r="Z471" s="1"/>
       <c r="AA471" s="1"/>
     </row>
-    <row r="472" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -14233,7 +14264,7 @@
       <c r="Z472" s="1"/>
       <c r="AA472" s="1"/>
     </row>
-    <row r="473" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -14262,7 +14293,7 @@
       <c r="Z473" s="1"/>
       <c r="AA473" s="1"/>
     </row>
-    <row r="474" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -14291,7 +14322,7 @@
       <c r="Z474" s="1"/>
       <c r="AA474" s="1"/>
     </row>
-    <row r="475" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -14320,7 +14351,7 @@
       <c r="Z475" s="1"/>
       <c r="AA475" s="1"/>
     </row>
-    <row r="476" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -14349,7 +14380,7 @@
       <c r="Z476" s="1"/>
       <c r="AA476" s="1"/>
     </row>
-    <row r="477" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -14378,7 +14409,7 @@
       <c r="Z477" s="1"/>
       <c r="AA477" s="1"/>
     </row>
-    <row r="478" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -14407,7 +14438,7 @@
       <c r="Z478" s="1"/>
       <c r="AA478" s="1"/>
     </row>
-    <row r="479" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -14436,7 +14467,7 @@
       <c r="Z479" s="1"/>
       <c r="AA479" s="1"/>
     </row>
-    <row r="480" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -14465,7 +14496,7 @@
       <c r="Z480" s="1"/>
       <c r="AA480" s="1"/>
     </row>
-    <row r="481" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -14494,7 +14525,7 @@
       <c r="Z481" s="1"/>
       <c r="AA481" s="1"/>
     </row>
-    <row r="482" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -14523,7 +14554,7 @@
       <c r="Z482" s="1"/>
       <c r="AA482" s="1"/>
     </row>
-    <row r="483" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -14552,7 +14583,7 @@
       <c r="Z483" s="1"/>
       <c r="AA483" s="1"/>
     </row>
-    <row r="484" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -14581,7 +14612,7 @@
       <c r="Z484" s="1"/>
       <c r="AA484" s="1"/>
     </row>
-    <row r="485" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -14610,7 +14641,7 @@
       <c r="Z485" s="1"/>
       <c r="AA485" s="1"/>
     </row>
-    <row r="486" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -14639,7 +14670,7 @@
       <c r="Z486" s="1"/>
       <c r="AA486" s="1"/>
     </row>
-    <row r="487" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -14668,7 +14699,7 @@
       <c r="Z487" s="1"/>
       <c r="AA487" s="1"/>
     </row>
-    <row r="488" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -14697,7 +14728,7 @@
       <c r="Z488" s="1"/>
       <c r="AA488" s="1"/>
     </row>
-    <row r="489" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -14726,7 +14757,7 @@
       <c r="Z489" s="1"/>
       <c r="AA489" s="1"/>
     </row>
-    <row r="490" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -14755,7 +14786,7 @@
       <c r="Z490" s="1"/>
       <c r="AA490" s="1"/>
     </row>
-    <row r="491" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -14784,7 +14815,7 @@
       <c r="Z491" s="1"/>
       <c r="AA491" s="1"/>
     </row>
-    <row r="492" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -14813,7 +14844,7 @@
       <c r="Z492" s="1"/>
       <c r="AA492" s="1"/>
     </row>
-    <row r="493" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -14842,7 +14873,7 @@
       <c r="Z493" s="1"/>
       <c r="AA493" s="1"/>
     </row>
-    <row r="494" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -14871,7 +14902,7 @@
       <c r="Z494" s="1"/>
       <c r="AA494" s="1"/>
     </row>
-    <row r="495" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -14900,7 +14931,7 @@
       <c r="Z495" s="1"/>
       <c r="AA495" s="1"/>
     </row>
-    <row r="496" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -14929,7 +14960,7 @@
       <c r="Z496" s="1"/>
       <c r="AA496" s="1"/>
     </row>
-    <row r="497" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -14958,7 +14989,7 @@
       <c r="Z497" s="1"/>
       <c r="AA497" s="1"/>
     </row>
-    <row r="498" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -14987,7 +15018,7 @@
       <c r="Z498" s="1"/>
       <c r="AA498" s="1"/>
     </row>
-    <row r="499" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -15016,7 +15047,7 @@
       <c r="Z499" s="1"/>
       <c r="AA499" s="1"/>
     </row>
-    <row r="500" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -15045,7 +15076,7 @@
       <c r="Z500" s="1"/>
       <c r="AA500" s="1"/>
     </row>
-    <row r="501" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -15074,7 +15105,7 @@
       <c r="Z501" s="1"/>
       <c r="AA501" s="1"/>
     </row>
-    <row r="502" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -15103,7 +15134,7 @@
       <c r="Z502" s="1"/>
       <c r="AA502" s="1"/>
     </row>
-    <row r="503" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -15132,7 +15163,7 @@
       <c r="Z503" s="1"/>
       <c r="AA503" s="1"/>
     </row>
-    <row r="504" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -15161,7 +15192,7 @@
       <c r="Z504" s="1"/>
       <c r="AA504" s="1"/>
     </row>
-    <row r="505" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -15190,7 +15221,7 @@
       <c r="Z505" s="1"/>
       <c r="AA505" s="1"/>
     </row>
-    <row r="506" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -15219,7 +15250,7 @@
       <c r="Z506" s="1"/>
       <c r="AA506" s="1"/>
     </row>
-    <row r="507" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -15248,7 +15279,7 @@
       <c r="Z507" s="1"/>
       <c r="AA507" s="1"/>
     </row>
-    <row r="508" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -15277,7 +15308,7 @@
       <c r="Z508" s="1"/>
       <c r="AA508" s="1"/>
     </row>
-    <row r="509" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -15306,7 +15337,7 @@
       <c r="Z509" s="1"/>
       <c r="AA509" s="1"/>
     </row>
-    <row r="510" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -15335,7 +15366,7 @@
       <c r="Z510" s="1"/>
       <c r="AA510" s="1"/>
     </row>
-    <row r="511" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -15364,7 +15395,7 @@
       <c r="Z511" s="1"/>
       <c r="AA511" s="1"/>
     </row>
-    <row r="512" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -15393,7 +15424,7 @@
       <c r="Z512" s="1"/>
       <c r="AA512" s="1"/>
     </row>
-    <row r="513" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -15422,7 +15453,7 @@
       <c r="Z513" s="1"/>
       <c r="AA513" s="1"/>
     </row>
-    <row r="514" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -15451,7 +15482,7 @@
       <c r="Z514" s="1"/>
       <c r="AA514" s="1"/>
     </row>
-    <row r="515" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -15480,7 +15511,7 @@
       <c r="Z515" s="1"/>
       <c r="AA515" s="1"/>
     </row>
-    <row r="516" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -15509,7 +15540,7 @@
       <c r="Z516" s="1"/>
       <c r="AA516" s="1"/>
     </row>
-    <row r="517" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -15538,7 +15569,7 @@
       <c r="Z517" s="1"/>
       <c r="AA517" s="1"/>
     </row>
-    <row r="518" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -15567,7 +15598,7 @@
       <c r="Z518" s="1"/>
       <c r="AA518" s="1"/>
     </row>
-    <row r="519" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -15596,7 +15627,7 @@
       <c r="Z519" s="1"/>
       <c r="AA519" s="1"/>
     </row>
-    <row r="520" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -15625,7 +15656,7 @@
       <c r="Z520" s="1"/>
       <c r="AA520" s="1"/>
     </row>
-    <row r="521" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -15654,7 +15685,7 @@
       <c r="Z521" s="1"/>
       <c r="AA521" s="1"/>
     </row>
-    <row r="522" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -15683,7 +15714,7 @@
       <c r="Z522" s="1"/>
       <c r="AA522" s="1"/>
     </row>
-    <row r="523" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -15712,7 +15743,7 @@
       <c r="Z523" s="1"/>
       <c r="AA523" s="1"/>
     </row>
-    <row r="524" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -15741,7 +15772,7 @@
       <c r="Z524" s="1"/>
       <c r="AA524" s="1"/>
     </row>
-    <row r="525" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -15770,7 +15801,7 @@
       <c r="Z525" s="1"/>
       <c r="AA525" s="1"/>
     </row>
-    <row r="526" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -15799,7 +15830,7 @@
       <c r="Z526" s="1"/>
       <c r="AA526" s="1"/>
     </row>
-    <row r="527" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -15828,7 +15859,7 @@
       <c r="Z527" s="1"/>
       <c r="AA527" s="1"/>
     </row>
-    <row r="528" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -15857,7 +15888,7 @@
       <c r="Z528" s="1"/>
       <c r="AA528" s="1"/>
     </row>
-    <row r="529" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -15886,7 +15917,7 @@
       <c r="Z529" s="1"/>
       <c r="AA529" s="1"/>
     </row>
-    <row r="530" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -15915,7 +15946,7 @@
       <c r="Z530" s="1"/>
       <c r="AA530" s="1"/>
     </row>
-    <row r="531" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -15944,7 +15975,7 @@
       <c r="Z531" s="1"/>
       <c r="AA531" s="1"/>
     </row>
-    <row r="532" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -15973,7 +16004,7 @@
       <c r="Z532" s="1"/>
       <c r="AA532" s="1"/>
     </row>
-    <row r="533" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -16002,7 +16033,7 @@
       <c r="Z533" s="1"/>
       <c r="AA533" s="1"/>
     </row>
-    <row r="534" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -16031,7 +16062,7 @@
       <c r="Z534" s="1"/>
       <c r="AA534" s="1"/>
     </row>
-    <row r="535" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -16060,7 +16091,7 @@
       <c r="Z535" s="1"/>
       <c r="AA535" s="1"/>
     </row>
-    <row r="536" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -16089,7 +16120,7 @@
       <c r="Z536" s="1"/>
       <c r="AA536" s="1"/>
     </row>
-    <row r="537" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -16118,7 +16149,7 @@
       <c r="Z537" s="1"/>
       <c r="AA537" s="1"/>
     </row>
-    <row r="538" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -16147,7 +16178,7 @@
       <c r="Z538" s="1"/>
       <c r="AA538" s="1"/>
     </row>
-    <row r="539" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -16176,7 +16207,7 @@
       <c r="Z539" s="1"/>
       <c r="AA539" s="1"/>
     </row>
-    <row r="540" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -16205,7 +16236,7 @@
       <c r="Z540" s="1"/>
       <c r="AA540" s="1"/>
     </row>
-    <row r="541" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -16234,7 +16265,7 @@
       <c r="Z541" s="1"/>
       <c r="AA541" s="1"/>
     </row>
-    <row r="542" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -16263,7 +16294,7 @@
       <c r="Z542" s="1"/>
       <c r="AA542" s="1"/>
     </row>
-    <row r="543" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -16292,7 +16323,7 @@
       <c r="Z543" s="1"/>
       <c r="AA543" s="1"/>
     </row>
-    <row r="544" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -16321,7 +16352,7 @@
       <c r="Z544" s="1"/>
       <c r="AA544" s="1"/>
     </row>
-    <row r="545" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -16350,7 +16381,7 @@
       <c r="Z545" s="1"/>
       <c r="AA545" s="1"/>
     </row>
-    <row r="546" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -16379,7 +16410,7 @@
       <c r="Z546" s="1"/>
       <c r="AA546" s="1"/>
     </row>
-    <row r="547" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -16408,7 +16439,7 @@
       <c r="Z547" s="1"/>
       <c r="AA547" s="1"/>
     </row>
-    <row r="548" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -16437,7 +16468,7 @@
       <c r="Z548" s="1"/>
       <c r="AA548" s="1"/>
     </row>
-    <row r="549" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -16466,7 +16497,7 @@
       <c r="Z549" s="1"/>
       <c r="AA549" s="1"/>
     </row>
-    <row r="550" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -16495,7 +16526,7 @@
       <c r="Z550" s="1"/>
       <c r="AA550" s="1"/>
     </row>
-    <row r="551" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -16524,7 +16555,7 @@
       <c r="Z551" s="1"/>
       <c r="AA551" s="1"/>
     </row>
-    <row r="552" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -16553,7 +16584,7 @@
       <c r="Z552" s="1"/>
       <c r="AA552" s="1"/>
     </row>
-    <row r="553" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -16582,7 +16613,7 @@
       <c r="Z553" s="1"/>
       <c r="AA553" s="1"/>
     </row>
-    <row r="554" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -16611,7 +16642,7 @@
       <c r="Z554" s="1"/>
       <c r="AA554" s="1"/>
     </row>
-    <row r="555" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -16640,7 +16671,7 @@
       <c r="Z555" s="1"/>
       <c r="AA555" s="1"/>
     </row>
-    <row r="556" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -16669,7 +16700,7 @@
       <c r="Z556" s="1"/>
       <c r="AA556" s="1"/>
     </row>
-    <row r="557" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -16698,7 +16729,7 @@
       <c r="Z557" s="1"/>
       <c r="AA557" s="1"/>
     </row>
-    <row r="558" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -16727,7 +16758,7 @@
       <c r="Z558" s="1"/>
       <c r="AA558" s="1"/>
     </row>
-    <row r="559" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -16756,7 +16787,7 @@
       <c r="Z559" s="1"/>
       <c r="AA559" s="1"/>
     </row>
-    <row r="560" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -16785,7 +16816,7 @@
       <c r="Z560" s="1"/>
       <c r="AA560" s="1"/>
     </row>
-    <row r="561" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -16814,7 +16845,7 @@
       <c r="Z561" s="1"/>
       <c r="AA561" s="1"/>
     </row>
-    <row r="562" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -16843,7 +16874,7 @@
       <c r="Z562" s="1"/>
       <c r="AA562" s="1"/>
     </row>
-    <row r="563" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -16872,7 +16903,7 @@
       <c r="Z563" s="1"/>
       <c r="AA563" s="1"/>
     </row>
-    <row r="564" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -16901,7 +16932,7 @@
       <c r="Z564" s="1"/>
       <c r="AA564" s="1"/>
     </row>
-    <row r="565" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -16930,7 +16961,7 @@
       <c r="Z565" s="1"/>
       <c r="AA565" s="1"/>
     </row>
-    <row r="566" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -16959,7 +16990,7 @@
       <c r="Z566" s="1"/>
       <c r="AA566" s="1"/>
     </row>
-    <row r="567" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -16988,7 +17019,7 @@
       <c r="Z567" s="1"/>
       <c r="AA567" s="1"/>
     </row>
-    <row r="568" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -17017,7 +17048,7 @@
       <c r="Z568" s="1"/>
       <c r="AA568" s="1"/>
     </row>
-    <row r="569" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -17046,7 +17077,7 @@
       <c r="Z569" s="1"/>
       <c r="AA569" s="1"/>
     </row>
-    <row r="570" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -17075,7 +17106,7 @@
       <c r="Z570" s="1"/>
       <c r="AA570" s="1"/>
     </row>
-    <row r="571" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -17104,7 +17135,7 @@
       <c r="Z571" s="1"/>
       <c r="AA571" s="1"/>
     </row>
-    <row r="572" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -17133,7 +17164,7 @@
       <c r="Z572" s="1"/>
       <c r="AA572" s="1"/>
     </row>
-    <row r="573" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -17162,7 +17193,7 @@
       <c r="Z573" s="1"/>
       <c r="AA573" s="1"/>
     </row>
-    <row r="574" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -17191,7 +17222,7 @@
       <c r="Z574" s="1"/>
       <c r="AA574" s="1"/>
     </row>
-    <row r="575" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -17220,7 +17251,7 @@
       <c r="Z575" s="1"/>
       <c r="AA575" s="1"/>
     </row>
-    <row r="576" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -17249,7 +17280,7 @@
       <c r="Z576" s="1"/>
       <c r="AA576" s="1"/>
     </row>
-    <row r="577" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -17278,7 +17309,7 @@
       <c r="Z577" s="1"/>
       <c r="AA577" s="1"/>
     </row>
-    <row r="578" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -17307,7 +17338,7 @@
       <c r="Z578" s="1"/>
       <c r="AA578" s="1"/>
     </row>
-    <row r="579" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -17336,7 +17367,7 @@
       <c r="Z579" s="1"/>
       <c r="AA579" s="1"/>
     </row>
-    <row r="580" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -17365,7 +17396,7 @@
       <c r="Z580" s="1"/>
       <c r="AA580" s="1"/>
     </row>
-    <row r="581" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -17394,7 +17425,7 @@
       <c r="Z581" s="1"/>
       <c r="AA581" s="1"/>
     </row>
-    <row r="582" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -17423,7 +17454,7 @@
       <c r="Z582" s="1"/>
       <c r="AA582" s="1"/>
     </row>
-    <row r="583" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -17452,7 +17483,7 @@
       <c r="Z583" s="1"/>
       <c r="AA583" s="1"/>
     </row>
-    <row r="584" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -17481,7 +17512,7 @@
       <c r="Z584" s="1"/>
       <c r="AA584" s="1"/>
     </row>
-    <row r="585" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -17510,7 +17541,7 @@
       <c r="Z585" s="1"/>
       <c r="AA585" s="1"/>
     </row>
-    <row r="586" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -17539,7 +17570,7 @@
       <c r="Z586" s="1"/>
       <c r="AA586" s="1"/>
     </row>
-    <row r="587" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -17568,7 +17599,7 @@
       <c r="Z587" s="1"/>
       <c r="AA587" s="1"/>
     </row>
-    <row r="588" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -17597,7 +17628,7 @@
       <c r="Z588" s="1"/>
       <c r="AA588" s="1"/>
     </row>
-    <row r="589" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -17626,7 +17657,7 @@
       <c r="Z589" s="1"/>
       <c r="AA589" s="1"/>
     </row>
-    <row r="590" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -17655,7 +17686,7 @@
       <c r="Z590" s="1"/>
       <c r="AA590" s="1"/>
     </row>
-    <row r="591" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -17684,7 +17715,7 @@
       <c r="Z591" s="1"/>
       <c r="AA591" s="1"/>
     </row>
-    <row r="592" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -17713,7 +17744,7 @@
       <c r="Z592" s="1"/>
       <c r="AA592" s="1"/>
     </row>
-    <row r="593" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -17742,7 +17773,7 @@
       <c r="Z593" s="1"/>
       <c r="AA593" s="1"/>
     </row>
-    <row r="594" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -17771,7 +17802,7 @@
       <c r="Z594" s="1"/>
       <c r="AA594" s="1"/>
     </row>
-    <row r="595" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -17800,7 +17831,7 @@
       <c r="Z595" s="1"/>
       <c r="AA595" s="1"/>
     </row>
-    <row r="596" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -17829,7 +17860,7 @@
       <c r="Z596" s="1"/>
       <c r="AA596" s="1"/>
     </row>
-    <row r="597" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -17858,7 +17889,7 @@
       <c r="Z597" s="1"/>
       <c r="AA597" s="1"/>
     </row>
-    <row r="598" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -17887,7 +17918,7 @@
       <c r="Z598" s="1"/>
       <c r="AA598" s="1"/>
     </row>
-    <row r="599" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -17916,7 +17947,7 @@
       <c r="Z599" s="1"/>
       <c r="AA599" s="1"/>
     </row>
-    <row r="600" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -17945,7 +17976,7 @@
       <c r="Z600" s="1"/>
       <c r="AA600" s="1"/>
     </row>
-    <row r="601" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -17974,7 +18005,7 @@
       <c r="Z601" s="1"/>
       <c r="AA601" s="1"/>
     </row>
-    <row r="602" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -18003,7 +18034,7 @@
       <c r="Z602" s="1"/>
       <c r="AA602" s="1"/>
     </row>
-    <row r="603" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -18032,7 +18063,7 @@
       <c r="Z603" s="1"/>
       <c r="AA603" s="1"/>
     </row>
-    <row r="604" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -18061,7 +18092,7 @@
       <c r="Z604" s="1"/>
       <c r="AA604" s="1"/>
     </row>
-    <row r="605" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -18090,7 +18121,7 @@
       <c r="Z605" s="1"/>
       <c r="AA605" s="1"/>
     </row>
-    <row r="606" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -18119,7 +18150,7 @@
       <c r="Z606" s="1"/>
       <c r="AA606" s="1"/>
     </row>
-    <row r="607" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -18148,7 +18179,7 @@
       <c r="Z607" s="1"/>
       <c r="AA607" s="1"/>
     </row>
-    <row r="608" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -18177,7 +18208,7 @@
       <c r="Z608" s="1"/>
       <c r="AA608" s="1"/>
     </row>
-    <row r="609" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -18206,7 +18237,7 @@
       <c r="Z609" s="1"/>
       <c r="AA609" s="1"/>
     </row>
-    <row r="610" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -18235,7 +18266,7 @@
       <c r="Z610" s="1"/>
       <c r="AA610" s="1"/>
     </row>
-    <row r="611" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -18264,7 +18295,7 @@
       <c r="Z611" s="1"/>
       <c r="AA611" s="1"/>
     </row>
-    <row r="612" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -18293,7 +18324,7 @@
       <c r="Z612" s="1"/>
       <c r="AA612" s="1"/>
     </row>
-    <row r="613" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -18322,7 +18353,7 @@
       <c r="Z613" s="1"/>
       <c r="AA613" s="1"/>
     </row>
-    <row r="614" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -18351,7 +18382,7 @@
       <c r="Z614" s="1"/>
       <c r="AA614" s="1"/>
     </row>
-    <row r="615" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -18380,7 +18411,7 @@
       <c r="Z615" s="1"/>
       <c r="AA615" s="1"/>
     </row>
-    <row r="616" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -18409,7 +18440,7 @@
       <c r="Z616" s="1"/>
       <c r="AA616" s="1"/>
     </row>
-    <row r="617" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -18438,7 +18469,7 @@
       <c r="Z617" s="1"/>
       <c r="AA617" s="1"/>
     </row>
-    <row r="618" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -18467,7 +18498,7 @@
       <c r="Z618" s="1"/>
       <c r="AA618" s="1"/>
     </row>
-    <row r="619" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -18496,7 +18527,7 @@
       <c r="Z619" s="1"/>
       <c r="AA619" s="1"/>
     </row>
-    <row r="620" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -18525,7 +18556,7 @@
       <c r="Z620" s="1"/>
       <c r="AA620" s="1"/>
     </row>
-    <row r="621" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -18554,7 +18585,7 @@
       <c r="Z621" s="1"/>
       <c r="AA621" s="1"/>
     </row>
-    <row r="622" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -18583,7 +18614,7 @@
       <c r="Z622" s="1"/>
       <c r="AA622" s="1"/>
     </row>
-    <row r="623" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -18612,7 +18643,7 @@
       <c r="Z623" s="1"/>
       <c r="AA623" s="1"/>
     </row>
-    <row r="624" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -18641,7 +18672,7 @@
       <c r="Z624" s="1"/>
       <c r="AA624" s="1"/>
     </row>
-    <row r="625" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -18670,7 +18701,7 @@
       <c r="Z625" s="1"/>
       <c r="AA625" s="1"/>
     </row>
-    <row r="626" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -18699,7 +18730,7 @@
       <c r="Z626" s="1"/>
       <c r="AA626" s="1"/>
     </row>
-    <row r="627" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -18728,7 +18759,7 @@
       <c r="Z627" s="1"/>
       <c r="AA627" s="1"/>
     </row>
-    <row r="628" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -18757,7 +18788,7 @@
       <c r="Z628" s="1"/>
       <c r="AA628" s="1"/>
     </row>
-    <row r="629" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -18786,7 +18817,7 @@
       <c r="Z629" s="1"/>
       <c r="AA629" s="1"/>
     </row>
-    <row r="630" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -18815,7 +18846,7 @@
       <c r="Z630" s="1"/>
       <c r="AA630" s="1"/>
     </row>
-    <row r="631" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -18844,7 +18875,7 @@
       <c r="Z631" s="1"/>
       <c r="AA631" s="1"/>
     </row>
-    <row r="632" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -18873,7 +18904,7 @@
       <c r="Z632" s="1"/>
       <c r="AA632" s="1"/>
     </row>
-    <row r="633" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -18902,7 +18933,7 @@
       <c r="Z633" s="1"/>
       <c r="AA633" s="1"/>
     </row>
-    <row r="634" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -18931,7 +18962,7 @@
       <c r="Z634" s="1"/>
       <c r="AA634" s="1"/>
     </row>
-    <row r="635" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -18960,7 +18991,7 @@
       <c r="Z635" s="1"/>
       <c r="AA635" s="1"/>
     </row>
-    <row r="636" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -18989,7 +19020,7 @@
       <c r="Z636" s="1"/>
       <c r="AA636" s="1"/>
     </row>
-    <row r="637" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -19018,7 +19049,7 @@
       <c r="Z637" s="1"/>
       <c r="AA637" s="1"/>
     </row>
-    <row r="638" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -19047,7 +19078,7 @@
       <c r="Z638" s="1"/>
       <c r="AA638" s="1"/>
     </row>
-    <row r="639" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -19076,7 +19107,7 @@
       <c r="Z639" s="1"/>
       <c r="AA639" s="1"/>
     </row>
-    <row r="640" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -19105,7 +19136,7 @@
       <c r="Z640" s="1"/>
       <c r="AA640" s="1"/>
     </row>
-    <row r="641" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -19134,7 +19165,7 @@
       <c r="Z641" s="1"/>
       <c r="AA641" s="1"/>
     </row>
-    <row r="642" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -19163,7 +19194,7 @@
       <c r="Z642" s="1"/>
       <c r="AA642" s="1"/>
     </row>
-    <row r="643" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -19192,7 +19223,7 @@
       <c r="Z643" s="1"/>
       <c r="AA643" s="1"/>
     </row>
-    <row r="644" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -19221,7 +19252,7 @@
       <c r="Z644" s="1"/>
       <c r="AA644" s="1"/>
     </row>
-    <row r="645" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -19250,7 +19281,7 @@
       <c r="Z645" s="1"/>
       <c r="AA645" s="1"/>
     </row>
-    <row r="646" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -19279,7 +19310,7 @@
       <c r="Z646" s="1"/>
       <c r="AA646" s="1"/>
     </row>
-    <row r="647" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -19308,7 +19339,7 @@
       <c r="Z647" s="1"/>
       <c r="AA647" s="1"/>
     </row>
-    <row r="648" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -19337,7 +19368,7 @@
       <c r="Z648" s="1"/>
       <c r="AA648" s="1"/>
     </row>
-    <row r="649" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -19366,7 +19397,7 @@
       <c r="Z649" s="1"/>
       <c r="AA649" s="1"/>
     </row>
-    <row r="650" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -19395,7 +19426,7 @@
       <c r="Z650" s="1"/>
       <c r="AA650" s="1"/>
     </row>
-    <row r="651" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -19424,7 +19455,7 @@
       <c r="Z651" s="1"/>
       <c r="AA651" s="1"/>
     </row>
-    <row r="652" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -19453,7 +19484,7 @@
       <c r="Z652" s="1"/>
       <c r="AA652" s="1"/>
     </row>
-    <row r="653" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -19482,7 +19513,7 @@
       <c r="Z653" s="1"/>
       <c r="AA653" s="1"/>
     </row>
-    <row r="654" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -19511,7 +19542,7 @@
       <c r="Z654" s="1"/>
       <c r="AA654" s="1"/>
     </row>
-    <row r="655" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -19540,7 +19571,7 @@
       <c r="Z655" s="1"/>
       <c r="AA655" s="1"/>
     </row>
-    <row r="656" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -19569,7 +19600,7 @@
       <c r="Z656" s="1"/>
       <c r="AA656" s="1"/>
     </row>
-    <row r="657" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -19598,7 +19629,7 @@
       <c r="Z657" s="1"/>
       <c r="AA657" s="1"/>
     </row>
-    <row r="658" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -19627,7 +19658,7 @@
       <c r="Z658" s="1"/>
       <c r="AA658" s="1"/>
     </row>
-    <row r="659" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -19656,7 +19687,7 @@
       <c r="Z659" s="1"/>
       <c r="AA659" s="1"/>
     </row>
-    <row r="660" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -19685,7 +19716,7 @@
       <c r="Z660" s="1"/>
       <c r="AA660" s="1"/>
     </row>
-    <row r="661" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -19714,7 +19745,7 @@
       <c r="Z661" s="1"/>
       <c r="AA661" s="1"/>
     </row>
-    <row r="662" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -19743,7 +19774,7 @@
       <c r="Z662" s="1"/>
       <c r="AA662" s="1"/>
     </row>
-    <row r="663" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -19772,7 +19803,7 @@
       <c r="Z663" s="1"/>
       <c r="AA663" s="1"/>
     </row>
-    <row r="664" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -19801,7 +19832,7 @@
       <c r="Z664" s="1"/>
       <c r="AA664" s="1"/>
     </row>
-    <row r="665" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -19830,7 +19861,7 @@
       <c r="Z665" s="1"/>
       <c r="AA665" s="1"/>
     </row>
-    <row r="666" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -19859,7 +19890,7 @@
       <c r="Z666" s="1"/>
       <c r="AA666" s="1"/>
     </row>
-    <row r="667" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -19888,7 +19919,7 @@
       <c r="Z667" s="1"/>
       <c r="AA667" s="1"/>
     </row>
-    <row r="668" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -19917,7 +19948,7 @@
       <c r="Z668" s="1"/>
       <c r="AA668" s="1"/>
     </row>
-    <row r="669" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -19946,7 +19977,7 @@
       <c r="Z669" s="1"/>
       <c r="AA669" s="1"/>
     </row>
-    <row r="670" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -19975,7 +20006,7 @@
       <c r="Z670" s="1"/>
       <c r="AA670" s="1"/>
     </row>
-    <row r="671" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -20004,7 +20035,7 @@
       <c r="Z671" s="1"/>
       <c r="AA671" s="1"/>
     </row>
-    <row r="672" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -20033,7 +20064,7 @@
       <c r="Z672" s="1"/>
       <c r="AA672" s="1"/>
     </row>
-    <row r="673" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -20062,7 +20093,7 @@
       <c r="Z673" s="1"/>
       <c r="AA673" s="1"/>
     </row>
-    <row r="674" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -20091,7 +20122,7 @@
       <c r="Z674" s="1"/>
       <c r="AA674" s="1"/>
     </row>
-    <row r="675" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -20120,7 +20151,7 @@
       <c r="Z675" s="1"/>
       <c r="AA675" s="1"/>
     </row>
-    <row r="676" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -20149,7 +20180,7 @@
       <c r="Z676" s="1"/>
       <c r="AA676" s="1"/>
     </row>
-    <row r="677" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -20178,7 +20209,7 @@
       <c r="Z677" s="1"/>
       <c r="AA677" s="1"/>
     </row>
-    <row r="678" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -20207,7 +20238,7 @@
       <c r="Z678" s="1"/>
       <c r="AA678" s="1"/>
     </row>
-    <row r="679" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -20236,7 +20267,7 @@
       <c r="Z679" s="1"/>
       <c r="AA679" s="1"/>
     </row>
-    <row r="680" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -20265,7 +20296,7 @@
       <c r="Z680" s="1"/>
       <c r="AA680" s="1"/>
     </row>
-    <row r="681" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -20294,7 +20325,7 @@
       <c r="Z681" s="1"/>
       <c r="AA681" s="1"/>
     </row>
-    <row r="682" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -20323,7 +20354,7 @@
       <c r="Z682" s="1"/>
       <c r="AA682" s="1"/>
     </row>
-    <row r="683" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -20352,7 +20383,7 @@
       <c r="Z683" s="1"/>
       <c r="AA683" s="1"/>
     </row>
-    <row r="684" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -20381,7 +20412,7 @@
       <c r="Z684" s="1"/>
       <c r="AA684" s="1"/>
     </row>
-    <row r="685" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -20410,7 +20441,7 @@
       <c r="Z685" s="1"/>
       <c r="AA685" s="1"/>
     </row>
-    <row r="686" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -20439,7 +20470,7 @@
       <c r="Z686" s="1"/>
       <c r="AA686" s="1"/>
     </row>
-    <row r="687" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -20468,7 +20499,7 @@
       <c r="Z687" s="1"/>
       <c r="AA687" s="1"/>
     </row>
-    <row r="688" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -20497,7 +20528,7 @@
       <c r="Z688" s="1"/>
       <c r="AA688" s="1"/>
     </row>
-    <row r="689" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -20526,7 +20557,7 @@
       <c r="Z689" s="1"/>
       <c r="AA689" s="1"/>
     </row>
-    <row r="690" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -20555,7 +20586,7 @@
       <c r="Z690" s="1"/>
       <c r="AA690" s="1"/>
     </row>
-    <row r="691" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -20584,7 +20615,7 @@
       <c r="Z691" s="1"/>
       <c r="AA691" s="1"/>
     </row>
-    <row r="692" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -20613,7 +20644,7 @@
       <c r="Z692" s="1"/>
       <c r="AA692" s="1"/>
     </row>
-    <row r="693" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -20642,7 +20673,7 @@
       <c r="Z693" s="1"/>
       <c r="AA693" s="1"/>
     </row>
-    <row r="694" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -20671,7 +20702,7 @@
       <c r="Z694" s="1"/>
       <c r="AA694" s="1"/>
     </row>
-    <row r="695" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -20700,7 +20731,7 @@
       <c r="Z695" s="1"/>
       <c r="AA695" s="1"/>
     </row>
-    <row r="696" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -20729,7 +20760,7 @@
       <c r="Z696" s="1"/>
       <c r="AA696" s="1"/>
     </row>
-    <row r="697" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -20758,7 +20789,7 @@
       <c r="Z697" s="1"/>
       <c r="AA697" s="1"/>
     </row>
-    <row r="698" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -20787,7 +20818,7 @@
       <c r="Z698" s="1"/>
       <c r="AA698" s="1"/>
     </row>
-    <row r="699" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -20816,7 +20847,7 @@
       <c r="Z699" s="1"/>
       <c r="AA699" s="1"/>
     </row>
-    <row r="700" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -20845,7 +20876,7 @@
       <c r="Z700" s="1"/>
       <c r="AA700" s="1"/>
     </row>
-    <row r="701" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -20874,7 +20905,7 @@
       <c r="Z701" s="1"/>
       <c r="AA701" s="1"/>
     </row>
-    <row r="702" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -20903,7 +20934,7 @@
       <c r="Z702" s="1"/>
       <c r="AA702" s="1"/>
     </row>
-    <row r="703" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -20932,7 +20963,7 @@
       <c r="Z703" s="1"/>
       <c r="AA703" s="1"/>
     </row>
-    <row r="704" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -20961,7 +20992,7 @@
       <c r="Z704" s="1"/>
       <c r="AA704" s="1"/>
     </row>
-    <row r="705" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -20990,7 +21021,7 @@
       <c r="Z705" s="1"/>
       <c r="AA705" s="1"/>
     </row>
-    <row r="706" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -21019,7 +21050,7 @@
       <c r="Z706" s="1"/>
       <c r="AA706" s="1"/>
     </row>
-    <row r="707" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -21048,7 +21079,7 @@
       <c r="Z707" s="1"/>
       <c r="AA707" s="1"/>
     </row>
-    <row r="708" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -21077,7 +21108,7 @@
       <c r="Z708" s="1"/>
       <c r="AA708" s="1"/>
     </row>
-    <row r="709" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -21106,7 +21137,7 @@
       <c r="Z709" s="1"/>
       <c r="AA709" s="1"/>
     </row>
-    <row r="710" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -21135,7 +21166,7 @@
       <c r="Z710" s="1"/>
       <c r="AA710" s="1"/>
     </row>
-    <row r="711" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -21164,7 +21195,7 @@
       <c r="Z711" s="1"/>
       <c r="AA711" s="1"/>
     </row>
-    <row r="712" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -21193,7 +21224,7 @@
       <c r="Z712" s="1"/>
       <c r="AA712" s="1"/>
     </row>
-    <row r="713" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -21222,7 +21253,7 @@
       <c r="Z713" s="1"/>
       <c r="AA713" s="1"/>
     </row>
-    <row r="714" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -21251,7 +21282,7 @@
       <c r="Z714" s="1"/>
       <c r="AA714" s="1"/>
     </row>
-    <row r="715" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -21280,7 +21311,7 @@
       <c r="Z715" s="1"/>
       <c r="AA715" s="1"/>
     </row>
-    <row r="716" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -21309,7 +21340,7 @@
       <c r="Z716" s="1"/>
       <c r="AA716" s="1"/>
     </row>
-    <row r="717" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -21338,7 +21369,7 @@
       <c r="Z717" s="1"/>
       <c r="AA717" s="1"/>
     </row>
-    <row r="718" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -21367,7 +21398,7 @@
       <c r="Z718" s="1"/>
       <c r="AA718" s="1"/>
     </row>
-    <row r="719" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -21396,7 +21427,7 @@
       <c r="Z719" s="1"/>
       <c r="AA719" s="1"/>
     </row>
-    <row r="720" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -21425,7 +21456,7 @@
       <c r="Z720" s="1"/>
       <c r="AA720" s="1"/>
     </row>
-    <row r="721" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -21454,7 +21485,7 @@
       <c r="Z721" s="1"/>
       <c r="AA721" s="1"/>
     </row>
-    <row r="722" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -21483,7 +21514,7 @@
       <c r="Z722" s="1"/>
       <c r="AA722" s="1"/>
     </row>
-    <row r="723" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -21512,7 +21543,7 @@
       <c r="Z723" s="1"/>
       <c r="AA723" s="1"/>
     </row>
-    <row r="724" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -21541,7 +21572,7 @@
       <c r="Z724" s="1"/>
       <c r="AA724" s="1"/>
     </row>
-    <row r="725" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -21570,7 +21601,7 @@
       <c r="Z725" s="1"/>
       <c r="AA725" s="1"/>
     </row>
-    <row r="726" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -21599,7 +21630,7 @@
       <c r="Z726" s="1"/>
       <c r="AA726" s="1"/>
     </row>
-    <row r="727" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -21628,7 +21659,7 @@
       <c r="Z727" s="1"/>
       <c r="AA727" s="1"/>
     </row>
-    <row r="728" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -21657,7 +21688,7 @@
       <c r="Z728" s="1"/>
       <c r="AA728" s="1"/>
     </row>
-    <row r="729" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -21686,7 +21717,7 @@
       <c r="Z729" s="1"/>
       <c r="AA729" s="1"/>
     </row>
-    <row r="730" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -21715,7 +21746,7 @@
       <c r="Z730" s="1"/>
       <c r="AA730" s="1"/>
     </row>
-    <row r="731" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -21744,7 +21775,7 @@
       <c r="Z731" s="1"/>
       <c r="AA731" s="1"/>
     </row>
-    <row r="732" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -21773,7 +21804,7 @@
       <c r="Z732" s="1"/>
       <c r="AA732" s="1"/>
     </row>
-    <row r="733" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -21802,7 +21833,7 @@
       <c r="Z733" s="1"/>
       <c r="AA733" s="1"/>
     </row>
-    <row r="734" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -21831,7 +21862,7 @@
       <c r="Z734" s="1"/>
       <c r="AA734" s="1"/>
     </row>
-    <row r="735" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -21860,7 +21891,7 @@
       <c r="Z735" s="1"/>
       <c r="AA735" s="1"/>
     </row>
-    <row r="736" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -21889,7 +21920,7 @@
       <c r="Z736" s="1"/>
       <c r="AA736" s="1"/>
     </row>
-    <row r="737" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -21918,7 +21949,7 @@
       <c r="Z737" s="1"/>
       <c r="AA737" s="1"/>
     </row>
-    <row r="738" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -21947,7 +21978,7 @@
       <c r="Z738" s="1"/>
       <c r="AA738" s="1"/>
     </row>
-    <row r="739" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -21976,7 +22007,7 @@
       <c r="Z739" s="1"/>
       <c r="AA739" s="1"/>
     </row>
-    <row r="740" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -22005,7 +22036,7 @@
       <c r="Z740" s="1"/>
       <c r="AA740" s="1"/>
     </row>
-    <row r="741" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -22034,7 +22065,7 @@
       <c r="Z741" s="1"/>
       <c r="AA741" s="1"/>
     </row>
-    <row r="742" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -22063,7 +22094,7 @@
       <c r="Z742" s="1"/>
       <c r="AA742" s="1"/>
     </row>
-    <row r="743" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -22092,7 +22123,7 @@
       <c r="Z743" s="1"/>
       <c r="AA743" s="1"/>
     </row>
-    <row r="744" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -22121,7 +22152,7 @@
       <c r="Z744" s="1"/>
       <c r="AA744" s="1"/>
     </row>
-    <row r="745" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -22150,7 +22181,7 @@
       <c r="Z745" s="1"/>
       <c r="AA745" s="1"/>
     </row>
-    <row r="746" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -22179,7 +22210,7 @@
       <c r="Z746" s="1"/>
       <c r="AA746" s="1"/>
     </row>
-    <row r="747" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -22208,7 +22239,7 @@
       <c r="Z747" s="1"/>
       <c r="AA747" s="1"/>
     </row>
-    <row r="748" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -22237,7 +22268,7 @@
       <c r="Z748" s="1"/>
       <c r="AA748" s="1"/>
     </row>
-    <row r="749" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -22266,7 +22297,7 @@
       <c r="Z749" s="1"/>
       <c r="AA749" s="1"/>
     </row>
-    <row r="750" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -22295,7 +22326,7 @@
       <c r="Z750" s="1"/>
       <c r="AA750" s="1"/>
     </row>
-    <row r="751" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -22324,7 +22355,7 @@
       <c r="Z751" s="1"/>
       <c r="AA751" s="1"/>
     </row>
-    <row r="752" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -22353,7 +22384,7 @@
       <c r="Z752" s="1"/>
       <c r="AA752" s="1"/>
     </row>
-    <row r="753" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -22382,7 +22413,7 @@
       <c r="Z753" s="1"/>
       <c r="AA753" s="1"/>
     </row>
-    <row r="754" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -22411,7 +22442,7 @@
       <c r="Z754" s="1"/>
       <c r="AA754" s="1"/>
     </row>
-    <row r="755" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -22440,7 +22471,7 @@
       <c r="Z755" s="1"/>
       <c r="AA755" s="1"/>
     </row>
-    <row r="756" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -22469,7 +22500,7 @@
       <c r="Z756" s="1"/>
       <c r="AA756" s="1"/>
     </row>
-    <row r="757" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -22498,7 +22529,7 @@
       <c r="Z757" s="1"/>
       <c r="AA757" s="1"/>
     </row>
-    <row r="758" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -22527,7 +22558,7 @@
       <c r="Z758" s="1"/>
       <c r="AA758" s="1"/>
     </row>
-    <row r="759" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -22556,7 +22587,7 @@
       <c r="Z759" s="1"/>
       <c r="AA759" s="1"/>
     </row>
-    <row r="760" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -22585,7 +22616,7 @@
       <c r="Z760" s="1"/>
       <c r="AA760" s="1"/>
     </row>
-    <row r="761" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -22614,7 +22645,7 @@
       <c r="Z761" s="1"/>
       <c r="AA761" s="1"/>
     </row>
-    <row r="762" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -22643,7 +22674,7 @@
       <c r="Z762" s="1"/>
       <c r="AA762" s="1"/>
     </row>
-    <row r="763" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -22672,7 +22703,7 @@
       <c r="Z763" s="1"/>
       <c r="AA763" s="1"/>
     </row>
-    <row r="764" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -22701,7 +22732,7 @@
       <c r="Z764" s="1"/>
       <c r="AA764" s="1"/>
     </row>
-    <row r="765" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -22730,7 +22761,7 @@
       <c r="Z765" s="1"/>
       <c r="AA765" s="1"/>
     </row>
-    <row r="766" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -22759,7 +22790,7 @@
       <c r="Z766" s="1"/>
       <c r="AA766" s="1"/>
     </row>
-    <row r="767" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -22788,7 +22819,7 @@
       <c r="Z767" s="1"/>
       <c r="AA767" s="1"/>
     </row>
-    <row r="768" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -22817,7 +22848,7 @@
       <c r="Z768" s="1"/>
       <c r="AA768" s="1"/>
     </row>
-    <row r="769" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -22846,7 +22877,7 @@
       <c r="Z769" s="1"/>
       <c r="AA769" s="1"/>
     </row>
-    <row r="770" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -22875,7 +22906,7 @@
       <c r="Z770" s="1"/>
       <c r="AA770" s="1"/>
     </row>
-    <row r="771" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -22904,7 +22935,7 @@
       <c r="Z771" s="1"/>
       <c r="AA771" s="1"/>
     </row>
-    <row r="772" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -22933,7 +22964,7 @@
       <c r="Z772" s="1"/>
       <c r="AA772" s="1"/>
     </row>
-    <row r="773" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -22962,7 +22993,7 @@
       <c r="Z773" s="1"/>
       <c r="AA773" s="1"/>
     </row>
-    <row r="774" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -22991,7 +23022,7 @@
       <c r="Z774" s="1"/>
       <c r="AA774" s="1"/>
     </row>
-    <row r="775" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -23020,7 +23051,7 @@
       <c r="Z775" s="1"/>
       <c r="AA775" s="1"/>
     </row>
-    <row r="776" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -23049,7 +23080,7 @@
       <c r="Z776" s="1"/>
       <c r="AA776" s="1"/>
     </row>
-    <row r="777" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -23078,7 +23109,7 @@
       <c r="Z777" s="1"/>
       <c r="AA777" s="1"/>
     </row>
-    <row r="778" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -23107,7 +23138,7 @@
       <c r="Z778" s="1"/>
       <c r="AA778" s="1"/>
     </row>
-    <row r="779" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -23136,7 +23167,7 @@
       <c r="Z779" s="1"/>
       <c r="AA779" s="1"/>
     </row>
-    <row r="780" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -23165,7 +23196,7 @@
       <c r="Z780" s="1"/>
       <c r="AA780" s="1"/>
     </row>
-    <row r="781" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -23194,7 +23225,7 @@
       <c r="Z781" s="1"/>
       <c r="AA781" s="1"/>
     </row>
-    <row r="782" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -23223,7 +23254,7 @@
       <c r="Z782" s="1"/>
       <c r="AA782" s="1"/>
     </row>
-    <row r="783" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -23252,7 +23283,7 @@
       <c r="Z783" s="1"/>
       <c r="AA783" s="1"/>
     </row>
-    <row r="784" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -23281,7 +23312,7 @@
       <c r="Z784" s="1"/>
       <c r="AA784" s="1"/>
     </row>
-    <row r="785" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -23310,7 +23341,7 @@
       <c r="Z785" s="1"/>
       <c r="AA785" s="1"/>
     </row>
-    <row r="786" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -23339,7 +23370,7 @@
       <c r="Z786" s="1"/>
       <c r="AA786" s="1"/>
     </row>
-    <row r="787" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -23368,7 +23399,7 @@
       <c r="Z787" s="1"/>
       <c r="AA787" s="1"/>
     </row>
-    <row r="788" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -23397,7 +23428,7 @@
       <c r="Z788" s="1"/>
       <c r="AA788" s="1"/>
     </row>
-    <row r="789" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -23426,7 +23457,7 @@
       <c r="Z789" s="1"/>
       <c r="AA789" s="1"/>
     </row>
-    <row r="790" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -23455,7 +23486,7 @@
       <c r="Z790" s="1"/>
       <c r="AA790" s="1"/>
     </row>
-    <row r="791" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -23484,7 +23515,7 @@
       <c r="Z791" s="1"/>
       <c r="AA791" s="1"/>
     </row>
-    <row r="792" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -23513,7 +23544,7 @@
       <c r="Z792" s="1"/>
       <c r="AA792" s="1"/>
     </row>
-    <row r="793" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -23542,7 +23573,7 @@
       <c r="Z793" s="1"/>
       <c r="AA793" s="1"/>
     </row>
-    <row r="794" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -23571,7 +23602,7 @@
       <c r="Z794" s="1"/>
       <c r="AA794" s="1"/>
     </row>
-    <row r="795" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -23600,7 +23631,7 @@
       <c r="Z795" s="1"/>
       <c r="AA795" s="1"/>
     </row>
-    <row r="796" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -23629,7 +23660,7 @@
       <c r="Z796" s="1"/>
       <c r="AA796" s="1"/>
     </row>
-    <row r="797" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -23658,7 +23689,7 @@
       <c r="Z797" s="1"/>
       <c r="AA797" s="1"/>
     </row>
-    <row r="798" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -23687,7 +23718,7 @@
       <c r="Z798" s="1"/>
       <c r="AA798" s="1"/>
     </row>
-    <row r="799" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -23716,7 +23747,7 @@
       <c r="Z799" s="1"/>
       <c r="AA799" s="1"/>
     </row>
-    <row r="800" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -23745,7 +23776,7 @@
       <c r="Z800" s="1"/>
       <c r="AA800" s="1"/>
     </row>
-    <row r="801" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -23774,7 +23805,7 @@
       <c r="Z801" s="1"/>
       <c r="AA801" s="1"/>
     </row>
-    <row r="802" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -23803,7 +23834,7 @@
       <c r="Z802" s="1"/>
       <c r="AA802" s="1"/>
     </row>
-    <row r="803" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -23832,7 +23863,7 @@
       <c r="Z803" s="1"/>
       <c r="AA803" s="1"/>
     </row>
-    <row r="804" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -23861,7 +23892,7 @@
       <c r="Z804" s="1"/>
       <c r="AA804" s="1"/>
     </row>
-    <row r="805" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -23890,7 +23921,7 @@
       <c r="Z805" s="1"/>
       <c r="AA805" s="1"/>
     </row>
-    <row r="806" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -23919,7 +23950,7 @@
       <c r="Z806" s="1"/>
       <c r="AA806" s="1"/>
     </row>
-    <row r="807" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -23948,7 +23979,7 @@
       <c r="Z807" s="1"/>
       <c r="AA807" s="1"/>
     </row>
-    <row r="808" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -23977,7 +24008,7 @@
       <c r="Z808" s="1"/>
       <c r="AA808" s="1"/>
     </row>
-    <row r="809" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -24006,7 +24037,7 @@
       <c r="Z809" s="1"/>
       <c r="AA809" s="1"/>
     </row>
-    <row r="810" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -24035,7 +24066,7 @@
       <c r="Z810" s="1"/>
       <c r="AA810" s="1"/>
     </row>
-    <row r="811" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -24064,7 +24095,7 @@
       <c r="Z811" s="1"/>
       <c r="AA811" s="1"/>
     </row>
-    <row r="812" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -24093,7 +24124,7 @@
       <c r="Z812" s="1"/>
       <c r="AA812" s="1"/>
     </row>
-    <row r="813" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -24122,7 +24153,7 @@
       <c r="Z813" s="1"/>
       <c r="AA813" s="1"/>
     </row>
-    <row r="814" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -24151,7 +24182,7 @@
       <c r="Z814" s="1"/>
       <c r="AA814" s="1"/>
     </row>
-    <row r="815" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -24180,7 +24211,7 @@
       <c r="Z815" s="1"/>
       <c r="AA815" s="1"/>
     </row>
-    <row r="816" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -24209,7 +24240,7 @@
       <c r="Z816" s="1"/>
       <c r="AA816" s="1"/>
     </row>
-    <row r="817" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -24238,7 +24269,7 @@
       <c r="Z817" s="1"/>
       <c r="AA817" s="1"/>
     </row>
-    <row r="818" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -24267,7 +24298,7 @@
       <c r="Z818" s="1"/>
       <c r="AA818" s="1"/>
     </row>
-    <row r="819" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -24296,7 +24327,7 @@
       <c r="Z819" s="1"/>
       <c r="AA819" s="1"/>
     </row>
-    <row r="820" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -24325,7 +24356,7 @@
       <c r="Z820" s="1"/>
       <c r="AA820" s="1"/>
     </row>
-    <row r="821" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -24354,7 +24385,7 @@
       <c r="Z821" s="1"/>
       <c r="AA821" s="1"/>
     </row>
-    <row r="822" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -24383,7 +24414,7 @@
       <c r="Z822" s="1"/>
       <c r="AA822" s="1"/>
     </row>
-    <row r="823" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -24412,7 +24443,7 @@
       <c r="Z823" s="1"/>
       <c r="AA823" s="1"/>
     </row>
-    <row r="824" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -24441,7 +24472,7 @@
       <c r="Z824" s="1"/>
       <c r="AA824" s="1"/>
     </row>
-    <row r="825" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -24470,7 +24501,7 @@
       <c r="Z825" s="1"/>
       <c r="AA825" s="1"/>
     </row>
-    <row r="826" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -24499,7 +24530,7 @@
       <c r="Z826" s="1"/>
       <c r="AA826" s="1"/>
     </row>
-    <row r="827" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -24528,7 +24559,7 @@
       <c r="Z827" s="1"/>
       <c r="AA827" s="1"/>
     </row>
-    <row r="828" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -24557,7 +24588,7 @@
       <c r="Z828" s="1"/>
       <c r="AA828" s="1"/>
     </row>
-    <row r="829" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -24586,7 +24617,7 @@
       <c r="Z829" s="1"/>
       <c r="AA829" s="1"/>
     </row>
-    <row r="830" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -24615,7 +24646,7 @@
       <c r="Z830" s="1"/>
       <c r="AA830" s="1"/>
     </row>
-    <row r="831" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -24644,7 +24675,7 @@
       <c r="Z831" s="1"/>
       <c r="AA831" s="1"/>
     </row>
-    <row r="832" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -24673,7 +24704,7 @@
       <c r="Z832" s="1"/>
       <c r="AA832" s="1"/>
     </row>
-    <row r="833" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -24702,7 +24733,7 @@
       <c r="Z833" s="1"/>
       <c r="AA833" s="1"/>
     </row>
-    <row r="834" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -24731,7 +24762,7 @@
       <c r="Z834" s="1"/>
       <c r="AA834" s="1"/>
     </row>
-    <row r="835" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -24760,7 +24791,7 @@
       <c r="Z835" s="1"/>
       <c r="AA835" s="1"/>
     </row>
-    <row r="836" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -24789,7 +24820,7 @@
       <c r="Z836" s="1"/>
       <c r="AA836" s="1"/>
     </row>
-    <row r="837" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -24818,7 +24849,7 @@
       <c r="Z837" s="1"/>
       <c r="AA837" s="1"/>
     </row>
-    <row r="838" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -24847,7 +24878,7 @@
       <c r="Z838" s="1"/>
       <c r="AA838" s="1"/>
     </row>
-    <row r="839" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -24876,7 +24907,7 @@
       <c r="Z839" s="1"/>
       <c r="AA839" s="1"/>
     </row>
-    <row r="840" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -24905,7 +24936,7 @@
       <c r="Z840" s="1"/>
       <c r="AA840" s="1"/>
     </row>
-    <row r="841" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -24934,7 +24965,7 @@
       <c r="Z841" s="1"/>
       <c r="AA841" s="1"/>
     </row>
-    <row r="842" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -24963,7 +24994,7 @@
       <c r="Z842" s="1"/>
       <c r="AA842" s="1"/>
     </row>
-    <row r="843" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -24992,7 +25023,7 @@
       <c r="Z843" s="1"/>
       <c r="AA843" s="1"/>
     </row>
-    <row r="844" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -25021,7 +25052,7 @@
       <c r="Z844" s="1"/>
       <c r="AA844" s="1"/>
     </row>
-    <row r="845" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -25050,7 +25081,7 @@
       <c r="Z845" s="1"/>
       <c r="AA845" s="1"/>
     </row>
-    <row r="846" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -25079,7 +25110,7 @@
       <c r="Z846" s="1"/>
       <c r="AA846" s="1"/>
     </row>
-    <row r="847" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -25108,7 +25139,7 @@
       <c r="Z847" s="1"/>
       <c r="AA847" s="1"/>
     </row>
-    <row r="848" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -25137,7 +25168,7 @@
       <c r="Z848" s="1"/>
       <c r="AA848" s="1"/>
     </row>
-    <row r="849" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -25166,7 +25197,7 @@
       <c r="Z849" s="1"/>
       <c r="AA849" s="1"/>
     </row>
-    <row r="850" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -25195,7 +25226,7 @@
       <c r="Z850" s="1"/>
       <c r="AA850" s="1"/>
     </row>
-    <row r="851" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -25224,7 +25255,7 @@
       <c r="Z851" s="1"/>
       <c r="AA851" s="1"/>
     </row>
-    <row r="852" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -25253,7 +25284,7 @@
       <c r="Z852" s="1"/>
       <c r="AA852" s="1"/>
     </row>
-    <row r="853" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -25282,7 +25313,7 @@
       <c r="Z853" s="1"/>
       <c r="AA853" s="1"/>
     </row>
-    <row r="854" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -25311,7 +25342,7 @@
       <c r="Z854" s="1"/>
       <c r="AA854" s="1"/>
     </row>
-    <row r="855" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -25340,7 +25371,7 @@
       <c r="Z855" s="1"/>
       <c r="AA855" s="1"/>
     </row>
-    <row r="856" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -25369,7 +25400,7 @@
       <c r="Z856" s="1"/>
       <c r="AA856" s="1"/>
     </row>
-    <row r="857" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -25398,7 +25429,7 @@
       <c r="Z857" s="1"/>
       <c r="AA857" s="1"/>
     </row>
-    <row r="858" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -25427,7 +25458,7 @@
       <c r="Z858" s="1"/>
       <c r="AA858" s="1"/>
     </row>
-    <row r="859" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -25456,7 +25487,7 @@
       <c r="Z859" s="1"/>
       <c r="AA859" s="1"/>
     </row>
-    <row r="860" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -25485,7 +25516,7 @@
       <c r="Z860" s="1"/>
       <c r="AA860" s="1"/>
     </row>
-    <row r="861" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -25514,7 +25545,7 @@
       <c r="Z861" s="1"/>
       <c r="AA861" s="1"/>
     </row>
-    <row r="862" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -25543,7 +25574,7 @@
       <c r="Z862" s="1"/>
       <c r="AA862" s="1"/>
     </row>
-    <row r="863" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -25572,7 +25603,7 @@
       <c r="Z863" s="1"/>
       <c r="AA863" s="1"/>
     </row>
-    <row r="864" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -25601,7 +25632,7 @@
       <c r="Z864" s="1"/>
       <c r="AA864" s="1"/>
     </row>
-    <row r="865" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -25630,7 +25661,7 @@
       <c r="Z865" s="1"/>
       <c r="AA865" s="1"/>
     </row>
-    <row r="866" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -25659,7 +25690,7 @@
       <c r="Z866" s="1"/>
       <c r="AA866" s="1"/>
     </row>
-    <row r="867" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -25688,7 +25719,7 @@
       <c r="Z867" s="1"/>
       <c r="AA867" s="1"/>
     </row>
-    <row r="868" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -25717,7 +25748,7 @@
       <c r="Z868" s="1"/>
       <c r="AA868" s="1"/>
     </row>
-    <row r="869" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -25746,7 +25777,7 @@
       <c r="Z869" s="1"/>
       <c r="AA869" s="1"/>
     </row>
-    <row r="870" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -25775,7 +25806,7 @@
       <c r="Z870" s="1"/>
       <c r="AA870" s="1"/>
     </row>
-    <row r="871" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -25804,7 +25835,7 @@
       <c r="Z871" s="1"/>
       <c r="AA871" s="1"/>
     </row>
-    <row r="872" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -25833,7 +25864,7 @@
       <c r="Z872" s="1"/>
       <c r="AA872" s="1"/>
     </row>
-    <row r="873" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -25862,7 +25893,7 @@
       <c r="Z873" s="1"/>
       <c r="AA873" s="1"/>
     </row>
-    <row r="874" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -25891,7 +25922,7 @@
       <c r="Z874" s="1"/>
       <c r="AA874" s="1"/>
     </row>
-    <row r="875" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -25920,7 +25951,7 @@
       <c r="Z875" s="1"/>
       <c r="AA875" s="1"/>
     </row>
-    <row r="876" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -25949,7 +25980,7 @@
       <c r="Z876" s="1"/>
       <c r="AA876" s="1"/>
     </row>
-    <row r="877" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -25978,7 +26009,7 @@
       <c r="Z877" s="1"/>
       <c r="AA877" s="1"/>
     </row>
-    <row r="878" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -26007,7 +26038,7 @@
       <c r="Z878" s="1"/>
       <c r="AA878" s="1"/>
     </row>
-    <row r="879" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -26036,7 +26067,7 @@
       <c r="Z879" s="1"/>
       <c r="AA879" s="1"/>
     </row>
-    <row r="880" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -26065,7 +26096,7 @@
       <c r="Z880" s="1"/>
       <c r="AA880" s="1"/>
     </row>
-    <row r="881" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -26094,7 +26125,7 @@
       <c r="Z881" s="1"/>
       <c r="AA881" s="1"/>
     </row>
-    <row r="882" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -26123,7 +26154,7 @@
       <c r="Z882" s="1"/>
       <c r="AA882" s="1"/>
     </row>
-    <row r="883" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -26152,7 +26183,7 @@
       <c r="Z883" s="1"/>
       <c r="AA883" s="1"/>
     </row>
-    <row r="884" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -26181,7 +26212,7 @@
       <c r="Z884" s="1"/>
       <c r="AA884" s="1"/>
     </row>
-    <row r="885" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -26210,7 +26241,7 @@
       <c r="Z885" s="1"/>
       <c r="AA885" s="1"/>
     </row>
-    <row r="886" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -26239,7 +26270,7 @@
       <c r="Z886" s="1"/>
       <c r="AA886" s="1"/>
     </row>
-    <row r="887" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -26268,7 +26299,7 @@
       <c r="Z887" s="1"/>
       <c r="AA887" s="1"/>
     </row>
-    <row r="888" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -26297,7 +26328,7 @@
       <c r="Z888" s="1"/>
       <c r="AA888" s="1"/>
     </row>
-    <row r="889" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -26326,7 +26357,7 @@
       <c r="Z889" s="1"/>
       <c r="AA889" s="1"/>
     </row>
-    <row r="890" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -26355,7 +26386,7 @@
       <c r="Z890" s="1"/>
       <c r="AA890" s="1"/>
     </row>
-    <row r="891" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -26384,7 +26415,7 @@
       <c r="Z891" s="1"/>
       <c r="AA891" s="1"/>
     </row>
-    <row r="892" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -26413,7 +26444,7 @@
       <c r="Z892" s="1"/>
       <c r="AA892" s="1"/>
     </row>
-    <row r="893" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -26442,7 +26473,7 @@
       <c r="Z893" s="1"/>
       <c r="AA893" s="1"/>
     </row>
-    <row r="894" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -26471,7 +26502,7 @@
       <c r="Z894" s="1"/>
       <c r="AA894" s="1"/>
     </row>
-    <row r="895" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -26500,7 +26531,7 @@
       <c r="Z895" s="1"/>
       <c r="AA895" s="1"/>
     </row>
-    <row r="896" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -26529,7 +26560,7 @@
       <c r="Z896" s="1"/>
       <c r="AA896" s="1"/>
     </row>
-    <row r="897" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -26558,7 +26589,7 @@
       <c r="Z897" s="1"/>
       <c r="AA897" s="1"/>
     </row>
-    <row r="898" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -26587,7 +26618,7 @@
       <c r="Z898" s="1"/>
       <c r="AA898" s="1"/>
     </row>
-    <row r="899" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -26616,7 +26647,7 @@
       <c r="Z899" s="1"/>
       <c r="AA899" s="1"/>
     </row>
-    <row r="900" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -26645,7 +26676,7 @@
       <c r="Z900" s="1"/>
       <c r="AA900" s="1"/>
     </row>
-    <row r="901" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -26674,7 +26705,7 @@
       <c r="Z901" s="1"/>
       <c r="AA901" s="1"/>
     </row>
-    <row r="902" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -26703,7 +26734,7 @@
       <c r="Z902" s="1"/>
       <c r="AA902" s="1"/>
     </row>
-    <row r="903" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -26732,7 +26763,7 @@
       <c r="Z903" s="1"/>
       <c r="AA903" s="1"/>
     </row>
-    <row r="904" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -26761,7 +26792,7 @@
       <c r="Z904" s="1"/>
       <c r="AA904" s="1"/>
     </row>
-    <row r="905" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -26790,7 +26821,7 @@
       <c r="Z905" s="1"/>
       <c r="AA905" s="1"/>
     </row>
-    <row r="906" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -26819,7 +26850,7 @@
       <c r="Z906" s="1"/>
       <c r="AA906" s="1"/>
     </row>
-    <row r="907" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -26848,7 +26879,7 @@
       <c r="Z907" s="1"/>
       <c r="AA907" s="1"/>
     </row>
-    <row r="908" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -26877,7 +26908,7 @@
       <c r="Z908" s="1"/>
       <c r="AA908" s="1"/>
     </row>
-    <row r="909" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -26906,7 +26937,7 @@
       <c r="Z909" s="1"/>
       <c r="AA909" s="1"/>
     </row>
-    <row r="910" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -26935,7 +26966,7 @@
       <c r="Z910" s="1"/>
       <c r="AA910" s="1"/>
     </row>
-    <row r="911" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -26964,7 +26995,7 @@
       <c r="Z911" s="1"/>
       <c r="AA911" s="1"/>
     </row>
-    <row r="912" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -26993,7 +27024,7 @@
       <c r="Z912" s="1"/>
       <c r="AA912" s="1"/>
     </row>
-    <row r="913" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -27022,7 +27053,7 @@
       <c r="Z913" s="1"/>
       <c r="AA913" s="1"/>
     </row>
-    <row r="914" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -27051,7 +27082,7 @@
       <c r="Z914" s="1"/>
       <c r="AA914" s="1"/>
     </row>
-    <row r="915" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -27080,7 +27111,7 @@
       <c r="Z915" s="1"/>
       <c r="AA915" s="1"/>
     </row>
-    <row r="916" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -27109,7 +27140,7 @@
       <c r="Z916" s="1"/>
       <c r="AA916" s="1"/>
     </row>
-    <row r="917" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -27138,7 +27169,7 @@
       <c r="Z917" s="1"/>
       <c r="AA917" s="1"/>
     </row>
-    <row r="918" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -27167,7 +27198,7 @@
       <c r="Z918" s="1"/>
       <c r="AA918" s="1"/>
     </row>
-    <row r="919" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -27196,7 +27227,7 @@
       <c r="Z919" s="1"/>
       <c r="AA919" s="1"/>
     </row>
-    <row r="920" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -27225,7 +27256,7 @@
       <c r="Z920" s="1"/>
       <c r="AA920" s="1"/>
     </row>
-    <row r="921" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -27254,7 +27285,7 @@
       <c r="Z921" s="1"/>
       <c r="AA921" s="1"/>
     </row>
-    <row r="922" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -27283,7 +27314,7 @@
       <c r="Z922" s="1"/>
       <c r="AA922" s="1"/>
     </row>
-    <row r="923" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -27312,7 +27343,7 @@
       <c r="Z923" s="1"/>
       <c r="AA923" s="1"/>
     </row>
-    <row r="924" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -27341,7 +27372,7 @@
       <c r="Z924" s="1"/>
       <c r="AA924" s="1"/>
     </row>
-    <row r="925" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -27370,7 +27401,7 @@
       <c r="Z925" s="1"/>
       <c r="AA925" s="1"/>
     </row>
-    <row r="926" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -27399,7 +27430,7 @@
       <c r="Z926" s="1"/>
       <c r="AA926" s="1"/>
     </row>
-    <row r="927" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -27428,7 +27459,7 @@
       <c r="Z927" s="1"/>
       <c r="AA927" s="1"/>
     </row>
-    <row r="928" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -27457,7 +27488,7 @@
       <c r="Z928" s="1"/>
       <c r="AA928" s="1"/>
     </row>
-    <row r="929" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -27486,7 +27517,7 @@
       <c r="Z929" s="1"/>
       <c r="AA929" s="1"/>
     </row>
-    <row r="930" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -27515,7 +27546,7 @@
       <c r="Z930" s="1"/>
       <c r="AA930" s="1"/>
     </row>
-    <row r="931" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -27544,7 +27575,7 @@
       <c r="Z931" s="1"/>
       <c r="AA931" s="1"/>
     </row>
-    <row r="932" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -27573,7 +27604,7 @@
       <c r="Z932" s="1"/>
       <c r="AA932" s="1"/>
     </row>
-    <row r="933" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -27602,7 +27633,7 @@
       <c r="Z933" s="1"/>
       <c r="AA933" s="1"/>
     </row>
-    <row r="934" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -27631,7 +27662,7 @@
       <c r="Z934" s="1"/>
       <c r="AA934" s="1"/>
     </row>
-    <row r="935" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -27660,7 +27691,7 @@
       <c r="Z935" s="1"/>
       <c r="AA935" s="1"/>
     </row>
-    <row r="936" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -27689,7 +27720,7 @@
       <c r="Z936" s="1"/>
       <c r="AA936" s="1"/>
     </row>
-    <row r="937" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -27718,7 +27749,7 @@
       <c r="Z937" s="1"/>
       <c r="AA937" s="1"/>
     </row>
-    <row r="938" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -27747,7 +27778,7 @@
       <c r="Z938" s="1"/>
       <c r="AA938" s="1"/>
     </row>
-    <row r="939" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -27776,7 +27807,7 @@
       <c r="Z939" s="1"/>
       <c r="AA939" s="1"/>
     </row>
-    <row r="940" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -27805,7 +27836,7 @@
       <c r="Z940" s="1"/>
       <c r="AA940" s="1"/>
     </row>
-    <row r="941" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -27834,7 +27865,7 @@
       <c r="Z941" s="1"/>
       <c r="AA941" s="1"/>
     </row>
-    <row r="942" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -27863,7 +27894,7 @@
       <c r="Z942" s="1"/>
       <c r="AA942" s="1"/>
     </row>
-    <row r="943" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -27892,7 +27923,7 @@
       <c r="Z943" s="1"/>
       <c r="AA943" s="1"/>
     </row>
-    <row r="944" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -27921,7 +27952,7 @@
       <c r="Z944" s="1"/>
       <c r="AA944" s="1"/>
     </row>
-    <row r="945" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -27950,7 +27981,7 @@
       <c r="Z945" s="1"/>
       <c r="AA945" s="1"/>
     </row>
-    <row r="946" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -27979,7 +28010,7 @@
       <c r="Z946" s="1"/>
       <c r="AA946" s="1"/>
     </row>
-    <row r="947" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -28008,7 +28039,7 @@
       <c r="Z947" s="1"/>
       <c r="AA947" s="1"/>
     </row>
-    <row r="948" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -28037,7 +28068,7 @@
       <c r="Z948" s="1"/>
       <c r="AA948" s="1"/>
     </row>
-    <row r="949" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -28066,7 +28097,7 @@
       <c r="Z949" s="1"/>
       <c r="AA949" s="1"/>
     </row>
-    <row r="950" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -28095,7 +28126,7 @@
       <c r="Z950" s="1"/>
       <c r="AA950" s="1"/>
     </row>
-    <row r="951" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -28124,7 +28155,7 @@
       <c r="Z951" s="1"/>
       <c r="AA951" s="1"/>
     </row>
-    <row r="952" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -28153,7 +28184,7 @@
       <c r="Z952" s="1"/>
       <c r="AA952" s="1"/>
     </row>
-    <row r="953" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -28182,7 +28213,7 @@
       <c r="Z953" s="1"/>
       <c r="AA953" s="1"/>
     </row>
-    <row r="954" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -28211,7 +28242,7 @@
       <c r="Z954" s="1"/>
       <c r="AA954" s="1"/>
     </row>
-    <row r="955" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -28240,7 +28271,7 @@
       <c r="Z955" s="1"/>
       <c r="AA955" s="1"/>
     </row>
-    <row r="956" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -28269,7 +28300,7 @@
       <c r="Z956" s="1"/>
       <c r="AA956" s="1"/>
     </row>
-    <row r="957" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -28298,7 +28329,7 @@
       <c r="Z957" s="1"/>
       <c r="AA957" s="1"/>
     </row>
-    <row r="958" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -28327,7 +28358,7 @@
       <c r="Z958" s="1"/>
       <c r="AA958" s="1"/>
     </row>
-    <row r="959" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -28356,7 +28387,7 @@
       <c r="Z959" s="1"/>
       <c r="AA959" s="1"/>
     </row>
-    <row r="960" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -28385,7 +28416,7 @@
       <c r="Z960" s="1"/>
       <c r="AA960" s="1"/>
     </row>
-    <row r="961" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -28414,7 +28445,7 @@
       <c r="Z961" s="1"/>
       <c r="AA961" s="1"/>
     </row>
-    <row r="962" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -28443,7 +28474,7 @@
       <c r="Z962" s="1"/>
       <c r="AA962" s="1"/>
     </row>
-    <row r="963" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -28472,7 +28503,7 @@
       <c r="Z963" s="1"/>
       <c r="AA963" s="1"/>
     </row>
-    <row r="964" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -28501,7 +28532,7 @@
       <c r="Z964" s="1"/>
       <c r="AA964" s="1"/>
     </row>
-    <row r="965" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -28530,7 +28561,7 @@
       <c r="Z965" s="1"/>
       <c r="AA965" s="1"/>
     </row>
-    <row r="966" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -28559,7 +28590,7 @@
       <c r="Z966" s="1"/>
       <c r="AA966" s="1"/>
     </row>
-    <row r="967" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -28588,7 +28619,7 @@
       <c r="Z967" s="1"/>
       <c r="AA967" s="1"/>
     </row>
-    <row r="968" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -28617,7 +28648,7 @@
       <c r="Z968" s="1"/>
       <c r="AA968" s="1"/>
     </row>
-    <row r="969" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -28646,7 +28677,7 @@
       <c r="Z969" s="1"/>
       <c r="AA969" s="1"/>
     </row>
-    <row r="970" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -28675,7 +28706,7 @@
       <c r="Z970" s="1"/>
       <c r="AA970" s="1"/>
     </row>
-    <row r="971" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -28704,7 +28735,7 @@
       <c r="Z971" s="1"/>
       <c r="AA971" s="1"/>
     </row>
-    <row r="972" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -28733,7 +28764,7 @@
       <c r="Z972" s="1"/>
       <c r="AA972" s="1"/>
     </row>
-    <row r="973" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -28762,7 +28793,7 @@
       <c r="Z973" s="1"/>
       <c r="AA973" s="1"/>
     </row>
-    <row r="974" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -28791,7 +28822,7 @@
       <c r="Z974" s="1"/>
       <c r="AA974" s="1"/>
     </row>
-    <row r="975" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -28820,7 +28851,7 @@
       <c r="Z975" s="1"/>
       <c r="AA975" s="1"/>
     </row>
-    <row r="976" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -28849,7 +28880,7 @@
       <c r="Z976" s="1"/>
       <c r="AA976" s="1"/>
     </row>
-    <row r="977" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -28878,7 +28909,7 @@
       <c r="Z977" s="1"/>
       <c r="AA977" s="1"/>
     </row>
-    <row r="978" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -28907,7 +28938,7 @@
       <c r="Z978" s="1"/>
       <c r="AA978" s="1"/>
     </row>
-    <row r="979" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -28936,7 +28967,7 @@
       <c r="Z979" s="1"/>
       <c r="AA979" s="1"/>
     </row>
-    <row r="980" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -28965,7 +28996,7 @@
       <c r="Z980" s="1"/>
       <c r="AA980" s="1"/>
     </row>
-    <row r="981" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -28994,7 +29025,7 @@
       <c r="Z981" s="1"/>
       <c r="AA981" s="1"/>
     </row>
-    <row r="982" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -29023,7 +29054,7 @@
       <c r="Z982" s="1"/>
       <c r="AA982" s="1"/>
     </row>
-    <row r="983" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -29052,7 +29083,7 @@
       <c r="Z983" s="1"/>
       <c r="AA983" s="1"/>
     </row>
-    <row r="984" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -29081,7 +29112,7 @@
       <c r="Z984" s="1"/>
       <c r="AA984" s="1"/>
     </row>
-    <row r="985" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -29110,7 +29141,7 @@
       <c r="Z985" s="1"/>
       <c r="AA985" s="1"/>
     </row>
-    <row r="986" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -29139,7 +29170,7 @@
       <c r="Z986" s="1"/>
       <c r="AA986" s="1"/>
     </row>
-    <row r="987" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -29168,7 +29199,7 @@
       <c r="Z987" s="1"/>
       <c r="AA987" s="1"/>
     </row>
-    <row r="988" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -29197,7 +29228,7 @@
       <c r="Z988" s="1"/>
       <c r="AA988" s="1"/>
     </row>
-    <row r="989" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -29226,7 +29257,7 @@
       <c r="Z989" s="1"/>
       <c r="AA989" s="1"/>
     </row>
-    <row r="990" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -29255,7 +29286,7 @@
       <c r="Z990" s="1"/>
       <c r="AA990" s="1"/>
     </row>
-    <row r="991" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -29284,7 +29315,7 @@
       <c r="Z991" s="1"/>
       <c r="AA991" s="1"/>
     </row>
-    <row r="992" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -29313,7 +29344,7 @@
       <c r="Z992" s="1"/>
       <c r="AA992" s="1"/>
     </row>
-    <row r="993" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -29342,7 +29373,7 @@
       <c r="Z993" s="1"/>
       <c r="AA993" s="1"/>
     </row>
-    <row r="994" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -29371,7 +29402,7 @@
       <c r="Z994" s="1"/>
       <c r="AA994" s="1"/>
     </row>
-    <row r="995" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -29400,7 +29431,7 @@
       <c r="Z995" s="1"/>
       <c r="AA995" s="1"/>
     </row>
-    <row r="996" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -29429,7 +29460,7 @@
       <c r="Z996" s="1"/>
       <c r="AA996" s="1"/>
     </row>
-    <row r="997" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -29458,7 +29489,7 @@
       <c r="Z997" s="1"/>
       <c r="AA997" s="1"/>
     </row>
-    <row r="998" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -29487,7 +29518,7 @@
       <c r="Z998" s="1"/>
       <c r="AA998" s="1"/>
     </row>
-    <row r="999" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -29516,7 +29547,7 @@
       <c r="Z999" s="1"/>
       <c r="AA999" s="1"/>
     </row>
-    <row r="1000" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>
